--- a/WppRegpack/TestResource/Regression/DS_SPN_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_SPN_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="18" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="71" activeTab="74"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -85,8 +85,10 @@
     <sheet name="InvoiceOnAccount" sheetId="76" r:id="rId71"/>
     <sheet name="InvoicingFromBudget" sheetId="77" r:id="rId72"/>
     <sheet name="JobInvoiceAllocation_WIP" sheetId="78" r:id="rId73"/>
-    <sheet name="Agency Users" sheetId="11" r:id="rId74"/>
-    <sheet name="SSC Users" sheetId="12" r:id="rId75"/>
+    <sheet name="QuoteMPL" sheetId="79" r:id="rId74"/>
+    <sheet name="InvoiceMPL" sheetId="80" r:id="rId75"/>
+    <sheet name="Agency Users" sheetId="11" r:id="rId76"/>
+    <sheet name="SSC Users" sheetId="12" r:id="rId77"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -98,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="1195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="1195">
   <si>
     <t>Description</t>
   </si>
@@ -6352,7 +6354,7 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -15543,6 +15545,68 @@
 
 <file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -15775,7 +15839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>

--- a/WppRegpack/TestResource/Regression/DS_SPN_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_SPN_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GlobalTestSuite_BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\OneDrive - Cognizant\Documents\GlobalTestSuite Project\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620" firstSheet="85" activeTab="88"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2967" uniqueCount="1406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2968" uniqueCount="1407">
   <si>
     <t>Description</t>
   </si>
@@ -3331,9 +3331,6 @@
     <t>Client Invoice No</t>
   </si>
   <si>
-    <t>CORE@TESTING1006</t>
-  </si>
-  <si>
     <t>SPA Admin (TST)</t>
   </si>
   <si>
@@ -3448,33 +3445,6 @@
     <t>1003 Finance (TST)</t>
   </si>
   <si>
-    <t>1003 Account Director (TST)</t>
-  </si>
-  <si>
-    <t>1003 Admin (TST)</t>
-  </si>
-  <si>
-    <t>1003 Basic (TST)</t>
-  </si>
-  <si>
-    <t>1003 Biller (TST)</t>
-  </si>
-  <si>
-    <t>1003 HR (TST)</t>
-  </si>
-  <si>
-    <t>1003 Management (TST)</t>
-  </si>
-  <si>
-    <t>1003 Production (TST)</t>
-  </si>
-  <si>
-    <t>1003 Project Manager (TST)</t>
-  </si>
-  <si>
-    <t>1003 Senior Finance (TST)</t>
-  </si>
-  <si>
     <t>Madrid</t>
   </si>
   <si>
@@ -3503,9 +3473,6 @@
   </si>
   <si>
     <t>BKBKESMMXXM</t>
-  </si>
-  <si>
-    <t>SPAIN-1003-WPP Holdings Spain, S.L.</t>
   </si>
   <si>
     <t>Global Client Currency</t>
@@ -4332,6 +4299,42 @@
   </si>
   <si>
     <t>1003100090</t>
+  </si>
+  <si>
+    <t>1008 Account Director (TST)</t>
+  </si>
+  <si>
+    <t>1008 Admin (TST)</t>
+  </si>
+  <si>
+    <t>1008 Basic (TST)</t>
+  </si>
+  <si>
+    <t>1008 Biller (TST)</t>
+  </si>
+  <si>
+    <t>1008 Finance (TST)</t>
+  </si>
+  <si>
+    <t>1008 HR (TST)</t>
+  </si>
+  <si>
+    <t>1008 Management (TST)</t>
+  </si>
+  <si>
+    <t>1008 Production (TST)</t>
+  </si>
+  <si>
+    <t>1008 Project Manager (TST)</t>
+  </si>
+  <si>
+    <t>1008 Senior Finance (TST)</t>
+  </si>
+  <si>
+    <t>SPAIN-1008-Ogilvy &amp; Mather Publicidad Madrid, S.A.U.</t>
+  </si>
+  <si>
+    <t>SPAIN-1006-Hill and Knowlton España, S.A.</t>
   </si>
 </sst>
 </file>
@@ -5112,8 +5115,8 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5128,7 +5131,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="71">
-        <v>1003</v>
+        <v>1008</v>
       </c>
       <c r="C1" s="71">
         <v>1006</v>
@@ -5139,7 +5142,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>1119</v>
+        <v>1399</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>930</v>
@@ -5150,23 +5153,26 @@
         <v>3</v>
       </c>
       <c r="B3" s="109" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C3" s="109" t="s">
-        <v>1072</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B4" s="91" t="s">
-        <v>1130</v>
+        <v>1405</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1406</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="69" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B5" s="92"/>
     </row>
@@ -5211,10 +5217,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="72" t="s">
-        <v>1152</v>
+        <v>1141</v>
       </c>
       <c r="C2" t="s">
-        <v>1355</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -5258,22 +5264,22 @@
         <v>172</v>
       </c>
       <c r="E1" t="s">
-        <v>1156</v>
+        <v>1145</v>
       </c>
       <c r="F1" t="s">
-        <v>1157</v>
+        <v>1146</v>
       </c>
       <c r="G1" t="s">
-        <v>1159</v>
+        <v>1148</v>
       </c>
       <c r="H1" t="s">
-        <v>1161</v>
+        <v>1150</v>
       </c>
       <c r="I1" t="s">
-        <v>1162</v>
+        <v>1151</v>
       </c>
       <c r="J1" t="s">
-        <v>1164</v>
+        <v>1153</v>
       </c>
       <c r="K1" t="s">
         <v>103</v>
@@ -5285,22 +5291,22 @@
         <v>173</v>
       </c>
       <c r="N1" t="s">
-        <v>1168</v>
+        <v>1157</v>
       </c>
       <c r="O1" t="s">
-        <v>1170</v>
+        <v>1159</v>
       </c>
       <c r="P1" t="s">
-        <v>1171</v>
+        <v>1160</v>
       </c>
       <c r="Q1" t="s">
-        <v>1172</v>
+        <v>1161</v>
       </c>
       <c r="R1" t="s">
-        <v>1174</v>
+        <v>1163</v>
       </c>
       <c r="S1" t="s">
-        <v>1175</v>
+        <v>1164</v>
       </c>
       <c r="T1" t="s">
         <v>107</v>
@@ -5312,22 +5318,22 @@
         <v>174</v>
       </c>
       <c r="W1" t="s">
-        <v>1180</v>
+        <v>1169</v>
       </c>
       <c r="X1" t="s">
-        <v>1182</v>
+        <v>1171</v>
       </c>
       <c r="Y1" t="s">
-        <v>1183</v>
+        <v>1172</v>
       </c>
       <c r="Z1" t="s">
-        <v>1184</v>
+        <v>1173</v>
       </c>
       <c r="AA1" t="s">
-        <v>1186</v>
+        <v>1175</v>
       </c>
       <c r="AB1" t="s">
-        <v>1187</v>
+        <v>1176</v>
       </c>
       <c r="AC1" t="s">
         <v>111</v>
@@ -5339,22 +5345,22 @@
         <v>175</v>
       </c>
       <c r="AF1" t="s">
-        <v>1192</v>
+        <v>1181</v>
       </c>
       <c r="AG1" t="s">
-        <v>1194</v>
+        <v>1183</v>
       </c>
       <c r="AH1" t="s">
-        <v>1195</v>
+        <v>1184</v>
       </c>
       <c r="AI1" t="s">
-        <v>1196</v>
+        <v>1185</v>
       </c>
       <c r="AJ1" t="s">
-        <v>1198</v>
+        <v>1187</v>
       </c>
       <c r="AK1" t="s">
-        <v>1199</v>
+        <v>1188</v>
       </c>
       <c r="AL1" t="s">
         <v>115</v>
@@ -5366,28 +5372,28 @@
         <v>176</v>
       </c>
       <c r="AO1" t="s">
-        <v>1201</v>
+        <v>1190</v>
       </c>
       <c r="AP1" t="s">
-        <v>1202</v>
+        <v>1191</v>
       </c>
       <c r="AQ1" t="s">
-        <v>1203</v>
+        <v>1192</v>
       </c>
       <c r="AR1" t="s">
-        <v>1204</v>
+        <v>1193</v>
       </c>
       <c r="AS1" t="s">
-        <v>1205</v>
+        <v>1194</v>
       </c>
       <c r="AT1" t="s">
-        <v>1206</v>
+        <v>1195</v>
       </c>
       <c r="AU1" t="s">
-        <v>1207</v>
+        <v>1196</v>
       </c>
       <c r="AV1" t="s">
-        <v>1208</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.25">
@@ -5402,148 +5408,148 @@
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1149</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="I4" t="s">
         <v>1152</v>
       </c>
-      <c r="B4" t="s">
+      <c r="J4" t="s">
         <v>1165</v>
       </c>
-      <c r="C4" t="s">
+      <c r="K4" t="s">
+        <v>1149</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1149</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1149</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1149</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1149</v>
+      </c>
+      <c r="P4" t="s">
+        <v>1149</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>1149</v>
+      </c>
+      <c r="R4" t="s">
+        <v>1149</v>
+      </c>
+      <c r="S4" t="s">
+        <v>1149</v>
+      </c>
+      <c r="T4" t="s">
         <v>1166</v>
       </c>
-      <c r="D4" t="s">
+      <c r="U4" t="s">
         <v>1167</v>
       </c>
-      <c r="E4" t="s">
-        <v>1169</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1158</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1160</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1173</v>
-      </c>
-      <c r="I4" t="s">
-        <v>1163</v>
-      </c>
-      <c r="J4" t="s">
-        <v>1176</v>
-      </c>
-      <c r="K4" t="s">
-        <v>1160</v>
-      </c>
-      <c r="L4" t="s">
-        <v>1160</v>
-      </c>
-      <c r="M4" t="s">
-        <v>1160</v>
-      </c>
-      <c r="N4" t="s">
-        <v>1160</v>
-      </c>
-      <c r="O4" t="s">
-        <v>1160</v>
-      </c>
-      <c r="P4" t="s">
-        <v>1160</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>1160</v>
-      </c>
-      <c r="R4" t="s">
-        <v>1160</v>
-      </c>
-      <c r="S4" t="s">
-        <v>1160</v>
-      </c>
-      <c r="T4" t="s">
+      <c r="V4" t="s">
+        <v>1168</v>
+      </c>
+      <c r="W4" t="s">
+        <v>1170</v>
+      </c>
+      <c r="X4" t="s">
+        <v>1147</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>1149</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>1174</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AB4" t="s">
         <v>1177</v>
       </c>
-      <c r="U4" t="s">
+      <c r="AC4" t="s">
         <v>1178</v>
       </c>
-      <c r="V4" t="s">
+      <c r="AD4" t="s">
         <v>1179</v>
       </c>
-      <c r="W4" t="s">
-        <v>1181</v>
-      </c>
-      <c r="X4" t="s">
-        <v>1158</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>1160</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>1185</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>1163</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>1188</v>
-      </c>
-      <c r="AC4" t="s">
+      <c r="AE4" t="s">
+        <v>1180</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>1147</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>1149</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>1186</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AK4" t="s">
         <v>1189</v>
       </c>
-      <c r="AD4" t="s">
-        <v>1190</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>1191</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>1193</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>1158</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>1160</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>1197</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>1163</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>1200</v>
-      </c>
       <c r="AL4" t="s">
-        <v>1160</v>
+        <v>1149</v>
       </c>
       <c r="AM4" t="s">
-        <v>1160</v>
+        <v>1149</v>
       </c>
       <c r="AN4" t="s">
-        <v>1160</v>
+        <v>1149</v>
       </c>
       <c r="AO4" t="s">
-        <v>1160</v>
+        <v>1149</v>
       </c>
       <c r="AP4" t="s">
-        <v>1160</v>
+        <v>1149</v>
       </c>
       <c r="AQ4" t="s">
-        <v>1160</v>
+        <v>1149</v>
       </c>
       <c r="AR4" t="s">
-        <v>1160</v>
+        <v>1149</v>
       </c>
       <c r="AS4" t="s">
-        <v>1160</v>
+        <v>1149</v>
       </c>
       <c r="AT4" t="s">
-        <v>1160</v>
+        <v>1149</v>
       </c>
       <c r="AU4" t="s">
-        <v>1237</v>
+        <v>1226</v>
       </c>
       <c r="AV4" t="s">
-        <v>1356</v>
+        <v>1345</v>
       </c>
     </row>
   </sheetData>
@@ -5585,16 +5591,16 @@
         <v>172</v>
       </c>
       <c r="G1" t="s">
-        <v>1156</v>
+        <v>1145</v>
       </c>
       <c r="H1" t="s">
-        <v>1157</v>
+        <v>1146</v>
       </c>
       <c r="I1" t="s">
-        <v>1159</v>
+        <v>1148</v>
       </c>
       <c r="J1" t="s">
-        <v>1212</v>
+        <v>1201</v>
       </c>
       <c r="K1" t="s">
         <v>103</v>
@@ -5606,16 +5612,16 @@
         <v>173</v>
       </c>
       <c r="N1" t="s">
-        <v>1168</v>
+        <v>1157</v>
       </c>
       <c r="O1" t="s">
-        <v>1170</v>
+        <v>1159</v>
       </c>
       <c r="P1" t="s">
-        <v>1171</v>
+        <v>1160</v>
       </c>
       <c r="Q1" t="s">
-        <v>1213</v>
+        <v>1202</v>
       </c>
       <c r="R1" t="s">
         <v>107</v>
@@ -5627,16 +5633,16 @@
         <v>174</v>
       </c>
       <c r="U1" t="s">
-        <v>1180</v>
+        <v>1169</v>
       </c>
       <c r="V1" t="s">
-        <v>1182</v>
+        <v>1171</v>
       </c>
       <c r="W1" t="s">
-        <v>1183</v>
+        <v>1172</v>
       </c>
       <c r="X1" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Y1" t="s">
         <v>111</v>
@@ -5648,16 +5654,16 @@
         <v>175</v>
       </c>
       <c r="AB1" t="s">
-        <v>1192</v>
+        <v>1181</v>
       </c>
       <c r="AC1" t="s">
-        <v>1194</v>
+        <v>1183</v>
       </c>
       <c r="AD1" t="s">
-        <v>1195</v>
+        <v>1184</v>
       </c>
       <c r="AE1" t="s">
-        <v>1215</v>
+        <v>1204</v>
       </c>
       <c r="AF1" t="s">
         <v>115</v>
@@ -5669,19 +5675,19 @@
         <v>176</v>
       </c>
       <c r="AI1" t="s">
-        <v>1201</v>
+        <v>1190</v>
       </c>
       <c r="AJ1" t="s">
-        <v>1202</v>
+        <v>1191</v>
       </c>
       <c r="AK1" t="s">
-        <v>1203</v>
+        <v>1192</v>
       </c>
       <c r="AL1" t="s">
-        <v>1216</v>
+        <v>1205</v>
       </c>
       <c r="AM1" t="s">
-        <v>1217</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
@@ -5694,110 +5700,110 @@
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1152</v>
+        <v>1141</v>
       </c>
       <c r="C3" t="s">
         <v>184</v>
       </c>
       <c r="D3" t="s">
-        <v>1143</v>
+        <v>1132</v>
       </c>
       <c r="E3" t="s">
-        <v>1178</v>
+        <v>1167</v>
       </c>
       <c r="F3" t="s">
-        <v>1210</v>
+        <v>1199</v>
       </c>
       <c r="G3" t="s">
-        <v>1211</v>
+        <v>1200</v>
       </c>
       <c r="H3" t="s">
-        <v>1158</v>
+        <v>1147</v>
       </c>
       <c r="I3" t="s">
-        <v>1160</v>
+        <v>1149</v>
       </c>
       <c r="J3"/>
       <c r="K3" t="s">
-        <v>1145</v>
+        <v>1134</v>
       </c>
       <c r="L3" t="s">
-        <v>1166</v>
+        <v>1155</v>
       </c>
       <c r="M3" t="s">
-        <v>1167</v>
+        <v>1156</v>
       </c>
       <c r="N3" t="s">
-        <v>1169</v>
+        <v>1158</v>
       </c>
       <c r="O3" t="s">
-        <v>1158</v>
+        <v>1147</v>
       </c>
       <c r="P3" t="s">
-        <v>1160</v>
+        <v>1149</v>
       </c>
       <c r="Q3"/>
       <c r="R3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="T3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="U3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="V3" t="s">
         <v>1147</v>
       </c>
-      <c r="S3" t="s">
-        <v>1178</v>
-      </c>
-      <c r="T3" t="s">
-        <v>1179</v>
-      </c>
-      <c r="U3" t="s">
-        <v>1181</v>
-      </c>
-      <c r="V3" t="s">
-        <v>1158</v>
-      </c>
       <c r="W3" t="s">
-        <v>1160</v>
+        <v>1149</v>
       </c>
       <c r="X3"/>
       <c r="Y3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>1179</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="AD3" t="s">
         <v>1149</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>1190</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>1191</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>1193</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>1158</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>1160</v>
       </c>
       <c r="AE3"/>
       <c r="AF3" t="s">
-        <v>1160</v>
+        <v>1149</v>
       </c>
       <c r="AG3" t="s">
-        <v>1160</v>
+        <v>1149</v>
       </c>
       <c r="AH3" t="s">
-        <v>1160</v>
+        <v>1149</v>
       </c>
       <c r="AI3" t="s">
-        <v>1160</v>
+        <v>1149</v>
       </c>
       <c r="AJ3" t="s">
-        <v>1160</v>
+        <v>1149</v>
       </c>
       <c r="AK3" t="s">
-        <v>1160</v>
+        <v>1149</v>
       </c>
       <c r="AL3" t="s">
-        <v>1160</v>
+        <v>1149</v>
       </c>
       <c r="AM3" t="s">
-        <v>1209</v>
+        <v>1198</v>
       </c>
     </row>
   </sheetData>
@@ -5958,10 +5964,10 @@
         <v>10089905</v>
       </c>
       <c r="D2" s="15" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E2" t="s">
         <v>1090</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1091</v>
       </c>
       <c r="F2" t="s">
         <v>287</v>
@@ -5970,7 +5976,7 @@
         <v>1000</v>
       </c>
       <c r="H2" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="I2" t="s">
         <v>287</v>
@@ -5987,10 +5993,10 @@
         <v>10039919</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>1395</v>
+        <v>1384</v>
       </c>
       <c r="E3" t="s">
-        <v>1142</v>
+        <v>1131</v>
       </c>
       <c r="F3" t="s">
         <v>287</v>
@@ -6027,7 +6033,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>1152</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6043,7 +6049,7 @@
         <v>95</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1394</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6051,7 +6057,7 @@
         <v>96</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>1392</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6067,7 +6073,7 @@
         <v>88</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>1393</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -6075,7 +6081,7 @@
         <v>89</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>1393</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -6083,7 +6089,7 @@
         <v>90</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>1393</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -6091,7 +6097,7 @@
         <v>91</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>1393</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -6099,7 +6105,7 @@
         <v>92</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>1393</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -6107,7 +6113,7 @@
         <v>93</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>1393</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -6117,7 +6123,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B13" s="30" t="s">
         <v>88</v>
@@ -6125,7 +6131,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B14" s="30" t="s">
         <v>89</v>
@@ -6133,7 +6139,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B15" s="30" t="s">
         <v>90</v>
@@ -6141,7 +6147,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B16" s="30" t="s">
         <v>91</v>
@@ -6149,7 +6155,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B17" s="30" t="s">
         <v>92</v>
@@ -6157,7 +6163,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B18" s="30" t="s">
         <v>93</v>
@@ -6165,7 +6171,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B19" s="30" t="s">
         <v>94</v>
@@ -6215,7 +6221,7 @@
         <v>53</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6231,7 +6237,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1134</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -6239,7 +6245,7 @@
         <v>920</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1135</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -6263,7 +6269,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1136</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -6271,7 +6277,7 @@
         <v>52</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1137</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -6287,7 +6293,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1138</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -6295,7 +6301,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>1139</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -6303,7 +6309,7 @@
         <v>57</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>1140</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -6317,7 +6323,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>1236</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -6340,7 +6346,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="112" t="s">
-        <v>1235</v>
+        <v>1224</v>
       </c>
       <c r="B20" s="1">
         <v>2</v>
@@ -6390,7 +6396,7 @@
         <v>53</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6406,7 +6412,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1134</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -6414,7 +6420,7 @@
         <v>920</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1135</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -6438,7 +6444,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1136</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -6446,7 +6452,7 @@
         <v>52</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1137</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -6462,7 +6468,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1138</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -6470,7 +6476,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>1139</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -6478,7 +6484,7 @@
         <v>57</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>1140</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -6492,7 +6498,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>1236</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -6515,7 +6521,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="112" t="s">
-        <v>1235</v>
+        <v>1224</v>
       </c>
       <c r="B20" s="1">
         <v>3</v>
@@ -6581,7 +6587,7 @@
         <v>63</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>1235</v>
+        <v>1224</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>164</v>
@@ -6720,10 +6726,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>1142</v>
+        <v>1131</v>
       </c>
       <c r="E3" t="s">
-        <v>1143</v>
+        <v>1132</v>
       </c>
       <c r="F3">
         <v>25</v>
@@ -6732,10 +6738,10 @@
         <v>2000</v>
       </c>
       <c r="H3" t="s">
-        <v>1144</v>
+        <v>1133</v>
       </c>
       <c r="I3" t="s">
-        <v>1145</v>
+        <v>1134</v>
       </c>
       <c r="J3">
         <v>10</v>
@@ -6744,10 +6750,10 @@
         <v>750</v>
       </c>
       <c r="L3" t="s">
-        <v>1146</v>
+        <v>1135</v>
       </c>
       <c r="M3" t="s">
-        <v>1147</v>
+        <v>1136</v>
       </c>
       <c r="N3">
         <v>25</v>
@@ -6816,7 +6822,7 @@
         <v>63</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>1235</v>
+        <v>1224</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>164</v>
@@ -6955,10 +6961,10 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>1142</v>
+        <v>1131</v>
       </c>
       <c r="E3" t="s">
-        <v>1143</v>
+        <v>1132</v>
       </c>
       <c r="F3">
         <v>25</v>
@@ -6967,10 +6973,10 @@
         <v>2000</v>
       </c>
       <c r="H3" t="s">
-        <v>1144</v>
+        <v>1133</v>
       </c>
       <c r="I3" t="s">
-        <v>1145</v>
+        <v>1134</v>
       </c>
       <c r="J3">
         <v>10</v>
@@ -6979,10 +6985,10 @@
         <v>750</v>
       </c>
       <c r="L3" t="s">
-        <v>1146</v>
+        <v>1135</v>
       </c>
       <c r="M3" t="s">
-        <v>1147</v>
+        <v>1136</v>
       </c>
       <c r="N3">
         <v>25</v>
@@ -6991,10 +6997,10 @@
         <v>1000</v>
       </c>
       <c r="P3" t="s">
-        <v>1148</v>
+        <v>1137</v>
       </c>
       <c r="Q3" t="s">
-        <v>1149</v>
+        <v>1138</v>
       </c>
       <c r="R3">
         <v>20</v>
@@ -7003,10 +7009,10 @@
         <v>100</v>
       </c>
       <c r="T3" t="s">
-        <v>1150</v>
+        <v>1139</v>
       </c>
       <c r="U3" t="s">
-        <v>1151</v>
+        <v>1140</v>
       </c>
       <c r="V3">
         <v>15</v>
@@ -7044,7 +7050,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="113" t="s">
-        <v>1235</v>
+        <v>1224</v>
       </c>
       <c r="C1" s="72" t="s">
         <v>164</v>
@@ -7055,10 +7061,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="72" t="s">
-        <v>1152</v>
+        <v>1141</v>
       </c>
       <c r="B2" s="72" t="s">
-        <v>1237</v>
+        <v>1226</v>
       </c>
       <c r="C2" s="30"/>
     </row>
@@ -7262,10 +7268,10 @@
         <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>1405</v>
+        <v>1394</v>
       </c>
       <c r="C2" t="s">
-        <v>1374</v>
+        <v>1363</v>
       </c>
       <c r="D2" s="60"/>
       <c r="E2" s="60"/>
@@ -7286,10 +7292,10 @@
         <v>167</v>
       </c>
       <c r="B4" t="s">
-        <v>1397</v>
+        <v>1386</v>
       </c>
       <c r="C4" t="s">
-        <v>1396</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="5" spans="1:165" x14ac:dyDescent="0.25">
@@ -7297,7 +7303,7 @@
         <v>182</v>
       </c>
       <c r="B5" t="s">
-        <v>1359</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="6" spans="1:165" x14ac:dyDescent="0.25">
@@ -7305,7 +7311,7 @@
         <v>735</v>
       </c>
       <c r="B6" t="s">
-        <v>1364</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="7" spans="1:165" x14ac:dyDescent="0.25">
@@ -7313,7 +7319,7 @@
         <v>736</v>
       </c>
       <c r="B7" t="s">
-        <v>1362</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="8" spans="1:165" x14ac:dyDescent="0.25">
@@ -7321,7 +7327,7 @@
         <v>740</v>
       </c>
       <c r="B8" t="s">
-        <v>1223</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="9" spans="1:165" x14ac:dyDescent="0.25">
@@ -7329,7 +7335,7 @@
         <v>741</v>
       </c>
       <c r="B9" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="10" spans="1:165" x14ac:dyDescent="0.25">
@@ -7337,7 +7343,7 @@
         <v>742</v>
       </c>
       <c r="B10" t="s">
-        <v>1394</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="11" spans="1:165" x14ac:dyDescent="0.25">
@@ -7360,7 +7366,7 @@
         <v>808</v>
       </c>
       <c r="B14" t="s">
-        <v>1344</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="15" spans="1:165" x14ac:dyDescent="0.25">
@@ -7368,7 +7374,7 @@
         <v>809</v>
       </c>
       <c r="B15" t="s">
-        <v>1345</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="16" spans="1:165" x14ac:dyDescent="0.25">
@@ -7376,7 +7382,7 @@
         <v>810</v>
       </c>
       <c r="B16" t="s">
-        <v>1346</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -7384,7 +7390,7 @@
         <v>811</v>
       </c>
       <c r="B17" t="s">
-        <v>1347</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -7392,7 +7398,7 @@
         <v>812</v>
       </c>
       <c r="B18" t="s">
-        <v>1348</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -7400,7 +7406,7 @@
         <v>813</v>
       </c>
       <c r="B19" t="s">
-        <v>1349</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -7418,7 +7424,7 @@
         <v>171</v>
       </c>
       <c r="B22" t="s">
-        <v>1352</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -7431,7 +7437,7 @@
         <v>914</v>
       </c>
       <c r="B24" t="s">
-        <v>1388</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -7439,7 +7445,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>1400</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -7447,7 +7453,7 @@
         <v>921</v>
       </c>
       <c r="B26" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -7455,7 +7461,7 @@
         <v>922</v>
       </c>
       <c r="B27" t="s">
-        <v>1355</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -7465,37 +7471,37 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1131</v>
+        <v>1120</v>
       </c>
       <c r="B29"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1153</v>
+        <v>1142</v>
       </c>
       <c r="B30" t="s">
-        <v>1139</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1154</v>
+        <v>1143</v>
       </c>
       <c r="B31" t="s">
-        <v>1357</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1155</v>
+        <v>1144</v>
       </c>
       <c r="B32" t="s">
-        <v>1358</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1218</v>
+        <v>1207</v>
       </c>
       <c r="B33"/>
     </row>
@@ -7504,37 +7510,37 @@
         <v>250</v>
       </c>
       <c r="B34" t="s">
-        <v>1403</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1231</v>
+        <v>1220</v>
       </c>
       <c r="B35"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1233</v>
+        <v>1222</v>
       </c>
       <c r="B36" t="s">
-        <v>1363</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1234</v>
+        <v>1223</v>
       </c>
       <c r="B37" t="s">
-        <v>1364</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="30" t="s">
-        <v>1246</v>
+        <v>1235</v>
       </c>
       <c r="B38" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -7542,28 +7548,28 @@
         <v>911</v>
       </c>
       <c r="B39" t="s">
-        <v>1374</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1247</v>
+        <v>1236</v>
       </c>
       <c r="B40" t="s">
-        <v>1139</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1248</v>
+        <v>1237</v>
       </c>
       <c r="B41" t="s">
-        <v>1374</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1249</v>
+        <v>1238</v>
       </c>
       <c r="B42" t="s">
         <v>184</v>
@@ -7571,198 +7577,198 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1250</v>
+        <v>1239</v>
       </c>
       <c r="B43"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
-        <v>1251</v>
+        <v>1240</v>
       </c>
       <c r="B44"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1252</v>
+        <v>1241</v>
       </c>
       <c r="B45" t="s">
-        <v>1374</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="30" t="s">
-        <v>1253</v>
+        <v>1242</v>
       </c>
       <c r="B46" t="s">
-        <v>1374</v>
+        <v>1363</v>
       </c>
       <c r="C46" t="s">
-        <v>1374</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1254</v>
+        <v>1243</v>
       </c>
       <c r="B47"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1255</v>
+        <v>1244</v>
       </c>
       <c r="B48"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1256</v>
+        <v>1245</v>
       </c>
       <c r="B49"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1257</v>
+        <v>1246</v>
       </c>
       <c r="B50"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1258</v>
+        <v>1247</v>
       </c>
       <c r="B51"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1262</v>
+        <v>1251</v>
       </c>
       <c r="B52" t="s">
-        <v>1379</v>
+        <v>1368</v>
       </c>
       <c r="C52" t="s">
-        <v>1379</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
-        <v>1263</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1264</v>
+        <v>1253</v>
       </c>
       <c r="B54" t="s">
-        <v>1372</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1265</v>
+        <v>1254</v>
       </c>
       <c r="B55" t="s">
-        <v>1373</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1266</v>
+        <v>1255</v>
       </c>
       <c r="B56" t="s">
-        <v>1368</v>
+        <v>1357</v>
       </c>
       <c r="C56" t="s">
-        <v>1368</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1267</v>
+        <v>1256</v>
       </c>
       <c r="B57" t="s">
-        <v>1380</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1268</v>
+        <v>1257</v>
       </c>
       <c r="B58" t="s">
-        <v>1381</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1269</v>
+        <v>1258</v>
       </c>
       <c r="B59" t="s">
-        <v>1374</v>
+        <v>1363</v>
       </c>
       <c r="C59" t="s">
-        <v>1374</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="30" t="s">
-        <v>1270</v>
+        <v>1259</v>
       </c>
       <c r="B60"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1272</v>
+        <v>1261</v>
       </c>
       <c r="B61"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1273</v>
+        <v>1262</v>
       </c>
       <c r="B62"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1274</v>
+        <v>1263</v>
       </c>
       <c r="B63"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1275</v>
+        <v>1264</v>
       </c>
       <c r="B64"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1276</v>
+        <v>1265</v>
       </c>
       <c r="B65"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1271</v>
+        <v>1260</v>
       </c>
       <c r="B66"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1280</v>
+        <v>1269</v>
       </c>
       <c r="B67"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1281</v>
+        <v>1270</v>
       </c>
       <c r="B68"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1282</v>
+        <v>1271</v>
       </c>
       <c r="B69"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="30" t="s">
-        <v>1321</v>
+        <v>1310</v>
       </c>
     </row>
   </sheetData>
@@ -7794,7 +7800,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="113" t="s">
-        <v>1235</v>
+        <v>1224</v>
       </c>
       <c r="C1" s="72" t="s">
         <v>164</v>
@@ -7805,7 +7811,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="72" t="s">
-        <v>1152</v>
+        <v>1141</v>
       </c>
       <c r="B2" s="72" t="s">
         <v>244</v>
@@ -7848,7 +7854,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>1152</v>
+        <v>1141</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="31"/>
@@ -7863,7 +7869,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>1220</v>
+        <v>1209</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -7905,7 +7911,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>1152</v>
+        <v>1141</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -7920,7 +7926,7 @@
         <v>53</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6"/>
@@ -7934,7 +7940,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>1221</v>
+        <v>1210</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
@@ -7963,7 +7969,7 @@
         <v>28</v>
       </c>
       <c r="B9" s="95" t="s">
-        <v>1222</v>
+        <v>1211</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -8022,7 +8028,7 @@
         <v>34</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>1136</v>
+        <v>1125</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
@@ -8037,7 +8043,7 @@
         <v>49</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>1137</v>
+        <v>1126</v>
       </c>
       <c r="C14" s="44"/>
       <c r="D14" s="44"/>
@@ -8066,7 +8072,7 @@
         <v>50</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>1138</v>
+        <v>1127</v>
       </c>
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
@@ -8081,7 +8087,7 @@
         <v>36</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>1223</v>
+        <v>1212</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
@@ -8096,7 +8102,7 @@
         <v>37</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>1223</v>
+        <v>1212</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
@@ -8111,7 +8117,7 @@
         <v>38</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>1224</v>
+        <v>1213</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
@@ -8125,7 +8131,7 @@
         <v>51</v>
       </c>
       <c r="B20" s="57" t="s">
-        <v>1225</v>
+        <v>1214</v>
       </c>
       <c r="C20" s="57"/>
       <c r="D20" s="57"/>
@@ -8155,7 +8161,7 @@
         <v>41</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>1219</v>
+        <v>1208</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
@@ -8199,7 +8205,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>1152</v>
+        <v>1141</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="26"/>
@@ -8215,7 +8221,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>1220</v>
+        <v>1209</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -8263,7 +8269,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>1152</v>
+        <v>1141</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="15"/>
@@ -8279,7 +8285,7 @@
         <v>53</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="15"/>
@@ -8294,7 +8300,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>1398</v>
+        <v>1387</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
@@ -8326,7 +8332,7 @@
         <v>28</v>
       </c>
       <c r="B9" s="95" t="s">
-        <v>1222</v>
+        <v>1211</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -8390,7 +8396,7 @@
         <v>34</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>1136</v>
+        <v>1125</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
@@ -8406,7 +8412,7 @@
         <v>49</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>1137</v>
+        <v>1126</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="44"/>
@@ -8438,7 +8444,7 @@
         <v>50</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>1138</v>
+        <v>1127</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="44"/>
@@ -8454,7 +8460,7 @@
         <v>36</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>1223</v>
+        <v>1212</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
@@ -8470,7 +8476,7 @@
         <v>37</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>1223</v>
+        <v>1212</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
@@ -8486,7 +8492,7 @@
         <v>38</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>1227</v>
+        <v>1216</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="20"/>
@@ -8502,7 +8508,7 @@
         <v>51</v>
       </c>
       <c r="B20" s="57" t="s">
-        <v>1228</v>
+        <v>1217</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="57"/>
@@ -8534,7 +8540,7 @@
         <v>41</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>1219</v>
+        <v>1208</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="20"/>
@@ -8568,7 +8574,7 @@
         <v>47</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>1398</v>
+        <v>1387</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>737</v>
@@ -8586,7 +8592,7 @@
         <v>48</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>1399</v>
+        <v>1388</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>739</v>
@@ -8643,7 +8649,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>1152</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -8651,7 +8657,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>1322</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -8659,7 +8665,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>1152</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -8667,7 +8673,7 @@
         <v>166</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>1323</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -8675,7 +8681,7 @@
         <v>53</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -8691,7 +8697,7 @@
         <v>43</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>1221</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -8699,7 +8705,7 @@
         <v>45</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>1226</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -8707,7 +8713,7 @@
         <v>46</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>1152</v>
+        <v>1141</v>
       </c>
     </row>
   </sheetData>
@@ -9163,7 +9169,7 @@
         <v>1008</v>
       </c>
       <c r="C2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -10553,7 +10559,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>1152</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -11118,7 +11124,7 @@
         <v>1003</v>
       </c>
       <c r="D3" s="111" t="s">
-        <v>1232</v>
+        <v>1221</v>
       </c>
     </row>
   </sheetData>
@@ -11149,7 +11155,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>1152</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -11249,7 +11255,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>1229</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -11265,7 +11271,7 @@
         <v>255</v>
       </c>
       <c r="B6" s="107" t="s">
-        <v>1401</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -11313,7 +11319,7 @@
         <v>63</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>1152</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -11329,7 +11335,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1152</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -11343,7 +11349,7 @@
         <v>251</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>1230</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -11382,7 +11388,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="80" t="s">
-        <v>1152</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -11390,7 +11396,7 @@
         <v>210</v>
       </c>
       <c r="B2" s="86" t="s">
-        <v>1152</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -11451,7 +11457,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>1152</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -11480,7 +11486,7 @@
         <v>215</v>
       </c>
       <c r="B5" s="77" t="s">
-        <v>1402</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -13712,16 +13718,16 @@
         <v>1003</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>1360</v>
+        <v>1349</v>
       </c>
       <c r="D3" s="59" t="s">
-        <v>1360</v>
+        <v>1349</v>
       </c>
       <c r="E3" t="s">
-        <v>1362</v>
+        <v>1351</v>
       </c>
       <c r="F3" t="s">
-        <v>1361</v>
+        <v>1350</v>
       </c>
     </row>
   </sheetData>
@@ -13874,7 +13880,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>1152</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -13887,7 +13893,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -13905,7 +13911,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
   </sheetData>
@@ -13937,7 +13943,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>1152</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -13950,7 +13956,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -13968,7 +13974,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -14004,7 +14010,7 @@
         <v>191</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>1152</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -14019,7 +14025,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
   </sheetData>
@@ -14051,7 +14057,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>1152</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -14059,7 +14065,7 @@
         <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>1374</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -14067,7 +14073,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -14085,18 +14091,18 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>1404</v>
+        <v>1393</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B7" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
     </row>
   </sheetData>
@@ -14192,7 +14198,7 @@
         <v>1006</v>
       </c>
       <c r="E2" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="F2" t="s">
         <v>263</v>
@@ -14204,16 +14210,16 @@
         <v>500</v>
       </c>
       <c r="L2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="M2" t="s">
         <v>264</v>
       </c>
       <c r="O2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="P2" s="59" t="s">
         <v>1100</v>
-      </c>
-      <c r="P2" s="59" t="s">
-        <v>1101</v>
       </c>
     </row>
   </sheetData>
@@ -14252,7 +14258,7 @@
         <v>53</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -14260,7 +14266,7 @@
         <v>772</v>
       </c>
       <c r="B3" t="s">
-        <v>1125</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -14308,7 +14314,7 @@
         <v>780</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>1343</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -14316,7 +14322,7 @@
         <v>782</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>1342</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -14332,7 +14338,7 @@
         <v>783</v>
       </c>
       <c r="B12" t="s">
-        <v>1126</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -14348,7 +14354,7 @@
         <v>189</v>
       </c>
       <c r="B14" t="s">
-        <v>1127</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -14356,7 +14362,7 @@
         <v>788</v>
       </c>
       <c r="B15" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -14404,7 +14410,7 @@
         <v>795</v>
       </c>
       <c r="B21" t="s">
-        <v>1128</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -14425,10 +14431,10 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1121</v>
+        <v>1111</v>
       </c>
       <c r="B24" s="59" t="s">
-        <v>1123</v>
+        <v>1113</v>
       </c>
     </row>
   </sheetData>
@@ -15977,7 +15983,7 @@
         <v>53</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -16033,7 +16039,7 @@
         <v>818</v>
       </c>
       <c r="B9" t="s">
-        <v>1120</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -16049,7 +16055,7 @@
         <v>819</v>
       </c>
       <c r="B11" s="59" t="s">
-        <v>1350</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -16057,7 +16063,7 @@
         <v>820</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>1351</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -16081,7 +16087,7 @@
         <v>824</v>
       </c>
       <c r="B15" t="s">
-        <v>1127</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -16089,7 +16095,7 @@
         <v>826</v>
       </c>
       <c r="B16" t="s">
-        <v>1132</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -16097,7 +16103,7 @@
         <v>827</v>
       </c>
       <c r="B17" t="s">
-        <v>1133</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -16105,7 +16111,7 @@
         <v>828</v>
       </c>
       <c r="B18" t="s">
-        <v>1129</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -16129,12 +16135,12 @@
         <v>832</v>
       </c>
       <c r="B21" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1122</v>
+        <v>1112</v>
       </c>
       <c r="B22" t="s">
         <v>779</v>
@@ -16238,10 +16244,10 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1121</v>
+        <v>1111</v>
       </c>
       <c r="B35" s="59" t="s">
-        <v>1123</v>
+        <v>1113</v>
       </c>
     </row>
   </sheetData>
@@ -16961,7 +16967,7 @@
         <v>53</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -16981,7 +16987,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1134</v>
+        <v>1123</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -16991,7 +16997,7 @@
         <v>920</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1135</v>
+        <v>1124</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -17021,7 +17027,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1136</v>
+        <v>1125</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -17031,7 +17037,7 @@
         <v>52</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1137</v>
+        <v>1126</v>
       </c>
       <c r="C10" s="32"/>
       <c r="D10" s="8"/>
@@ -17051,7 +17057,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1138</v>
+        <v>1127</v>
       </c>
       <c r="C12" s="32"/>
       <c r="D12" s="8"/>
@@ -17061,7 +17067,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>1139</v>
+        <v>1128</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -17071,7 +17077,7 @@
         <v>57</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>1140</v>
+        <v>1129</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="32"/>
@@ -17089,7 +17095,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>1236</v>
+        <v>1225</v>
       </c>
       <c r="C16" s="32"/>
       <c r="D16" s="32"/>
@@ -17601,14 +17607,14 @@
         <v>919</v>
       </c>
       <c r="F2" t="s">
-        <v>1277</v>
+        <v>1266</v>
       </c>
       <c r="G2" s="59"/>
       <c r="H2" t="s">
-        <v>1279</v>
+        <v>1268</v>
       </c>
       <c r="I2" s="59" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="J2" s="59"/>
       <c r="K2">
@@ -17621,10 +17627,10 @@
         <v>264</v>
       </c>
       <c r="O2" t="s">
-        <v>1283</v>
+        <v>1272</v>
       </c>
       <c r="P2" s="59" t="s">
-        <v>1278</v>
+        <v>1267</v>
       </c>
       <c r="Q2">
         <v>500</v>
@@ -17651,7 +17657,7 @@
         <v>902</v>
       </c>
       <c r="B1" s="103" t="s">
-        <v>1382</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -17683,82 +17689,82 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M1" t="s">
         <v>1284</v>
       </c>
-      <c r="C1" t="s">
+      <c r="N1" t="s">
         <v>1285</v>
       </c>
-      <c r="D1" t="s">
+      <c r="O1" t="s">
         <v>1286</v>
       </c>
-      <c r="E1" t="s">
+      <c r="P1" t="s">
         <v>1287</v>
       </c>
-      <c r="F1" t="s">
+      <c r="Q1" t="s">
         <v>1288</v>
       </c>
-      <c r="G1" t="s">
+      <c r="R1" t="s">
         <v>1289</v>
       </c>
-      <c r="H1" t="s">
+      <c r="S1" t="s">
         <v>1290</v>
       </c>
-      <c r="I1" t="s">
+      <c r="T1" t="s">
         <v>1291</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1292</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1293</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="M1" t="s">
-        <v>1295</v>
-      </c>
-      <c r="N1" t="s">
-        <v>1296</v>
-      </c>
-      <c r="O1" t="s">
-        <v>1297</v>
-      </c>
-      <c r="P1" t="s">
-        <v>1298</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>1299</v>
-      </c>
-      <c r="R1" t="s">
-        <v>1300</v>
-      </c>
-      <c r="S1" t="s">
-        <v>1301</v>
-      </c>
-      <c r="T1" t="s">
-        <v>1302</v>
       </c>
       <c r="U1" t="s">
         <v>261</v>
       </c>
       <c r="V1" t="s">
-        <v>1303</v>
+        <v>1292</v>
       </c>
       <c r="W1" t="s">
-        <v>1304</v>
+        <v>1293</v>
       </c>
       <c r="X1" t="s">
         <v>99</v>
       </c>
       <c r="Y1" t="s">
-        <v>1305</v>
+        <v>1294</v>
       </c>
       <c r="Z1" t="s">
-        <v>1306</v>
+        <v>1295</v>
       </c>
       <c r="AA1" t="s">
-        <v>1307</v>
+        <v>1296</v>
       </c>
       <c r="AB1" t="s">
         <v>905</v>
@@ -17774,37 +17780,37 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1152</v>
+        <v>1141</v>
       </c>
       <c r="B3" t="s">
-        <v>1388</v>
+        <v>1377</v>
       </c>
       <c r="C3" t="s">
-        <v>1383</v>
+        <v>1372</v>
       </c>
       <c r="D3" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E3" t="s">
-        <v>1384</v>
+        <v>1373</v>
       </c>
       <c r="F3" t="s">
-        <v>1385</v>
+        <v>1374</v>
       </c>
       <c r="G3" t="s">
-        <v>1386</v>
+        <v>1375</v>
       </c>
       <c r="H3" t="s">
-        <v>1389</v>
+        <v>1378</v>
       </c>
       <c r="I3" t="s">
-        <v>1384</v>
+        <v>1373</v>
       </c>
       <c r="J3" t="s">
-        <v>1277</v>
+        <v>1266</v>
       </c>
       <c r="K3" t="s">
-        <v>1160</v>
+        <v>1149</v>
       </c>
       <c r="L3" t="s">
         <v>823</v>
@@ -17813,52 +17819,52 @@
         <v>919</v>
       </c>
       <c r="N3" t="s">
-        <v>1134</v>
+        <v>1123</v>
       </c>
       <c r="O3" t="s">
-        <v>1136</v>
+        <v>1125</v>
       </c>
       <c r="P3" t="s">
         <v>8</v>
       </c>
       <c r="Q3" t="s">
-        <v>1163</v>
+        <v>1152</v>
       </c>
       <c r="R3" t="s">
-        <v>1387</v>
+        <v>1376</v>
       </c>
       <c r="S3" t="s">
-        <v>1389</v>
+        <v>1378</v>
       </c>
       <c r="T3" t="s">
-        <v>1384</v>
+        <v>1373</v>
       </c>
       <c r="U3" t="s">
         <v>264</v>
       </c>
       <c r="V3" t="s">
-        <v>1283</v>
+        <v>1272</v>
       </c>
       <c r="W3" t="s">
-        <v>1390</v>
+        <v>1379</v>
       </c>
       <c r="X3" t="s">
         <v>918</v>
       </c>
       <c r="Y3" t="s">
-        <v>1134</v>
+        <v>1123</v>
       </c>
       <c r="Z3" t="s">
-        <v>1136</v>
+        <v>1125</v>
       </c>
       <c r="AA3" t="s">
         <v>8</v>
       </c>
       <c r="AB3" t="s">
-        <v>1387</v>
+        <v>1376</v>
       </c>
       <c r="AC3" t="s">
-        <v>1163</v>
+        <v>1152</v>
       </c>
     </row>
   </sheetData>
@@ -17956,7 +17962,7 @@
         <v>53</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
       <c r="C3" s="15"/>
     </row>
@@ -17981,7 +17987,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1134</v>
+        <v>1123</v>
       </c>
       <c r="C6" s="15"/>
     </row>
@@ -17990,7 +17996,7 @@
         <v>54</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1135</v>
+        <v>1124</v>
       </c>
       <c r="C7" s="44"/>
     </row>
@@ -18017,7 +18023,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1136</v>
+        <v>1125</v>
       </c>
       <c r="C10" s="15"/>
     </row>
@@ -18026,7 +18032,7 @@
         <v>52</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>1137</v>
+        <v>1126</v>
       </c>
       <c r="C11" s="44"/>
     </row>
@@ -18044,7 +18050,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>1138</v>
+        <v>1127</v>
       </c>
       <c r="C13" s="44"/>
     </row>
@@ -18053,7 +18059,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>1139</v>
+        <v>1128</v>
       </c>
       <c r="C14" s="15"/>
     </row>
@@ -18062,7 +18068,7 @@
         <v>57</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>1140</v>
+        <v>1129</v>
       </c>
       <c r="C15" s="15"/>
     </row>
@@ -18071,7 +18077,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>1141</v>
+        <v>1130</v>
       </c>
       <c r="C16" s="47"/>
     </row>
@@ -18080,7 +18086,7 @@
         <v>163</v>
       </c>
       <c r="B17" s="110" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="C17" s="48"/>
     </row>
@@ -18345,28 +18351,28 @@
         <v>4</v>
       </c>
       <c r="B1" s="60" t="s">
-        <v>1238</v>
+        <v>1227</v>
       </c>
       <c r="C1" s="60" t="s">
-        <v>1239</v>
+        <v>1228</v>
       </c>
       <c r="D1" s="60" t="s">
-        <v>1240</v>
+        <v>1229</v>
       </c>
       <c r="E1" s="60" t="s">
-        <v>1241</v>
+        <v>1230</v>
       </c>
       <c r="F1" s="60" t="s">
-        <v>1242</v>
+        <v>1231</v>
       </c>
       <c r="G1" s="60" t="s">
-        <v>1243</v>
+        <v>1232</v>
       </c>
       <c r="H1" s="60" t="s">
-        <v>1244</v>
+        <v>1233</v>
       </c>
       <c r="I1" s="60" t="s">
-        <v>1245</v>
+        <v>1234</v>
       </c>
       <c r="J1" s="29" t="s">
         <v>164</v>
@@ -18384,22 +18390,22 @@
         <v>172</v>
       </c>
       <c r="O1" t="s">
-        <v>1156</v>
+        <v>1145</v>
       </c>
       <c r="P1" t="s">
-        <v>1157</v>
+        <v>1146</v>
       </c>
       <c r="Q1" t="s">
-        <v>1159</v>
+        <v>1148</v>
       </c>
       <c r="R1" t="s">
-        <v>1161</v>
+        <v>1150</v>
       </c>
       <c r="S1" t="s">
-        <v>1162</v>
+        <v>1151</v>
       </c>
       <c r="T1" t="s">
-        <v>1164</v>
+        <v>1153</v>
       </c>
       <c r="U1" t="s">
         <v>103</v>
@@ -18411,22 +18417,22 @@
         <v>173</v>
       </c>
       <c r="X1" t="s">
-        <v>1168</v>
+        <v>1157</v>
       </c>
       <c r="Y1" t="s">
-        <v>1170</v>
+        <v>1159</v>
       </c>
       <c r="Z1" t="s">
-        <v>1171</v>
+        <v>1160</v>
       </c>
       <c r="AA1" t="s">
-        <v>1172</v>
+        <v>1161</v>
       </c>
       <c r="AB1" t="s">
-        <v>1174</v>
+        <v>1163</v>
       </c>
       <c r="AC1" t="s">
-        <v>1175</v>
+        <v>1164</v>
       </c>
       <c r="AD1" t="s">
         <v>107</v>
@@ -18438,22 +18444,22 @@
         <v>174</v>
       </c>
       <c r="AG1" t="s">
-        <v>1180</v>
+        <v>1169</v>
       </c>
       <c r="AH1" t="s">
-        <v>1182</v>
+        <v>1171</v>
       </c>
       <c r="AI1" t="s">
-        <v>1183</v>
+        <v>1172</v>
       </c>
       <c r="AJ1" t="s">
-        <v>1184</v>
+        <v>1173</v>
       </c>
       <c r="AK1" t="s">
-        <v>1186</v>
+        <v>1175</v>
       </c>
       <c r="AL1" t="s">
-        <v>1187</v>
+        <v>1176</v>
       </c>
       <c r="AM1" t="s">
         <v>111</v>
@@ -18465,22 +18471,22 @@
         <v>175</v>
       </c>
       <c r="AP1" t="s">
-        <v>1192</v>
+        <v>1181</v>
       </c>
       <c r="AQ1" t="s">
-        <v>1194</v>
+        <v>1183</v>
       </c>
       <c r="AR1" t="s">
-        <v>1195</v>
+        <v>1184</v>
       </c>
       <c r="AS1" t="s">
-        <v>1196</v>
+        <v>1185</v>
       </c>
       <c r="AT1" t="s">
-        <v>1198</v>
+        <v>1187</v>
       </c>
       <c r="AU1" t="s">
-        <v>1199</v>
+        <v>1188</v>
       </c>
       <c r="AV1" t="s">
         <v>115</v>
@@ -18492,48 +18498,48 @@
         <v>176</v>
       </c>
       <c r="AY1" t="s">
-        <v>1201</v>
+        <v>1190</v>
       </c>
       <c r="AZ1" t="s">
-        <v>1202</v>
+        <v>1191</v>
       </c>
       <c r="BA1" t="s">
-        <v>1203</v>
+        <v>1192</v>
       </c>
       <c r="BB1" t="s">
-        <v>1204</v>
+        <v>1193</v>
       </c>
       <c r="BC1" t="s">
-        <v>1205</v>
+        <v>1194</v>
       </c>
       <c r="BD1" t="s">
-        <v>1206</v>
+        <v>1195</v>
       </c>
       <c r="BE1" t="s">
-        <v>1259</v>
+        <v>1248</v>
       </c>
       <c r="BF1" t="s">
-        <v>1260</v>
+        <v>1249</v>
       </c>
       <c r="BG1" t="s">
         <v>190</v>
       </c>
       <c r="BH1" t="s">
-        <v>1370</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="2" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A2" s="60" t="s">
-        <v>1152</v>
+        <v>1141</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>1365</v>
+        <v>1354</v>
       </c>
       <c r="C2" s="60" t="s">
-        <v>1366</v>
+        <v>1355</v>
       </c>
       <c r="D2" s="60" t="s">
-        <v>1367</v>
+        <v>1356</v>
       </c>
       <c r="E2" s="60"/>
       <c r="F2" s="60"/>
@@ -18541,97 +18547,97 @@
       <c r="H2" s="60"/>
       <c r="I2" s="60"/>
       <c r="K2" s="59" t="s">
-        <v>1223</v>
+        <v>1212</v>
       </c>
       <c r="L2" t="s">
-        <v>1145</v>
+        <v>1134</v>
       </c>
       <c r="M2" t="s">
-        <v>1375</v>
+        <v>1364</v>
       </c>
       <c r="N2" t="s">
-        <v>1169</v>
+        <v>1158</v>
       </c>
       <c r="O2" t="s">
-        <v>1169</v>
+        <v>1158</v>
       </c>
       <c r="P2" t="s">
-        <v>1376</v>
+        <v>1365</v>
       </c>
       <c r="Q2" t="s">
-        <v>1173</v>
+        <v>1162</v>
       </c>
       <c r="R2" t="s">
-        <v>1158</v>
+        <v>1147</v>
       </c>
       <c r="S2" t="s">
-        <v>1160</v>
+        <v>1149</v>
       </c>
       <c r="T2" t="s">
-        <v>1377</v>
+        <v>1366</v>
       </c>
       <c r="U2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="V2" t="s">
+        <v>1364</v>
+      </c>
+      <c r="W2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="X2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>1365</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="AA2" t="s">
         <v>1147</v>
       </c>
-      <c r="V2" t="s">
-        <v>1375</v>
-      </c>
-      <c r="W2" t="s">
-        <v>1181</v>
-      </c>
-      <c r="X2" t="s">
-        <v>1181</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>1376</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>1185</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>1158</v>
-      </c>
       <c r="AB2" t="s">
-        <v>1160</v>
+        <v>1149</v>
       </c>
       <c r="AC2" t="s">
-        <v>1377</v>
+        <v>1366</v>
       </c>
       <c r="AD2" t="s">
-        <v>1143</v>
+        <v>1132</v>
       </c>
       <c r="AE2" t="s">
-        <v>1375</v>
+        <v>1364</v>
       </c>
       <c r="AF2" t="s">
-        <v>1211</v>
+        <v>1200</v>
       </c>
       <c r="AG2" t="s">
-        <v>1211</v>
+        <v>1200</v>
       </c>
       <c r="AH2" t="s">
-        <v>1376</v>
+        <v>1365</v>
       </c>
       <c r="AI2" t="s">
-        <v>1378</v>
+        <v>1367</v>
       </c>
       <c r="AJ2" t="s">
-        <v>1158</v>
+        <v>1147</v>
       </c>
       <c r="AK2" t="s">
-        <v>1160</v>
+        <v>1149</v>
       </c>
       <c r="AL2" t="s">
-        <v>1377</v>
+        <v>1366</v>
       </c>
       <c r="BE2" t="s">
-        <v>1369</v>
+        <v>1358</v>
       </c>
       <c r="BG2" t="s">
         <v>836</v>
       </c>
       <c r="BH2" t="s">
-        <v>1371</v>
+        <v>1360</v>
       </c>
     </row>
   </sheetData>
@@ -18674,7 +18680,7 @@
         <v>1070</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -18722,22 +18728,22 @@
         <v>172</v>
       </c>
       <c r="E1" t="s">
-        <v>1156</v>
+        <v>1145</v>
       </c>
       <c r="F1" t="s">
-        <v>1157</v>
+        <v>1146</v>
       </c>
       <c r="G1" t="s">
-        <v>1159</v>
+        <v>1148</v>
       </c>
       <c r="H1" t="s">
-        <v>1161</v>
+        <v>1150</v>
       </c>
       <c r="I1" t="s">
-        <v>1162</v>
+        <v>1151</v>
       </c>
       <c r="J1" t="s">
-        <v>1164</v>
+        <v>1153</v>
       </c>
       <c r="K1" t="s">
         <v>103</v>
@@ -18749,22 +18755,22 @@
         <v>173</v>
       </c>
       <c r="N1" t="s">
-        <v>1168</v>
+        <v>1157</v>
       </c>
       <c r="O1" t="s">
-        <v>1170</v>
+        <v>1159</v>
       </c>
       <c r="P1" t="s">
-        <v>1171</v>
+        <v>1160</v>
       </c>
       <c r="Q1" t="s">
-        <v>1172</v>
+        <v>1161</v>
       </c>
       <c r="R1" t="s">
-        <v>1174</v>
+        <v>1163</v>
       </c>
       <c r="S1" t="s">
-        <v>1175</v>
+        <v>1164</v>
       </c>
       <c r="T1" t="s">
         <v>107</v>
@@ -18776,22 +18782,22 @@
         <v>174</v>
       </c>
       <c r="W1" t="s">
-        <v>1180</v>
+        <v>1169</v>
       </c>
       <c r="X1" t="s">
-        <v>1182</v>
+        <v>1171</v>
       </c>
       <c r="Y1" t="s">
-        <v>1183</v>
+        <v>1172</v>
       </c>
       <c r="Z1" t="s">
-        <v>1184</v>
+        <v>1173</v>
       </c>
       <c r="AA1" t="s">
-        <v>1186</v>
+        <v>1175</v>
       </c>
       <c r="AB1" t="s">
-        <v>1187</v>
+        <v>1176</v>
       </c>
       <c r="AC1" t="s">
         <v>111</v>
@@ -18803,22 +18809,22 @@
         <v>175</v>
       </c>
       <c r="AF1" t="s">
-        <v>1192</v>
+        <v>1181</v>
       </c>
       <c r="AG1" t="s">
-        <v>1194</v>
+        <v>1183</v>
       </c>
       <c r="AH1" t="s">
-        <v>1195</v>
+        <v>1184</v>
       </c>
       <c r="AI1" t="s">
-        <v>1196</v>
+        <v>1185</v>
       </c>
       <c r="AJ1" t="s">
-        <v>1198</v>
+        <v>1187</v>
       </c>
       <c r="AK1" t="s">
-        <v>1199</v>
+        <v>1188</v>
       </c>
       <c r="AL1" t="s">
         <v>115</v>
@@ -18830,28 +18836,28 @@
         <v>176</v>
       </c>
       <c r="AO1" t="s">
-        <v>1201</v>
+        <v>1190</v>
       </c>
       <c r="AP1" t="s">
-        <v>1202</v>
+        <v>1191</v>
       </c>
       <c r="AQ1" t="s">
-        <v>1203</v>
+        <v>1192</v>
       </c>
       <c r="AR1" t="s">
-        <v>1204</v>
+        <v>1193</v>
       </c>
       <c r="AS1" t="s">
-        <v>1205</v>
+        <v>1194</v>
       </c>
       <c r="AT1" t="s">
-        <v>1206</v>
+        <v>1195</v>
       </c>
       <c r="AU1" t="s">
-        <v>1259</v>
+        <v>1248</v>
       </c>
       <c r="AV1" t="s">
-        <v>1260</v>
+        <v>1249</v>
       </c>
       <c r="AW1" t="s">
         <v>190</v>
@@ -18859,133 +18865,133 @@
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1314</v>
+      </c>
+      <c r="H2" s="59" t="s">
+        <v>1152</v>
+      </c>
+      <c r="I2" s="59" t="s">
+        <v>1152</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1315</v>
+      </c>
+      <c r="L2" s="59" t="s">
+        <v>1316</v>
+      </c>
+      <c r="M2" s="115" t="s">
+        <v>1317</v>
+      </c>
+      <c r="N2" s="115" t="s">
+        <v>1318</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="Q2" s="59" t="s">
+        <v>1152</v>
+      </c>
+      <c r="R2" s="59" t="s">
+        <v>1152</v>
+      </c>
+      <c r="S2" s="115" t="s">
+        <v>1318</v>
+      </c>
+      <c r="T2" t="s">
+        <v>1320</v>
+      </c>
+      <c r="U2" s="59" t="s">
+        <v>1321</v>
+      </c>
+      <c r="V2" s="59" t="s">
+        <v>1322</v>
+      </c>
+      <c r="W2" s="59" t="s">
+        <v>1323</v>
+      </c>
+      <c r="X2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="Z2" s="59" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AA2" s="59" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AB2" s="59" t="s">
+        <v>1323</v>
+      </c>
+      <c r="AC2" t="s">
         <v>1324</v>
       </c>
-      <c r="B2" t="s">
+      <c r="AD2" s="59" t="s">
+        <v>1167</v>
+      </c>
+      <c r="AE2" s="59" t="s">
         <v>1325</v>
       </c>
-      <c r="H2" s="59" t="s">
-        <v>1163</v>
-      </c>
-      <c r="I2" s="59" t="s">
-        <v>1163</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="AF2" s="59" t="s">
         <v>1326</v>
       </c>
-      <c r="L2" s="59" t="s">
+      <c r="AG2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="AI2" s="59" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AJ2" s="59" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AK2" s="59" t="s">
+        <v>1326</v>
+      </c>
+      <c r="AL2" s="59" t="s">
         <v>1327</v>
       </c>
-      <c r="M2" s="115" t="s">
+      <c r="AM2" s="59" t="s">
+        <v>1155</v>
+      </c>
+      <c r="AN2" s="59" t="s">
         <v>1328</v>
       </c>
-      <c r="N2" s="115" t="s">
+      <c r="AO2" s="59" t="s">
         <v>1329</v>
       </c>
-      <c r="O2" t="s">
+      <c r="AP2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="AR2" s="59" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AS2" s="59" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AT2" s="59" t="s">
+        <v>1329</v>
+      </c>
+      <c r="AU2" s="59" t="s">
         <v>1330</v>
       </c>
-      <c r="P2" t="s">
-        <v>1160</v>
-      </c>
-      <c r="Q2" s="59" t="s">
-        <v>1163</v>
-      </c>
-      <c r="R2" s="59" t="s">
-        <v>1163</v>
-      </c>
-      <c r="S2" s="115" t="s">
-        <v>1329</v>
-      </c>
-      <c r="T2" t="s">
-        <v>1331</v>
-      </c>
-      <c r="U2" s="59" t="s">
-        <v>1332</v>
-      </c>
-      <c r="V2" s="59" t="s">
-        <v>1333</v>
-      </c>
-      <c r="W2" s="59" t="s">
-        <v>1334</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="AV2" s="59" t="s">
         <v>1330</v>
       </c>
-      <c r="Y2" t="s">
-        <v>1160</v>
-      </c>
-      <c r="Z2" s="59" t="s">
-        <v>1163</v>
-      </c>
-      <c r="AA2" s="59" t="s">
-        <v>1163</v>
-      </c>
-      <c r="AB2" s="59" t="s">
-        <v>1334</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>1335</v>
-      </c>
-      <c r="AD2" s="59" t="s">
-        <v>1178</v>
-      </c>
-      <c r="AE2" s="59" t="s">
-        <v>1336</v>
-      </c>
-      <c r="AF2" s="59" t="s">
-        <v>1337</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>1330</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>1160</v>
-      </c>
-      <c r="AI2" s="59" t="s">
-        <v>1163</v>
-      </c>
-      <c r="AJ2" s="59" t="s">
-        <v>1163</v>
-      </c>
-      <c r="AK2" s="59" t="s">
-        <v>1337</v>
-      </c>
-      <c r="AL2" s="59" t="s">
-        <v>1338</v>
-      </c>
-      <c r="AM2" s="59" t="s">
-        <v>1166</v>
-      </c>
-      <c r="AN2" s="59" t="s">
-        <v>1339</v>
-      </c>
-      <c r="AO2" s="59" t="s">
-        <v>1340</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>1330</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>1160</v>
-      </c>
-      <c r="AR2" s="59" t="s">
-        <v>1163</v>
-      </c>
-      <c r="AS2" s="59" t="s">
-        <v>1163</v>
-      </c>
-      <c r="AT2" s="59" t="s">
-        <v>1340</v>
-      </c>
-      <c r="AU2" s="59" t="s">
-        <v>1341</v>
-      </c>
-      <c r="AV2" s="59" t="s">
-        <v>1341</v>
-      </c>
       <c r="AW2" t="s">
-        <v>1261</v>
+        <v>1250</v>
       </c>
     </row>
   </sheetData>
@@ -19027,7 +19033,7 @@
         <v>171</v>
       </c>
       <c r="B2" t="s">
-        <v>1352</v>
+        <v>1341</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -19037,10 +19043,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="104" t="s">
-        <v>1308</v>
+        <v>1297</v>
       </c>
       <c r="B3" s="106" t="s">
-        <v>1384</v>
+        <v>1373</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -19053,7 +19059,7 @@
         <v>736</v>
       </c>
       <c r="B4" s="116" t="s">
-        <v>1362</v>
+        <v>1351</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -19063,10 +19069,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="104" t="s">
-        <v>1309</v>
+        <v>1298</v>
       </c>
       <c r="B5" s="116" t="s">
-        <v>1363</v>
+        <v>1352</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -19076,10 +19082,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="104" t="s">
-        <v>1310</v>
+        <v>1299</v>
       </c>
       <c r="B6" s="115" t="s">
-        <v>1319</v>
+        <v>1308</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -19089,15 +19095,15 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="104" t="s">
-        <v>1311</v>
+        <v>1300</v>
       </c>
       <c r="B7" s="116" t="s">
-        <v>1316</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="104" t="s">
-        <v>1312</v>
+        <v>1301</v>
       </c>
       <c r="B8" s="116" t="s">
         <v>838</v>
@@ -19111,7 +19117,7 @@
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13" s="104" t="s">
-        <v>1313</v>
+        <v>1302</v>
       </c>
     </row>
   </sheetData>
@@ -19148,20 +19154,20 @@
         <v>171</v>
       </c>
       <c r="B2" t="s">
-        <v>1352</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="104" t="s">
-        <v>1311</v>
+        <v>1300</v>
       </c>
       <c r="B3" s="116" t="s">
-        <v>1316</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="104" t="s">
-        <v>1312</v>
+        <v>1301</v>
       </c>
       <c r="B4" s="116" t="s">
         <v>838</v>
@@ -19169,10 +19175,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="104" t="s">
-        <v>1314</v>
+        <v>1303</v>
       </c>
       <c r="B5" s="106" t="s">
-        <v>1384</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -19180,7 +19186,7 @@
         <v>257</v>
       </c>
       <c r="B6" s="116" t="s">
-        <v>1320</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -19188,23 +19194,23 @@
         <v>736</v>
       </c>
       <c r="B7" s="116" t="s">
-        <v>1362</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="104" t="s">
-        <v>1315</v>
+        <v>1304</v>
       </c>
       <c r="B8" s="116" t="s">
-        <v>1363</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="104" t="s">
-        <v>1310</v>
+        <v>1299</v>
       </c>
       <c r="B9" s="115" t="s">
-        <v>1319</v>
+        <v>1308</v>
       </c>
     </row>
   </sheetData>
@@ -19241,20 +19247,20 @@
         <v>171</v>
       </c>
       <c r="B2" t="s">
-        <v>1352</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="104" t="s">
-        <v>1311</v>
+        <v>1300</v>
       </c>
       <c r="B3" s="116" t="s">
-        <v>1316</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="104" t="s">
-        <v>1312</v>
+        <v>1301</v>
       </c>
       <c r="B4" s="116" t="s">
         <v>838</v>
@@ -19262,18 +19268,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="104" t="s">
-        <v>1317</v>
+        <v>1306</v>
       </c>
       <c r="B5" s="116" t="s">
-        <v>1391</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="104" t="s">
-        <v>1308</v>
+        <v>1297</v>
       </c>
       <c r="B6" s="106" t="s">
-        <v>1384</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -19281,15 +19287,15 @@
         <v>736</v>
       </c>
       <c r="B7" s="116" t="s">
-        <v>1362</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="104" t="s">
-        <v>1318</v>
+        <v>1307</v>
       </c>
       <c r="B8" s="116" t="s">
-        <v>1363</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -19297,7 +19303,7 @@
         <v>257</v>
       </c>
       <c r="B9" s="116" t="s">
-        <v>1320</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -19305,7 +19311,7 @@
         <v>216</v>
       </c>
       <c r="B10" s="115" t="s">
-        <v>1319</v>
+        <v>1308</v>
       </c>
     </row>
   </sheetData>
@@ -19322,7 +19328,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19340,7 +19346,7 @@
         <v>1006</v>
       </c>
       <c r="C1" s="37">
-        <v>1003</v>
+        <v>1008</v>
       </c>
       <c r="D1" s="26"/>
       <c r="E1" s="31"/>
@@ -19360,7 +19366,7 @@
         <v>931</v>
       </c>
       <c r="C2" t="s">
-        <v>1111</v>
+        <v>1395</v>
       </c>
       <c r="E2" s="38"/>
       <c r="F2" s="38"/>
@@ -19379,7 +19385,7 @@
         <v>932</v>
       </c>
       <c r="C3" t="s">
-        <v>1112</v>
+        <v>1396</v>
       </c>
       <c r="E3" s="38"/>
       <c r="F3" s="38"/>
@@ -19398,7 +19404,7 @@
         <v>933</v>
       </c>
       <c r="C4" t="s">
-        <v>1113</v>
+        <v>1397</v>
       </c>
       <c r="E4" s="38"/>
       <c r="F4" s="38"/>
@@ -19417,7 +19423,7 @@
         <v>934</v>
       </c>
       <c r="C5" t="s">
-        <v>1114</v>
+        <v>1398</v>
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="38"/>
@@ -19436,7 +19442,7 @@
         <v>930</v>
       </c>
       <c r="C6" t="s">
-        <v>1110</v>
+        <v>1399</v>
       </c>
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
@@ -19455,7 +19461,7 @@
         <v>935</v>
       </c>
       <c r="C7" t="s">
-        <v>1115</v>
+        <v>1400</v>
       </c>
       <c r="E7" s="38"/>
       <c r="F7" s="38"/>
@@ -19474,7 +19480,7 @@
         <v>936</v>
       </c>
       <c r="C8" t="s">
-        <v>1116</v>
+        <v>1401</v>
       </c>
       <c r="E8" s="38"/>
       <c r="F8" s="38"/>
@@ -19493,7 +19499,7 @@
         <v>937</v>
       </c>
       <c r="C9" t="s">
-        <v>1117</v>
+        <v>1402</v>
       </c>
       <c r="E9" s="38"/>
       <c r="F9" s="38"/>
@@ -19512,7 +19518,7 @@
         <v>938</v>
       </c>
       <c r="C10" t="s">
-        <v>1118</v>
+        <v>1403</v>
       </c>
       <c r="E10" s="38"/>
       <c r="F10" s="38"/>
@@ -19531,7 +19537,7 @@
         <v>929</v>
       </c>
       <c r="C11" t="s">
-        <v>1119</v>
+        <v>1404</v>
       </c>
       <c r="E11" s="39"/>
       <c r="F11" s="39"/>
@@ -19544,7 +19550,7 @@
     </row>
     <row r="18" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H18" s="95" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
   </sheetData>
@@ -19563,7 +19569,7 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -19586,7 +19592,7 @@
         <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -19594,7 +19600,7 @@
         <v>140</v>
       </c>
       <c r="B3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -19602,7 +19608,7 @@
         <v>141</v>
       </c>
       <c r="B4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -19610,7 +19616,7 @@
         <v>142</v>
       </c>
       <c r="B5" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -19618,7 +19624,7 @@
         <v>143</v>
       </c>
       <c r="B6" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -19626,7 +19632,7 @@
         <v>144</v>
       </c>
       <c r="B7" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -19634,7 +19640,7 @@
         <v>145</v>
       </c>
       <c r="B8" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -19642,7 +19648,7 @@
         <v>146</v>
       </c>
       <c r="B9" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -19650,7 +19656,7 @@
         <v>147</v>
       </c>
       <c r="B10" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -19658,7 +19664,7 @@
         <v>148</v>
       </c>
       <c r="B11" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -19666,7 +19672,7 @@
         <v>149</v>
       </c>
       <c r="B12" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -19674,7 +19680,7 @@
         <v>150</v>
       </c>
       <c r="B13" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -19682,7 +19688,7 @@
         <v>151</v>
       </c>
       <c r="B14" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19690,7 +19696,7 @@
         <v>152</v>
       </c>
       <c r="B15" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
   </sheetData>
@@ -19885,10 +19891,10 @@
         <v>1003</v>
       </c>
       <c r="C3" t="s">
-        <v>1142</v>
+        <v>1131</v>
       </c>
       <c r="D3" t="s">
-        <v>1143</v>
+        <v>1132</v>
       </c>
       <c r="E3">
         <v>25</v>
@@ -19897,10 +19903,10 @@
         <v>2000</v>
       </c>
       <c r="G3" t="s">
-        <v>1144</v>
+        <v>1133</v>
       </c>
       <c r="H3" t="s">
-        <v>1145</v>
+        <v>1134</v>
       </c>
       <c r="I3">
         <v>10</v>

--- a/WppRegpack/TestResource/Regression/DS_SPN_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_SPN_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\OneDrive - Cognizant\Documents\GlobalTestSuite Project\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620" firstSheet="12" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2968" uniqueCount="1407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2888" uniqueCount="1401">
   <si>
     <t>Description</t>
   </si>
@@ -2635,30 +2635,6 @@
   </si>
   <si>
     <t>annualsupplier</t>
-  </si>
-  <si>
-    <t>Vendortype</t>
-  </si>
-  <si>
-    <t>Statecode</t>
-  </si>
-  <si>
-    <t>33 - Tamil Nadu</t>
-  </si>
-  <si>
-    <t>GST Vendor Type</t>
-  </si>
-  <si>
-    <t>TDSApplicable</t>
-  </si>
-  <si>
-    <t>TDS Applicable</t>
-  </si>
-  <si>
-    <t>TDS Section</t>
-  </si>
-  <si>
-    <t>WHMethod</t>
   </si>
   <si>
     <t>107758</t>
@@ -3382,15 +3358,6 @@
     <t>JIRA Folder Name</t>
   </si>
   <si>
-    <t>Expenses</t>
-  </si>
-  <si>
-    <t>E1456</t>
-  </si>
-  <si>
-    <t>E1457</t>
-  </si>
-  <si>
     <t>MY ZP Input Tax 0%</t>
   </si>
   <si>
@@ -3577,15 +3544,9 @@
     <t>Total_1</t>
   </si>
   <si>
-    <t>Sublease Income</t>
-  </si>
-  <si>
     <t>10.00</t>
   </si>
   <si>
-    <t>679.72</t>
-  </si>
-  <si>
     <t>TotalBilling_2</t>
   </si>
   <si>
@@ -3610,18 +3571,9 @@
     <t>Total_2</t>
   </si>
   <si>
-    <t>8224.61</t>
-  </si>
-  <si>
-    <t>Other Commercial Costs</t>
-  </si>
-  <si>
     <t>25.00</t>
   </si>
   <si>
-    <t>906.29</t>
-  </si>
-  <si>
     <t>TotalBilling_3</t>
   </si>
   <si>
@@ -3646,24 +3598,9 @@
     <t>Total_3</t>
   </si>
   <si>
-    <t>27415.27</t>
-  </si>
-  <si>
-    <t>Communication Costs - Other</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>90.63</t>
-  </si>
-  <si>
     <t>TotalBilling_4</t>
   </si>
   <si>
-    <t>1,812.60</t>
-  </si>
-  <si>
     <t>Tax1_4</t>
   </si>
   <si>
@@ -3673,18 +3610,12 @@
     <t>Tax1currency_4</t>
   </si>
   <si>
-    <t>380.65</t>
-  </si>
-  <si>
     <t>Tax2currency_4</t>
   </si>
   <si>
     <t>Total_4</t>
   </si>
   <si>
-    <t>2193.25</t>
-  </si>
-  <si>
     <t>TotalBilling_5</t>
   </si>
   <si>
@@ -3703,39 +3634,9 @@
     <t>Total_5</t>
   </si>
   <si>
-    <t>Quote Revision</t>
-  </si>
-  <si>
-    <t>Quote Total</t>
-  </si>
-  <si>
-    <t>83,378.65</t>
-  </si>
-  <si>
-    <t>1,812.58</t>
-  </si>
-  <si>
     <t>45,314.50</t>
   </si>
   <si>
-    <t>HSN_1</t>
-  </si>
-  <si>
-    <t>HSN_2</t>
-  </si>
-  <si>
-    <t>HSN_3</t>
-  </si>
-  <si>
-    <t>HSN_4</t>
-  </si>
-  <si>
-    <t>HSN_5</t>
-  </si>
-  <si>
-    <t>GrandTotal</t>
-  </si>
-  <si>
     <t>PDF Job Budget</t>
   </si>
   <si>
@@ -4148,9 +4049,6 @@
   </si>
   <si>
     <t>4</t>
-  </si>
-  <si>
-    <t>52,111.70</t>
   </si>
   <si>
     <t>C:\GlobalTestSuiteAutomation-bau_environment_4\WppRegPack\MPLReports\Critical_Regression\Spain\1003\Print Job Quote-3.pdf</t>
@@ -4335,6 +4233,90 @@
   </si>
   <si>
     <t>SPAIN-1006-Hill and Knowlton España, S.A.</t>
+  </si>
+  <si>
+    <t>1006-Hill and Knowlton España, S.A.</t>
+  </si>
+  <si>
+    <t>1006_AutoClient</t>
+  </si>
+  <si>
+    <t>Spain main City</t>
+  </si>
+  <si>
+    <t>AKQACNS</t>
+  </si>
+  <si>
+    <t>948635321787</t>
+  </si>
+  <si>
+    <t>1006_EUR_Billable_Price_List</t>
+  </si>
+  <si>
+    <t>A1006001</t>
+  </si>
+  <si>
+    <t>C1006001</t>
+  </si>
+  <si>
+    <t>1006_GlobalVendor</t>
+  </si>
+  <si>
+    <t>RB109</t>
+  </si>
+  <si>
+    <t>RB109-Digital</t>
+  </si>
+  <si>
+    <t>D111</t>
+  </si>
+  <si>
+    <t>D100-Account Management,D111-Creative,D113-Digital,D116-Finance,D117-Human Resources,D120-Management,D125-Planning</t>
+  </si>
+  <si>
+    <t>B101</t>
+  </si>
+  <si>
+    <t>B101-Madrid</t>
+  </si>
+  <si>
+    <t>RB109_FP-BP</t>
+  </si>
+  <si>
+    <t>Digital-Fixed Price BP</t>
+  </si>
+  <si>
+    <t>1006_TestAutomationJob</t>
+  </si>
+  <si>
+    <t>1006_TestAutomationSubJob</t>
+  </si>
+  <si>
+    <t>Tiempo</t>
+  </si>
+  <si>
+    <t>E1436</t>
+  </si>
+  <si>
+    <t>E1580</t>
+  </si>
+  <si>
+    <t>Costes Facturables entre Compañías</t>
+  </si>
+  <si>
+    <t>Gastos Facturables</t>
+  </si>
+  <si>
+    <t>Costes Facturables entre Compañías1</t>
+  </si>
+  <si>
+    <t>Costes Facturables entre Compañías2</t>
+  </si>
+  <si>
+    <t>E1437</t>
+  </si>
+  <si>
+    <t>Gastos No Facturables</t>
   </si>
 </sst>
 </file>
@@ -4602,7 +4584,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4690,9 +4672,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4735,9 +4714,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4828,6 +4804,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5115,7 +5094,7 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -5127,13 +5106,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="71">
+      <c r="B1" s="69">
         <v>1008</v>
       </c>
-      <c r="C1" s="71">
+      <c r="C1" s="69">
         <v>1006</v>
       </c>
     </row>
@@ -5142,39 +5121,39 @@
         <v>2</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>1399</v>
+        <v>1365</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="109" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C3" s="109" t="s">
-        <v>1108</v>
+      <c r="B3" s="107" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C3" s="107" t="s">
+        <v>1097</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B4" s="91" t="s">
-        <v>1405</v>
+        <v>1079</v>
+      </c>
+      <c r="B4" s="89" t="s">
+        <v>1371</v>
       </c>
       <c r="C4" t="s">
-        <v>1406</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="69" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B5" s="92"/>
+      <c r="A5" s="67" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B5" s="90"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5208,24 +5187,24 @@
       <c r="A1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="70" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
-        <v>1141</v>
+      <c r="A2" s="70" t="s">
+        <v>1130</v>
       </c>
       <c r="C2" t="s">
-        <v>1344</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>184</v>
@@ -5242,314 +5221,34 @@
   <dimension ref="A1:AV4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="30" collapsed="1"/>
+    <col min="1" max="1" width="9.140625" style="30" collapsed="1"/>
+    <col min="2" max="48" width="9.140625" style="30"/>
+    <col min="49" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1145</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1146</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1148</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1150</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1151</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1153</v>
-      </c>
-      <c r="K1" t="s">
-        <v>103</v>
-      </c>
-      <c r="L1" t="s">
-        <v>104</v>
-      </c>
-      <c r="M1" t="s">
-        <v>173</v>
-      </c>
-      <c r="N1" t="s">
-        <v>1157</v>
-      </c>
-      <c r="O1" t="s">
-        <v>1159</v>
-      </c>
-      <c r="P1" t="s">
-        <v>1160</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>1161</v>
-      </c>
-      <c r="R1" t="s">
-        <v>1163</v>
-      </c>
-      <c r="S1" t="s">
-        <v>1164</v>
-      </c>
-      <c r="T1" t="s">
-        <v>107</v>
-      </c>
-      <c r="U1" t="s">
-        <v>108</v>
-      </c>
-      <c r="V1" t="s">
-        <v>174</v>
-      </c>
-      <c r="W1" t="s">
-        <v>1169</v>
-      </c>
-      <c r="X1" t="s">
-        <v>1171</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>1172</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>1173</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>1175</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>1176</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>1181</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>1183</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>1184</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>1185</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>1187</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>1188</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>1190</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>1191</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>1192</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>1193</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>1194</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>1195</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>1196</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="30">
         <v>1008</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="30">
         <v>1006</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1141</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1154</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1155</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1156</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1158</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1147</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1149</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1162</v>
-      </c>
-      <c r="I4" t="s">
-        <v>1152</v>
-      </c>
-      <c r="J4" t="s">
-        <v>1165</v>
-      </c>
-      <c r="K4" t="s">
-        <v>1149</v>
-      </c>
-      <c r="L4" t="s">
-        <v>1149</v>
-      </c>
-      <c r="M4" t="s">
-        <v>1149</v>
-      </c>
-      <c r="N4" t="s">
-        <v>1149</v>
-      </c>
-      <c r="O4" t="s">
-        <v>1149</v>
-      </c>
-      <c r="P4" t="s">
-        <v>1149</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>1149</v>
-      </c>
-      <c r="R4" t="s">
-        <v>1149</v>
-      </c>
-      <c r="S4" t="s">
-        <v>1149</v>
-      </c>
-      <c r="T4" t="s">
-        <v>1166</v>
-      </c>
-      <c r="U4" t="s">
-        <v>1167</v>
-      </c>
-      <c r="V4" t="s">
-        <v>1168</v>
-      </c>
-      <c r="W4" t="s">
-        <v>1170</v>
-      </c>
-      <c r="X4" t="s">
-        <v>1147</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>1149</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>1174</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>1152</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>1177</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>1178</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>1179</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>1180</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>1182</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>1147</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>1149</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>1186</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>1152</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>1189</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>1149</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>1149</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>1149</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>1149</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>1149</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>1149</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>1149</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>1149</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>1149</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>1226</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>1345</v>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>1130</v>
       </c>
     </row>
   </sheetData>
@@ -5568,10 +5267,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="30" collapsed="1"/>
+    <col min="1" max="3" width="9.140625" style="30" collapsed="1"/>
+    <col min="4" max="39" width="9.140625" style="30"/>
+    <col min="40" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>4</v>
       </c>
@@ -5581,116 +5282,8 @@
       <c r="C1" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="D1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1145</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1146</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1148</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1201</v>
-      </c>
-      <c r="K1" t="s">
-        <v>103</v>
-      </c>
-      <c r="L1" t="s">
-        <v>104</v>
-      </c>
-      <c r="M1" t="s">
-        <v>173</v>
-      </c>
-      <c r="N1" t="s">
-        <v>1157</v>
-      </c>
-      <c r="O1" t="s">
-        <v>1159</v>
-      </c>
-      <c r="P1" t="s">
-        <v>1160</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>1202</v>
-      </c>
-      <c r="R1" t="s">
-        <v>107</v>
-      </c>
-      <c r="S1" t="s">
-        <v>108</v>
-      </c>
-      <c r="T1" t="s">
-        <v>174</v>
-      </c>
-      <c r="U1" t="s">
-        <v>1169</v>
-      </c>
-      <c r="V1" t="s">
-        <v>1171</v>
-      </c>
-      <c r="W1" t="s">
-        <v>1172</v>
-      </c>
-      <c r="X1" t="s">
-        <v>1203</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>1181</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>1183</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>1184</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>1204</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>1190</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>1191</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>1192</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>1205</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="30">
         <v>1707</v>
       </c>
@@ -5698,112 +5291,12 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C3" s="30" t="s">
         <v>184</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1132</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1167</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1200</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1147</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1149</v>
-      </c>
-      <c r="J3"/>
-      <c r="K3" t="s">
-        <v>1134</v>
-      </c>
-      <c r="L3" t="s">
-        <v>1155</v>
-      </c>
-      <c r="M3" t="s">
-        <v>1156</v>
-      </c>
-      <c r="N3" t="s">
-        <v>1158</v>
-      </c>
-      <c r="O3" t="s">
-        <v>1147</v>
-      </c>
-      <c r="P3" t="s">
-        <v>1149</v>
-      </c>
-      <c r="Q3"/>
-      <c r="R3" t="s">
-        <v>1136</v>
-      </c>
-      <c r="S3" t="s">
-        <v>1167</v>
-      </c>
-      <c r="T3" t="s">
-        <v>1168</v>
-      </c>
-      <c r="U3" t="s">
-        <v>1170</v>
-      </c>
-      <c r="V3" t="s">
-        <v>1147</v>
-      </c>
-      <c r="W3" t="s">
-        <v>1149</v>
-      </c>
-      <c r="X3"/>
-      <c r="Y3" t="s">
-        <v>1138</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>1179</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>1180</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>1182</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>1147</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>1149</v>
-      </c>
-      <c r="AE3"/>
-      <c r="AF3" t="s">
-        <v>1149</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>1149</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>1149</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>1149</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>1149</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>1149</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>1149</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>1198</v>
       </c>
     </row>
   </sheetData>
@@ -5820,7 +5313,7 @@
   <dimension ref="A1:AH3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5955,33 +5448,20 @@
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1008</v>
-      </c>
-      <c r="B2" s="59">
-        <v>100823629</v>
-      </c>
+        <v>1006</v>
+      </c>
+      <c r="B2" s="58"/>
       <c r="C2" s="4">
-        <v>10089905</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>1089</v>
-      </c>
+        <v>10069905</v>
+      </c>
+      <c r="D2" s="15"/>
       <c r="E2" t="s">
-        <v>1090</v>
+        <v>1394</v>
       </c>
       <c r="F2" t="s">
         <v>287</v>
       </c>
       <c r="G2">
-        <v>1000</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1091</v>
-      </c>
-      <c r="I2" t="s">
-        <v>287</v>
-      </c>
-      <c r="J2">
         <v>200</v>
       </c>
     </row>
@@ -5993,10 +5473,10 @@
         <v>10039919</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>1384</v>
+        <v>1350</v>
       </c>
       <c r="E3" t="s">
-        <v>1131</v>
+        <v>1120</v>
       </c>
       <c r="F3" t="s">
         <v>287</v>
@@ -6033,14 +5513,14 @@
         <v>4</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>1141</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="59">
+      <c r="B2" s="58">
         <v>1003100084</v>
       </c>
     </row>
@@ -6049,7 +5529,7 @@
         <v>95</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1383</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6057,7 +5537,7 @@
         <v>96</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>1381</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6073,7 +5553,7 @@
         <v>88</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>1382</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -6081,7 +5561,7 @@
         <v>89</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>1382</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -6089,7 +5569,7 @@
         <v>90</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>1382</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -6097,7 +5577,7 @@
         <v>91</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>1382</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -6105,7 +5585,7 @@
         <v>92</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>1382</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -6113,7 +5593,7 @@
         <v>93</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>1382</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -6123,7 +5603,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1101</v>
+        <v>1090</v>
       </c>
       <c r="B13" s="30" t="s">
         <v>88</v>
@@ -6131,7 +5611,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1102</v>
+        <v>1091</v>
       </c>
       <c r="B14" s="30" t="s">
         <v>89</v>
@@ -6139,7 +5619,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1103</v>
+        <v>1092</v>
       </c>
       <c r="B15" s="30" t="s">
         <v>90</v>
@@ -6147,7 +5627,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1104</v>
+        <v>1093</v>
       </c>
       <c r="B16" s="30" t="s">
         <v>91</v>
@@ -6155,7 +5635,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1105</v>
+        <v>1094</v>
       </c>
       <c r="B17" s="30" t="s">
         <v>92</v>
@@ -6163,7 +5643,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1106</v>
+        <v>1095</v>
       </c>
       <c r="B18" s="30" t="s">
         <v>93</v>
@@ -6171,7 +5651,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1107</v>
+        <v>1096</v>
       </c>
       <c r="B19" s="30" t="s">
         <v>94</v>
@@ -6190,7 +5670,7 @@
   </sheetPr>
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -6221,7 +5701,7 @@
         <v>53</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1114</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6237,15 +5717,15 @@
         <v>7</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1123</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1124</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -6269,7 +5749,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1125</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -6277,7 +5757,7 @@
         <v>52</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1126</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -6293,7 +5773,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1127</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -6301,7 +5781,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>1128</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -6309,7 +5789,7 @@
         <v>57</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>1129</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -6323,30 +5803,30 @@
         <v>11</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>1225</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="B17" s="73"/>
+      <c r="B17" s="71"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="B18" s="73"/>
+      <c r="B18" s="71"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="B19" s="73"/>
+      <c r="B19" s="71"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="112" t="s">
-        <v>1224</v>
+      <c r="A20" s="110" t="s">
+        <v>1191</v>
       </c>
       <c r="B20" s="1">
         <v>2</v>
@@ -6396,7 +5876,7 @@
         <v>53</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1114</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6412,15 +5892,15 @@
         <v>7</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1123</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1124</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -6444,7 +5924,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1125</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -6452,7 +5932,7 @@
         <v>52</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1126</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -6468,7 +5948,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1127</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -6476,7 +5956,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>1128</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -6484,7 +5964,7 @@
         <v>57</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>1129</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -6498,30 +5978,30 @@
         <v>11</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>1225</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="B17" s="73"/>
+      <c r="B17" s="71"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="B18" s="73"/>
+      <c r="B18" s="71"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="B19" s="73"/>
+      <c r="B19" s="71"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="112" t="s">
-        <v>1224</v>
+      <c r="A20" s="110" t="s">
+        <v>1191</v>
       </c>
       <c r="B20" s="1">
         <v>3</v>
@@ -6538,10 +6018,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W3" sqref="P3:W3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6587,7 +6067,7 @@
         <v>63</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>1224</v>
+        <v>1191</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>164</v>
@@ -6715,51 +6195,122 @@
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1006</v>
+        <v>1003</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F2">
+        <v>25</v>
+      </c>
+      <c r="G2">
+        <v>2000</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>750</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="N2">
+        <v>25</v>
+      </c>
+      <c r="O2">
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1003</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
+        <v>1006</v>
+      </c>
+      <c r="B3" s="58">
+        <v>100620345</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>1131</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1132</v>
+        <v>1392</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
       </c>
       <c r="F3">
-        <v>25</v>
-      </c>
-      <c r="G3">
-        <v>2000</v>
+        <v>500</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1393</v>
       </c>
       <c r="H3" t="s">
-        <v>1133</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1134</v>
+        <v>1396</v>
+      </c>
+      <c r="I3">
+        <v>50</v>
       </c>
       <c r="J3">
-        <v>10</v>
-      </c>
-      <c r="K3">
-        <v>750</v>
+        <v>700</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1394</v>
       </c>
       <c r="L3" t="s">
-        <v>1135</v>
-      </c>
-      <c r="M3" t="s">
-        <v>1136</v>
+        <v>1395</v>
+      </c>
+      <c r="M3">
+        <v>20</v>
       </c>
       <c r="N3">
-        <v>25</v>
-      </c>
-      <c r="O3">
-        <v>1000</v>
+        <v>800</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1394</v>
+      </c>
+      <c r="P3" t="s">
+        <v>1397</v>
+      </c>
+      <c r="Q3">
+        <v>40</v>
+      </c>
+      <c r="R3">
+        <v>500</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1394</v>
+      </c>
+      <c r="T3" t="s">
+        <v>1398</v>
+      </c>
+      <c r="U3">
+        <v>40</v>
+      </c>
+      <c r="V3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>1399</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1400</v>
       </c>
     </row>
   </sheetData>
@@ -6822,7 +6373,7 @@
         <v>63</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>1224</v>
+        <v>1191</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>164</v>
@@ -6961,10 +6512,10 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>1131</v>
+        <v>1120</v>
       </c>
       <c r="E3" t="s">
-        <v>1132</v>
+        <v>1121</v>
       </c>
       <c r="F3">
         <v>25</v>
@@ -6973,10 +6524,10 @@
         <v>2000</v>
       </c>
       <c r="H3" t="s">
-        <v>1133</v>
+        <v>1122</v>
       </c>
       <c r="I3" t="s">
-        <v>1134</v>
+        <v>1123</v>
       </c>
       <c r="J3">
         <v>10</v>
@@ -6985,10 +6536,10 @@
         <v>750</v>
       </c>
       <c r="L3" t="s">
-        <v>1135</v>
+        <v>1124</v>
       </c>
       <c r="M3" t="s">
-        <v>1136</v>
+        <v>1125</v>
       </c>
       <c r="N3">
         <v>25</v>
@@ -6997,10 +6548,10 @@
         <v>1000</v>
       </c>
       <c r="P3" t="s">
-        <v>1137</v>
+        <v>1126</v>
       </c>
       <c r="Q3" t="s">
-        <v>1138</v>
+        <v>1127</v>
       </c>
       <c r="R3">
         <v>20</v>
@@ -7009,10 +6560,10 @@
         <v>100</v>
       </c>
       <c r="T3" t="s">
-        <v>1139</v>
+        <v>1128</v>
       </c>
       <c r="U3" t="s">
-        <v>1140</v>
+        <v>1129</v>
       </c>
       <c r="V3">
         <v>15</v>
@@ -7049,22 +6600,22 @@
       <c r="A1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="113" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C1" s="72" t="s">
+      <c r="B1" s="111" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C1" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="70" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
-        <v>1141</v>
-      </c>
-      <c r="B2" s="72" t="s">
-        <v>1226</v>
+      <c r="A2" s="70" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>1193</v>
       </c>
       <c r="C2" s="30"/>
     </row>
@@ -7268,16 +6819,16 @@
         <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>1394</v>
+        <v>1360</v>
       </c>
       <c r="C2" t="s">
-        <v>1363</v>
-      </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="59"/>
+        <v>1329</v>
+      </c>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="58"/>
     </row>
     <row r="3" spans="1:165" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -7292,10 +6843,10 @@
         <v>167</v>
       </c>
       <c r="B4" t="s">
-        <v>1386</v>
+        <v>1352</v>
       </c>
       <c r="C4" t="s">
-        <v>1385</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="5" spans="1:165" x14ac:dyDescent="0.25">
@@ -7303,7 +6854,7 @@
         <v>182</v>
       </c>
       <c r="B5" t="s">
-        <v>1348</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="6" spans="1:165" x14ac:dyDescent="0.25">
@@ -7311,7 +6862,7 @@
         <v>735</v>
       </c>
       <c r="B6" t="s">
-        <v>1353</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="7" spans="1:165" x14ac:dyDescent="0.25">
@@ -7319,7 +6870,7 @@
         <v>736</v>
       </c>
       <c r="B7" t="s">
-        <v>1351</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="8" spans="1:165" x14ac:dyDescent="0.25">
@@ -7327,7 +6878,7 @@
         <v>740</v>
       </c>
       <c r="B8" t="s">
-        <v>1212</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="9" spans="1:165" x14ac:dyDescent="0.25">
@@ -7335,7 +6886,7 @@
         <v>741</v>
       </c>
       <c r="B9" t="s">
-        <v>1109</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="10" spans="1:165" x14ac:dyDescent="0.25">
@@ -7343,7 +6894,7 @@
         <v>742</v>
       </c>
       <c r="B10" t="s">
-        <v>1383</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="11" spans="1:165" x14ac:dyDescent="0.25">
@@ -7366,7 +6917,7 @@
         <v>808</v>
       </c>
       <c r="B14" t="s">
-        <v>1333</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="15" spans="1:165" x14ac:dyDescent="0.25">
@@ -7374,7 +6925,7 @@
         <v>809</v>
       </c>
       <c r="B15" t="s">
-        <v>1334</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="16" spans="1:165" x14ac:dyDescent="0.25">
@@ -7382,7 +6933,7 @@
         <v>810</v>
       </c>
       <c r="B16" t="s">
-        <v>1335</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -7390,7 +6941,7 @@
         <v>811</v>
       </c>
       <c r="B17" t="s">
-        <v>1336</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -7398,7 +6949,7 @@
         <v>812</v>
       </c>
       <c r="B18" t="s">
-        <v>1337</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -7406,7 +6957,7 @@
         <v>813</v>
       </c>
       <c r="B19" t="s">
-        <v>1338</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -7424,20 +6975,20 @@
         <v>171</v>
       </c>
       <c r="B22" t="s">
-        <v>1341</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="B24" t="s">
-        <v>1377</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -7445,63 +6996,63 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>1389</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B26" t="s">
-        <v>1342</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="B27" t="s">
-        <v>1344</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1071</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1120</v>
+        <v>1109</v>
       </c>
       <c r="B29"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1142</v>
+        <v>1131</v>
       </c>
       <c r="B30" t="s">
-        <v>1128</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1143</v>
+        <v>1132</v>
       </c>
       <c r="B31" t="s">
-        <v>1346</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1144</v>
+        <v>1133</v>
       </c>
       <c r="B32" t="s">
-        <v>1347</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1207</v>
+        <v>1174</v>
       </c>
       <c r="B33"/>
     </row>
@@ -7510,66 +7061,66 @@
         <v>250</v>
       </c>
       <c r="B34" t="s">
-        <v>1392</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1220</v>
+        <v>1187</v>
       </c>
       <c r="B35"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1222</v>
+        <v>1189</v>
       </c>
       <c r="B36" t="s">
-        <v>1352</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1223</v>
+        <v>1190</v>
       </c>
       <c r="B37" t="s">
-        <v>1353</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="30" t="s">
-        <v>1235</v>
+        <v>1202</v>
       </c>
       <c r="B38" t="s">
-        <v>1342</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="B39" t="s">
-        <v>1363</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1236</v>
+        <v>1203</v>
       </c>
       <c r="B40" t="s">
-        <v>1128</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1237</v>
+        <v>1204</v>
       </c>
       <c r="B41" t="s">
-        <v>1363</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1238</v>
+        <v>1205</v>
       </c>
       <c r="B42" t="s">
         <v>184</v>
@@ -7577,198 +7128,198 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1239</v>
+        <v>1206</v>
       </c>
       <c r="B43"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
-        <v>1240</v>
+        <v>1207</v>
       </c>
       <c r="B44"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1241</v>
+        <v>1208</v>
       </c>
       <c r="B45" t="s">
-        <v>1363</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="30" t="s">
-        <v>1242</v>
+        <v>1209</v>
       </c>
       <c r="B46" t="s">
-        <v>1363</v>
+        <v>1329</v>
       </c>
       <c r="C46" t="s">
-        <v>1363</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1243</v>
+        <v>1210</v>
       </c>
       <c r="B47"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1244</v>
+        <v>1211</v>
       </c>
       <c r="B48"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1245</v>
+        <v>1212</v>
       </c>
       <c r="B49"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1246</v>
+        <v>1213</v>
       </c>
       <c r="B50"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1247</v>
+        <v>1214</v>
       </c>
       <c r="B51"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1251</v>
+        <v>1218</v>
       </c>
       <c r="B52" t="s">
-        <v>1368</v>
+        <v>1334</v>
       </c>
       <c r="C52" t="s">
-        <v>1368</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
-        <v>1252</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1253</v>
+        <v>1220</v>
       </c>
       <c r="B54" t="s">
-        <v>1361</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1254</v>
+        <v>1221</v>
       </c>
       <c r="B55" t="s">
-        <v>1362</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1255</v>
+        <v>1222</v>
       </c>
       <c r="B56" t="s">
-        <v>1357</v>
+        <v>1323</v>
       </c>
       <c r="C56" t="s">
-        <v>1357</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1256</v>
+        <v>1223</v>
       </c>
       <c r="B57" t="s">
-        <v>1369</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1257</v>
+        <v>1224</v>
       </c>
       <c r="B58" t="s">
-        <v>1370</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1258</v>
+        <v>1225</v>
       </c>
       <c r="B59" t="s">
-        <v>1363</v>
+        <v>1329</v>
       </c>
       <c r="C59" t="s">
-        <v>1363</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="30" t="s">
-        <v>1259</v>
+        <v>1226</v>
       </c>
       <c r="B60"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1261</v>
+        <v>1228</v>
       </c>
       <c r="B61"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1262</v>
+        <v>1229</v>
       </c>
       <c r="B62"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1263</v>
+        <v>1230</v>
       </c>
       <c r="B63"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1264</v>
+        <v>1231</v>
       </c>
       <c r="B64"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1265</v>
+        <v>1232</v>
       </c>
       <c r="B65"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1260</v>
+        <v>1227</v>
       </c>
       <c r="B66"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1269</v>
+        <v>1236</v>
       </c>
       <c r="B67"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1270</v>
+        <v>1237</v>
       </c>
       <c r="B68"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1271</v>
+        <v>1238</v>
       </c>
       <c r="B69"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="30" t="s">
-        <v>1310</v>
+        <v>1277</v>
       </c>
     </row>
   </sheetData>
@@ -7799,21 +7350,21 @@
       <c r="A1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="113" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C1" s="72" t="s">
+      <c r="B1" s="111" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C1" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="70" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
-        <v>1141</v>
-      </c>
-      <c r="B2" s="72" t="s">
+      <c r="A2" s="70" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B2" s="70" t="s">
         <v>244</v>
       </c>
       <c r="C2" s="30"/>
@@ -7850,26 +7401,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>1141</v>
+        <v>1130</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="31"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="63"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>1209</v>
+        <v>1176</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -7879,7 +7430,7 @@
       <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="53" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="16" t="s">
@@ -7893,7 +7444,7 @@
       <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="53" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -7911,7 +7462,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>1141</v>
+        <v>1130</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -7919,14 +7470,14 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="64"/>
+      <c r="I5" s="63"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
         <v>53</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1114</v>
+        <v>1103</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6"/>
@@ -7936,11 +7487,11 @@
       <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="54" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>1210</v>
+        <v>1177</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
@@ -7951,7 +7502,7 @@
       <c r="I7" s="20"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="54" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="20" t="s">
@@ -7965,11 +7516,11 @@
       <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="95" t="s">
-        <v>1211</v>
+      <c r="B9" s="93" t="s">
+        <v>1178</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -7979,7 +7530,7 @@
       <c r="H9" s="22"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="54" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="20" t="s">
@@ -7994,7 +7545,7 @@
       <c r="I10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="54" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="20" t="s">
@@ -8009,7 +7560,7 @@
       <c r="I11" s="20"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="54" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="20" t="s">
@@ -8024,11 +7575,11 @@
       <c r="I12" s="20"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="54" t="s">
         <v>34</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>1125</v>
+        <v>1114</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
@@ -8036,14 +7587,14 @@
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
-      <c r="I13" s="65"/>
+      <c r="I13" s="64"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="55" t="s">
         <v>49</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>1126</v>
+        <v>1115</v>
       </c>
       <c r="C14" s="44"/>
       <c r="D14" s="44"/>
@@ -8054,7 +7605,7 @@
       <c r="I14" s="44"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="54" t="s">
         <v>35</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -8068,11 +7619,11 @@
       <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="55" t="s">
         <v>50</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>1127</v>
+        <v>1116</v>
       </c>
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
@@ -8083,11 +7634,11 @@
       <c r="I16" s="44"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="55" t="s">
+      <c r="A17" s="54" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>1212</v>
+        <v>1179</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
@@ -8095,14 +7646,14 @@
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
-      <c r="I17" s="49"/>
+      <c r="I17" s="48"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="54" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>1212</v>
+        <v>1179</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
@@ -8110,14 +7661,14 @@
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
-      <c r="I18" s="49"/>
+      <c r="I18" s="48"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="54" t="s">
         <v>38</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>1213</v>
+        <v>1180</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
@@ -8127,22 +7678,22 @@
       <c r="H19" s="20"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="57" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
+      <c r="B20" s="56" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="54" t="s">
         <v>39</v>
       </c>
       <c r="B21" s="20" t="s">
@@ -8157,11 +7708,11 @@
       <c r="I21" s="20"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="58" t="s">
+      <c r="A22" s="57" t="s">
         <v>41</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>1208</v>
+        <v>1175</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
@@ -8205,23 +7756,23 @@
         <v>4</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>1141</v>
+        <v>1130</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="26"/>
       <c r="E1" s="31"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>1209</v>
+        <v>1176</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -8269,7 +7820,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>1141</v>
+        <v>1130</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="15"/>
@@ -8278,14 +7829,14 @@
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
-      <c r="J5" s="64"/>
+      <c r="J5" s="63"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>53</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1114</v>
+        <v>1103</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="15"/>
@@ -8300,7 +7851,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>1387</v>
+        <v>1353</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
@@ -8331,8 +7882,8 @@
       <c r="A9" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="95" t="s">
-        <v>1211</v>
+      <c r="B9" s="93" t="s">
+        <v>1178</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -8396,7 +7947,7 @@
         <v>34</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>1125</v>
+        <v>1114</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
@@ -8405,14 +7956,14 @@
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
-      <c r="J13" s="65"/>
+      <c r="J13" s="64"/>
     </row>
     <row r="14" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>49</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>1126</v>
+        <v>1115</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="44"/>
@@ -8444,7 +7995,7 @@
         <v>50</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>1127</v>
+        <v>1116</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="44"/>
@@ -8460,7 +8011,7 @@
         <v>36</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>1212</v>
+        <v>1179</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
@@ -8469,14 +8020,14 @@
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
       <c r="I17" s="20"/>
-      <c r="J17" s="49"/>
+      <c r="J17" s="48"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>1212</v>
+        <v>1179</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
@@ -8485,14 +8036,14 @@
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
       <c r="I18" s="20"/>
-      <c r="J18" s="49"/>
+      <c r="J18" s="48"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>38</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>1216</v>
+        <v>1183</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="20"/>
@@ -8507,17 +8058,17 @@
       <c r="A20" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="57" t="s">
-        <v>1217</v>
+      <c r="B20" s="56" t="s">
+        <v>1184</v>
       </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
@@ -8540,7 +8091,7 @@
         <v>41</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>1208</v>
+        <v>1175</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="20"/>
@@ -8574,7 +8125,7 @@
         <v>47</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>1387</v>
+        <v>1353</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>737</v>
@@ -8592,7 +8143,7 @@
         <v>48</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>1388</v>
+        <v>1354</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>739</v>
@@ -8645,75 +8196,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="50" t="s">
-        <v>1141</v>
+      <c r="B1" s="49" t="s">
+        <v>1130</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="51" t="s">
-        <v>1311</v>
+      <c r="B2" s="50" t="s">
+        <v>1278</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51" t="s">
-        <v>1141</v>
+      <c r="B3" s="50" t="s">
+        <v>1130</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="B4" s="59" t="s">
-        <v>1312</v>
+      <c r="B4" s="58" t="s">
+        <v>1279</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="50" t="s">
         <v>53</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1114</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="50" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="50" t="s">
         <v>43</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>1210</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="50" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>1215</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="51" t="s">
-        <v>1141</v>
+      <c r="B9" s="50" t="s">
+        <v>1130</v>
       </c>
     </row>
   </sheetData>
@@ -8740,7 +8291,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="74" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="26" t="s">
@@ -8748,7 +8299,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="73" t="s">
         <v>166</v>
       </c>
       <c r="B2" s="16">
@@ -8756,7 +8307,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="53" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="16" t="s">
@@ -8764,7 +8315,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="53" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -8772,7 +8323,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="53" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="16" t="s">
@@ -8780,7 +8331,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="54" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -8788,7 +8339,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="54" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="16" t="s">
@@ -8796,7 +8347,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="54" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="16" t="s">
@@ -8804,7 +8355,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="54" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="16" t="s">
@@ -8812,7 +8363,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="54" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="16" t="s">
@@ -8820,7 +8371,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="54" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="16" t="s">
@@ -8828,7 +8379,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="54" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="16" t="s">
@@ -8836,7 +8387,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="87" t="s">
+      <c r="A13" s="85" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="20" t="s">
@@ -8870,62 +8421,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="50">
+      <c r="C1" s="49">
         <v>1307</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="50" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51">
+      <c r="B3" s="50">
         <v>1307</v>
       </c>
-      <c r="C3" s="51">
+      <c r="C3" s="50">
         <v>1307</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="50" t="s">
         <v>277</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="50" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="50" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="50" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -8936,7 +8487,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="50" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -8947,13 +8498,13 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="51">
+      <c r="C8" s="50">
         <v>1307</v>
       </c>
     </row>
@@ -9115,7 +8666,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>1066</v>
+        <v>1058</v>
       </c>
       <c r="C1">
         <v>1003</v>
@@ -9169,7 +8720,7 @@
         <v>1008</v>
       </c>
       <c r="C2" t="s">
-        <v>1092</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -9205,7 +8756,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>1066</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -9255,8 +8806,8 @@
       <c r="A3" t="s">
         <v>695</v>
       </c>
-      <c r="B3" s="59" t="s">
-        <v>943</v>
+      <c r="B3" s="58" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -9456,7 +9007,7 @@
         <v>311</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -9472,7 +9023,7 @@
         <v>342</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -9480,7 +9031,7 @@
         <v>326</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -9488,7 +9039,7 @@
         <v>324</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -9496,7 +9047,7 @@
         <v>352</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -9512,7 +9063,7 @@
         <v>355</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -9528,7 +9079,7 @@
         <v>350</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -9536,7 +9087,7 @@
         <v>339</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -9544,7 +9095,7 @@
         <v>346</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -9560,7 +9111,7 @@
         <v>344</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -9568,7 +9119,7 @@
         <v>699</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -9576,7 +9127,7 @@
         <v>331</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -9584,7 +9135,7 @@
         <v>363</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -9592,7 +9143,7 @@
         <v>380</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -9600,7 +9151,7 @@
         <v>503</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -9608,7 +9159,7 @@
         <v>372</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -9616,7 +9167,7 @@
         <v>87</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -9624,7 +9175,7 @@
         <v>376</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -9632,7 +9183,7 @@
         <v>385</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -9648,7 +9199,7 @@
         <v>357</v>
       </c>
       <c r="B52" s="30" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -9656,7 +9207,7 @@
         <v>395</v>
       </c>
       <c r="B53" s="30" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -9664,7 +9215,7 @@
         <v>399</v>
       </c>
       <c r="B54" s="30" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -9672,7 +9223,7 @@
         <v>397</v>
       </c>
       <c r="B55" s="30" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -9680,7 +9231,7 @@
         <v>402</v>
       </c>
       <c r="B56" s="30" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -9688,7 +9239,7 @@
         <v>298</v>
       </c>
       <c r="B57" s="30" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -9696,7 +9247,7 @@
         <v>701</v>
       </c>
       <c r="B58" s="30" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -9704,7 +9255,7 @@
         <v>702</v>
       </c>
       <c r="B59" s="30" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -9712,7 +9263,7 @@
         <v>405</v>
       </c>
       <c r="B60" s="30" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -9720,7 +9271,7 @@
         <v>409</v>
       </c>
       <c r="B61" s="30" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -9728,7 +9279,7 @@
         <v>414</v>
       </c>
       <c r="B62" s="30" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -9736,7 +9287,7 @@
         <v>419</v>
       </c>
       <c r="B63" s="30" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -9744,7 +9295,7 @@
         <v>429</v>
       </c>
       <c r="B64" s="30" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -9752,7 +9303,7 @@
         <v>432</v>
       </c>
       <c r="B65" s="30" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -9760,7 +9311,7 @@
         <v>427</v>
       </c>
       <c r="B66" s="30" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -9768,7 +9319,7 @@
         <v>445</v>
       </c>
       <c r="B67" s="30" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -9776,7 +9327,7 @@
         <v>441</v>
       </c>
       <c r="B68" s="30" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -9784,7 +9335,7 @@
         <v>448</v>
       </c>
       <c r="B69" s="30" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -9792,7 +9343,7 @@
         <v>454</v>
       </c>
       <c r="B70" s="30" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -9800,7 +9351,7 @@
         <v>452</v>
       </c>
       <c r="B71" s="30" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -9808,7 +9359,7 @@
         <v>388</v>
       </c>
       <c r="B72" s="30" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -9816,7 +9367,7 @@
         <v>450</v>
       </c>
       <c r="B73" s="30" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -9824,7 +9375,7 @@
         <v>456</v>
       </c>
       <c r="B74" s="30" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -9832,7 +9383,7 @@
         <v>460</v>
       </c>
       <c r="B75" s="30" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -9840,7 +9391,7 @@
         <v>471</v>
       </c>
       <c r="B76" s="30" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -9848,7 +9399,7 @@
         <v>285</v>
       </c>
       <c r="B77" s="30" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -9856,7 +9407,7 @@
         <v>466</v>
       </c>
       <c r="B78" s="30" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -9864,7 +9415,7 @@
         <v>458</v>
       </c>
       <c r="B79" s="30" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -9872,7 +9423,7 @@
         <v>474</v>
       </c>
       <c r="B80" s="30" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -9888,7 +9439,7 @@
         <v>476</v>
       </c>
       <c r="B82" s="30" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -9896,7 +9447,7 @@
         <v>484</v>
       </c>
       <c r="B83" s="30" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -9904,7 +9455,7 @@
         <v>490</v>
       </c>
       <c r="B84" s="30" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -9912,7 +9463,7 @@
         <v>359</v>
       </c>
       <c r="B85" s="30" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -9920,7 +9471,7 @@
         <v>378</v>
       </c>
       <c r="B86" s="30" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -9928,7 +9479,7 @@
         <v>628</v>
       </c>
       <c r="B87" s="30" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -9936,7 +9487,7 @@
         <v>488</v>
       </c>
       <c r="B88" s="30" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -9944,7 +9495,7 @@
         <v>366</v>
       </c>
       <c r="B89" s="30" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -9952,7 +9503,7 @@
         <v>482</v>
       </c>
       <c r="B90" s="30" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -9960,7 +9511,7 @@
         <v>492</v>
       </c>
       <c r="B91" s="30" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -9968,7 +9519,7 @@
         <v>495</v>
       </c>
       <c r="B92" s="30" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -9976,7 +9527,7 @@
         <v>632</v>
       </c>
       <c r="B93" s="30" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -9984,7 +9535,7 @@
         <v>499</v>
       </c>
       <c r="B94" s="30" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -9992,7 +9543,7 @@
         <v>704</v>
       </c>
       <c r="B95" s="30" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -10000,7 +9551,7 @@
         <v>705</v>
       </c>
       <c r="B96" s="30" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -10008,7 +9559,7 @@
         <v>501</v>
       </c>
       <c r="B97" s="30" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -10016,7 +9567,7 @@
         <v>536</v>
       </c>
       <c r="B98" s="30" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -10024,7 +9575,7 @@
         <v>529</v>
       </c>
       <c r="B99" s="30" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -10032,7 +9583,7 @@
         <v>509</v>
       </c>
       <c r="B100" s="30" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -10040,7 +9591,7 @@
         <v>560</v>
       </c>
       <c r="B101" s="30" t="s">
-        <v>1009</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -10048,7 +9599,7 @@
         <v>540</v>
       </c>
       <c r="B102" s="30" t="s">
-        <v>1010</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -10056,7 +9607,7 @@
         <v>532</v>
       </c>
       <c r="B103" s="30" t="s">
-        <v>1011</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -10064,7 +9615,7 @@
         <v>507</v>
       </c>
       <c r="B104" s="30" t="s">
-        <v>1012</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -10072,7 +9623,7 @@
         <v>706</v>
       </c>
       <c r="B105" s="30" t="s">
-        <v>1013</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -10080,7 +9631,7 @@
         <v>523</v>
       </c>
       <c r="B106" s="30" t="s">
-        <v>1014</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -10088,7 +9639,7 @@
         <v>515</v>
       </c>
       <c r="B107" s="30" t="s">
-        <v>1015</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -10096,7 +9647,7 @@
         <v>511</v>
       </c>
       <c r="B108" s="30" t="s">
-        <v>1016</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -10104,7 +9655,7 @@
         <v>526</v>
       </c>
       <c r="B109" s="30" t="s">
-        <v>1017</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -10112,7 +9663,7 @@
         <v>513</v>
       </c>
       <c r="B110" s="30" t="s">
-        <v>1018</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -10120,7 +9671,7 @@
         <v>707</v>
       </c>
       <c r="B111" s="30" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -10128,7 +9679,7 @@
         <v>538</v>
       </c>
       <c r="B112" s="30" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -10136,7 +9687,7 @@
         <v>553</v>
       </c>
       <c r="B113" s="30" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -10144,7 +9695,7 @@
         <v>550</v>
       </c>
       <c r="B114" s="30" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -10152,7 +9703,7 @@
         <v>562</v>
       </c>
       <c r="B115" s="30" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -10160,7 +9711,7 @@
         <v>545</v>
       </c>
       <c r="B116" s="30" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -10168,7 +9719,7 @@
         <v>370</v>
       </c>
       <c r="B117" s="30" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -10184,7 +9735,7 @@
         <v>575</v>
       </c>
       <c r="B119" s="30" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -10192,7 +9743,7 @@
         <v>571</v>
       </c>
       <c r="B120" s="30" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -10200,7 +9751,7 @@
         <v>577</v>
       </c>
       <c r="B121" s="30" t="s">
-        <v>1028</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -10208,7 +9759,7 @@
         <v>566</v>
       </c>
       <c r="B122" s="30" t="s">
-        <v>1029</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -10216,7 +9767,7 @@
         <v>580</v>
       </c>
       <c r="B123" s="30" t="s">
-        <v>1030</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -10224,7 +9775,7 @@
         <v>573</v>
       </c>
       <c r="B124" s="30" t="s">
-        <v>1031</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -10232,7 +9783,7 @@
         <v>584</v>
       </c>
       <c r="B125" s="30" t="s">
-        <v>1032</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -10240,7 +9791,7 @@
         <v>709</v>
       </c>
       <c r="B126" s="30" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -10248,7 +9799,7 @@
         <v>587</v>
       </c>
       <c r="B127" s="30" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -10256,7 +9807,7 @@
         <v>609</v>
       </c>
       <c r="B128" s="30" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -10264,7 +9815,7 @@
         <v>589</v>
       </c>
       <c r="B129" s="30" t="s">
-        <v>1036</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -10272,7 +9823,7 @@
         <v>591</v>
       </c>
       <c r="B130" s="30" t="s">
-        <v>1037</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -10288,7 +9839,7 @@
         <v>621</v>
       </c>
       <c r="B132" s="30" t="s">
-        <v>1038</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -10296,7 +9847,7 @@
         <v>611</v>
       </c>
       <c r="B133" s="30" t="s">
-        <v>1039</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -10304,7 +9855,7 @@
         <v>639</v>
       </c>
       <c r="B134" s="30" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -10312,7 +9863,7 @@
         <v>615</v>
       </c>
       <c r="B135" s="30" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -10320,7 +9871,7 @@
         <v>613</v>
       </c>
       <c r="B136" s="30" t="s">
-        <v>1040</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -10328,7 +9879,7 @@
         <v>623</v>
       </c>
       <c r="B137" s="30" t="s">
-        <v>1041</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -10336,7 +9887,7 @@
         <v>636</v>
       </c>
       <c r="B138" s="30" t="s">
-        <v>1042</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -10344,7 +9895,7 @@
         <v>711</v>
       </c>
       <c r="B139" s="30" t="s">
-        <v>1043</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -10352,7 +9903,7 @@
         <v>412</v>
       </c>
       <c r="B140" s="30" t="s">
-        <v>1044</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -10360,7 +9911,7 @@
         <v>650</v>
       </c>
       <c r="B141" s="30" t="s">
-        <v>1045</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -10368,7 +9919,7 @@
         <v>646</v>
       </c>
       <c r="B142" s="30" t="s">
-        <v>1046</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -10376,7 +9927,7 @@
         <v>664</v>
       </c>
       <c r="B143" s="30" t="s">
-        <v>1047</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -10384,7 +9935,7 @@
         <v>660</v>
       </c>
       <c r="B144" s="30" t="s">
-        <v>1048</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -10392,7 +9943,7 @@
         <v>655</v>
       </c>
       <c r="B145" s="30" t="s">
-        <v>1049</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -10400,7 +9951,7 @@
         <v>662</v>
       </c>
       <c r="B146" s="30" t="s">
-        <v>1050</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -10408,7 +9959,7 @@
         <v>657</v>
       </c>
       <c r="B147" s="30" t="s">
-        <v>1051</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -10416,7 +9967,7 @@
         <v>644</v>
       </c>
       <c r="B148" s="30" t="s">
-        <v>1052</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -10424,7 +9975,7 @@
         <v>648</v>
       </c>
       <c r="B149" s="30" t="s">
-        <v>1053</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -10432,7 +9983,7 @@
         <v>670</v>
       </c>
       <c r="B150" s="30" t="s">
-        <v>1054</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -10440,7 +9991,7 @@
         <v>668</v>
       </c>
       <c r="B151" s="30" t="s">
-        <v>1055</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -10448,7 +9999,7 @@
         <v>674</v>
       </c>
       <c r="B152" s="30" t="s">
-        <v>1056</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -10456,7 +10007,7 @@
         <v>677</v>
       </c>
       <c r="B153" s="30" t="s">
-        <v>1057</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -10464,7 +10015,7 @@
         <v>684</v>
       </c>
       <c r="B154" s="30" t="s">
-        <v>1058</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -10472,7 +10023,7 @@
         <v>679</v>
       </c>
       <c r="B155" s="30" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -10480,7 +10031,7 @@
         <v>601</v>
       </c>
       <c r="B156" s="30" t="s">
-        <v>1060</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -10488,7 +10039,7 @@
         <v>304</v>
       </c>
       <c r="B157" s="30" t="s">
-        <v>1061</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -10496,7 +10047,7 @@
         <v>333</v>
       </c>
       <c r="B158" s="30" t="s">
-        <v>1062</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -10504,7 +10055,7 @@
         <v>424</v>
       </c>
       <c r="B159" s="30" t="s">
-        <v>1063</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -10512,7 +10063,7 @@
         <v>688</v>
       </c>
       <c r="B160" s="30" t="s">
-        <v>1064</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -10520,7 +10071,7 @@
         <v>625</v>
       </c>
       <c r="B161" s="30" t="s">
-        <v>1044</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -10528,7 +10079,7 @@
         <v>712</v>
       </c>
       <c r="B162" s="30" t="s">
-        <v>1065</v>
+        <v>1057</v>
       </c>
     </row>
   </sheetData>
@@ -10559,26 +10110,26 @@
         <v>4</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>1141</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="70" t="s">
         <v>185</v>
       </c>
       <c r="B2" s="30"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="70" t="s">
         <v>95</v>
       </c>
       <c r="B3" s="30"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="70" t="s">
         <v>186</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="59" t="s">
         <v>283</v>
       </c>
     </row>
@@ -10610,26 +10161,26 @@
         <v>4</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>1066</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="70" t="s">
         <v>185</v>
       </c>
       <c r="B2" s="30"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="70" t="s">
         <v>95</v>
       </c>
       <c r="B3" s="30"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="70" t="s">
         <v>186</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="59" t="s">
         <v>283</v>
       </c>
     </row>
@@ -10893,18 +10444,18 @@
       </c>
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A2" s="59">
+      <c r="A2" s="58">
         <v>1707</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="58" t="s">
         <v>284</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59" t="s">
+      <c r="C2" s="58"/>
+      <c r="D2" s="58" t="s">
         <v>733</v>
       </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10972,7 +10523,7 @@
         <v>164</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="E1" s="27" t="s">
         <v>98</v>
@@ -11096,14 +10647,14 @@
       </c>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A2" s="59">
+      <c r="A2" s="58">
         <v>1006</v>
       </c>
-      <c r="B2" s="59" t="s">
-        <v>940</v>
-      </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59">
+      <c r="B2" s="58" t="s">
+        <v>932</v>
+      </c>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58">
         <v>1</v>
       </c>
       <c r="E2" t="s">
@@ -11123,8 +10674,8 @@
       <c r="A3">
         <v>1003</v>
       </c>
-      <c r="D3" s="111" t="s">
-        <v>1221</v>
+      <c r="D3" s="109" t="s">
+        <v>1188</v>
       </c>
     </row>
   </sheetData>
@@ -11155,14 +10706,14 @@
         <v>4</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>1141</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="B2" s="60"/>
+      <c r="B2" s="59"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11196,10 +10747,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="59" t="s">
         <v>771</v>
       </c>
     </row>
@@ -11255,7 +10806,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>1218</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -11270,8 +10821,8 @@
       <c r="A6" s="30" t="s">
         <v>255</v>
       </c>
-      <c r="B6" s="107" t="s">
-        <v>1390</v>
+      <c r="B6" s="105" t="s">
+        <v>1356</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -11315,11 +10866,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="86" t="s">
         <v>63</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>1141</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -11335,7 +10886,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1141</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -11349,7 +10900,7 @@
         <v>251</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>1219</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -11384,48 +10935,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="80" t="s">
-        <v>1141</v>
+      <c r="B1" s="78" t="s">
+        <v>1130</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="B2" s="86" t="s">
-        <v>1141</v>
+      <c r="B2" s="84" t="s">
+        <v>1130</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="53" t="s">
         <v>211</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="84" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="B4" s="81"/>
+      <c r="B4" s="79"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="53" t="s">
         <v>215</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="80" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="81" t="s">
         <v>216</v>
       </c>
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="82" t="s">
         <v>217</v>
       </c>
     </row>
@@ -11453,11 +11004,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="74" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>1141</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -11482,18 +11033,18 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="73" t="s">
         <v>215</v>
       </c>
-      <c r="B5" s="77" t="s">
-        <v>1391</v>
+      <c r="B5" s="75" t="s">
+        <v>1357</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="73" t="s">
         <v>216</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="75" t="s">
         <v>217</v>
       </c>
     </row>
@@ -13575,50 +13126,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="62" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="73" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="76" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="83" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="53" t="s">
         <v>220</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="75" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="76" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="54" t="s">
         <v>223</v>
       </c>
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="77" t="s">
         <v>224</v>
       </c>
     </row>
@@ -13700,34 +13251,34 @@
       <c r="A2">
         <v>1006</v>
       </c>
-      <c r="C2" s="59" t="s">
-        <v>942</v>
-      </c>
-      <c r="D2" s="59" t="s">
-        <v>942</v>
-      </c>
-      <c r="E2" s="59" t="s">
-        <v>941</v>
-      </c>
-      <c r="F2" s="59" t="s">
-        <v>941</v>
+      <c r="C2" s="58" t="s">
+        <v>934</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>934</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>933</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1003</v>
       </c>
-      <c r="C3" s="59" t="s">
-        <v>1349</v>
-      </c>
-      <c r="D3" s="59" t="s">
-        <v>1349</v>
+      <c r="C3" s="58" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>1315</v>
       </c>
       <c r="E3" t="s">
-        <v>1351</v>
+        <v>1317</v>
       </c>
       <c r="F3" t="s">
-        <v>1350</v>
+        <v>1316</v>
       </c>
     </row>
   </sheetData>
@@ -13761,10 +13312,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="B2" s="59"/>
+      <c r="B2" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13797,10 +13348,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="B2" s="59"/>
+      <c r="B2" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13843,13 +13394,13 @@
       <c r="A3" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="B3" s="59"/>
+      <c r="B3" s="58"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="B4" s="59"/>
+      <c r="B4" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13880,7 +13431,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>1141</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -13893,7 +13444,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1093</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -13911,7 +13462,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>1094</v>
+        <v>1083</v>
       </c>
     </row>
   </sheetData>
@@ -13943,7 +13494,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>1141</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -13956,7 +13507,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1095</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -13974,7 +13525,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>1094</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -14010,7 +13561,7 @@
         <v>191</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>1141</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -14025,7 +13576,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1094</v>
+        <v>1083</v>
       </c>
     </row>
   </sheetData>
@@ -14057,7 +13608,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>1141</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -14065,7 +13616,7 @@
         <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>1363</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -14073,7 +13624,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1096</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -14091,18 +13642,18 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>1393</v>
+        <v>1359</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>1096</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>1094</v>
+        <v>1083</v>
       </c>
       <c r="B7" t="s">
-        <v>1342</v>
+        <v>1309</v>
       </c>
     </row>
   </sheetData>
@@ -14139,16 +13690,16 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="B1" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="C1" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="D1" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="E1" t="s">
         <v>99</v>
@@ -14157,19 +13708,19 @@
         <v>261</v>
       </c>
       <c r="G1" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="H1" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="I1" t="s">
         <v>98</v>
       </c>
       <c r="J1" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="K1" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="L1" t="s">
         <v>103</v>
@@ -14178,19 +13729,19 @@
         <v>262</v>
       </c>
       <c r="N1" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="O1" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="P1" t="s">
         <v>102</v>
       </c>
       <c r="Q1" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="R1" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -14198,28 +13749,28 @@
         <v>1006</v>
       </c>
       <c r="E2" t="s">
-        <v>1097</v>
+        <v>1086</v>
       </c>
       <c r="F2" t="s">
         <v>263</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
+      <c r="G2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
       <c r="K2">
         <v>500</v>
       </c>
       <c r="L2" t="s">
-        <v>1098</v>
+        <v>1087</v>
       </c>
       <c r="M2" t="s">
         <v>264</v>
       </c>
       <c r="O2" t="s">
-        <v>1099</v>
-      </c>
-      <c r="P2" s="59" t="s">
-        <v>1100</v>
+        <v>1088</v>
+      </c>
+      <c r="P2" s="58" t="s">
+        <v>1089</v>
       </c>
     </row>
   </sheetData>
@@ -14233,216 +13784,290 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="50.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="96">
+      <c r="B1" s="94">
         <v>1003</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="94">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1103</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>772</v>
       </c>
       <c r="B3" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1104</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>774</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="58" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>776</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="58" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="58" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>778</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="58" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="58" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
       <c r="B7" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>187</v>
       </c>
       <c r="B8" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>780</v>
       </c>
-      <c r="B9" s="59" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="58" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>782</v>
       </c>
-      <c r="B10" s="59" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="58" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>188</v>
       </c>
       <c r="B11" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>783</v>
       </c>
       <c r="B12" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1105</v>
+      </c>
+      <c r="C12" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>785</v>
       </c>
       <c r="B13" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>189</v>
       </c>
       <c r="B14" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1106</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>788</v>
       </c>
       <c r="B15" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1098</v>
+      </c>
+      <c r="C15" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>769</v>
       </c>
-      <c r="B16" s="95" t="s">
+      <c r="B16" s="93" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="93" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>768</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="58" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="58" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>791</v>
       </c>
       <c r="B18">
         <v>10039919</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>10069905</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>190</v>
       </c>
       <c r="B19" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>793</v>
       </c>
       <c r="B20" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>795</v>
       </c>
       <c r="B21" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1107</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>797</v>
       </c>
       <c r="B22" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>799</v>
       </c>
       <c r="B23" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B24" s="59" t="s">
-        <v>1113</v>
+        <v>1100</v>
+      </c>
+      <c r="B24" s="58" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C24" s="58" t="s">
+        <v>1102</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B16" r:id="rId1"/>
+    <hyperlink ref="C16" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -14752,16 +14377,16 @@
       </c>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="87" t="s">
         <v>274</v>
       </c>
-      <c r="B2" s="89">
+      <c r="B2" s="87">
         <v>1319</v>
       </c>
-      <c r="C2" s="90">
+      <c r="C2" s="88">
         <v>131915</v>
       </c>
-      <c r="D2" s="59">
+      <c r="D2" s="58">
         <v>1319200043</v>
       </c>
       <c r="E2" t="s">
@@ -14805,11 +14430,11 @@
       <c r="A1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="99" t="s">
         <v>282</v>
       </c>
-      <c r="C1" s="101" t="s">
-        <v>870</v>
+      <c r="C1" s="99" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -14833,44 +14458,44 @@
       <c r="A3" t="s">
         <v>743</v>
       </c>
-      <c r="B3" s="59" t="s">
-        <v>875</v>
-      </c>
-      <c r="C3" s="59" t="s">
-        <v>874</v>
+      <c r="B3" s="58" t="s">
+        <v>867</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>772</v>
       </c>
-      <c r="B4" s="59" t="s">
-        <v>873</v>
-      </c>
-      <c r="C4" s="59" t="s">
-        <v>872</v>
+      <c r="B4" s="58" t="s">
+        <v>865</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>188</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="58" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>871</v>
-      </c>
-      <c r="B6" s="59" t="s">
+        <v>863</v>
+      </c>
+      <c r="B6" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="C6" s="59" t="s">
-        <v>870</v>
+      <c r="C6" s="58" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -14889,37 +14514,37 @@
         <v>832</v>
       </c>
       <c r="B8" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="C8" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="95" t="s">
-        <v>868</v>
-      </c>
-      <c r="C9" s="95" t="s">
-        <v>867</v>
+      <c r="B9" s="93" t="s">
+        <v>860</v>
+      </c>
+      <c r="C9" s="93" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>866</v>
-      </c>
-      <c r="B10" s="59" t="s">
+        <v>858</v>
+      </c>
+      <c r="B10" s="58" t="s">
         <v>738</v>
       </c>
-      <c r="C10" s="59" t="s">
-        <v>865</v>
+      <c r="C10" s="58" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="B11" t="s">
         <v>786</v>
@@ -14933,21 +14558,21 @@
         <v>835</v>
       </c>
       <c r="B12" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="C12" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>862</v>
-      </c>
-      <c r="B13" s="59" t="s">
+        <v>854</v>
+      </c>
+      <c r="B13" s="58" t="s">
         <v>796</v>
       </c>
-      <c r="C13" s="59" t="s">
-        <v>861</v>
+      <c r="C13" s="58" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -14993,11 +14618,11 @@
       <c r="A1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="99" t="s">
         <v>282</v>
       </c>
-      <c r="C1" s="101" t="s">
-        <v>870</v>
+      <c r="C1" s="99" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -15021,62 +14646,62 @@
       <c r="A3" t="s">
         <v>743</v>
       </c>
-      <c r="B3" s="59" t="s">
-        <v>875</v>
-      </c>
-      <c r="C3" s="59" t="s">
-        <v>879</v>
+      <c r="B3" s="58" t="s">
+        <v>867</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>744</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59" t="s">
-        <v>878</v>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>772</v>
       </c>
-      <c r="B5" s="59" t="s">
-        <v>873</v>
-      </c>
-      <c r="C5" s="59" t="s">
-        <v>877</v>
+      <c r="B5" s="58" t="s">
+        <v>865</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>745</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59" t="s">
-        <v>876</v>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>188</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="58" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>871</v>
-      </c>
-      <c r="B8" s="59" t="s">
+        <v>863</v>
+      </c>
+      <c r="B8" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="C8" s="59" t="s">
-        <v>870</v>
+      <c r="C8" s="58" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -15095,37 +14720,37 @@
         <v>832</v>
       </c>
       <c r="B10" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="C10" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="95" t="s">
-        <v>868</v>
-      </c>
-      <c r="C11" s="95" t="s">
-        <v>867</v>
+      <c r="B11" s="93" t="s">
+        <v>860</v>
+      </c>
+      <c r="C11" s="93" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>866</v>
-      </c>
-      <c r="B12" s="59" t="s">
+        <v>858</v>
+      </c>
+      <c r="B12" s="58" t="s">
         <v>738</v>
       </c>
-      <c r="C12" s="59" t="s">
-        <v>865</v>
+      <c r="C12" s="58" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="B13" t="s">
         <v>786</v>
@@ -15139,21 +14764,21 @@
         <v>835</v>
       </c>
       <c r="B14" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="C14" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>862</v>
-      </c>
-      <c r="B15" s="59" t="s">
+        <v>854</v>
+      </c>
+      <c r="B15" s="58" t="s">
         <v>796</v>
       </c>
-      <c r="C15" s="59" t="s">
-        <v>861</v>
+      <c r="C15" s="58" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -15198,7 +14823,7 @@
       <c r="A1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="96">
+      <c r="B1" s="94">
         <v>1707</v>
       </c>
     </row>
@@ -15231,15 +14856,15 @@
         <v>745</v>
       </c>
       <c r="B5" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="B6" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -15254,7 +14879,7 @@
       <c r="A8" t="s">
         <v>776</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="58" t="s">
         <v>777</v>
       </c>
     </row>
@@ -15262,7 +14887,7 @@
       <c r="A9" t="s">
         <v>778</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="58" t="s">
         <v>777</v>
       </c>
     </row>
@@ -15286,7 +14911,7 @@
       <c r="A12" t="s">
         <v>780</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="58" t="s">
         <v>781</v>
       </c>
     </row>
@@ -15294,8 +14919,8 @@
       <c r="A13" t="s">
         <v>782</v>
       </c>
-      <c r="B13" s="59" t="s">
-        <v>887</v>
+      <c r="B13" s="58" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -15342,7 +14967,7 @@
       <c r="A19" t="s">
         <v>769</v>
       </c>
-      <c r="B19" s="95" t="s">
+      <c r="B19" s="93" t="s">
         <v>790</v>
       </c>
     </row>
@@ -15350,7 +14975,7 @@
       <c r="A20" t="s">
         <v>768</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="58" t="s">
         <v>806</v>
       </c>
     </row>
@@ -15388,10 +15013,10 @@
     </row>
     <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="B25" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -15472,7 +15097,7 @@
       <c r="A1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="96">
+      <c r="B1" s="94">
         <v>1707</v>
       </c>
     </row>
@@ -15510,15 +15135,15 @@
         <v>757</v>
       </c>
       <c r="B6" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="B7" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -15533,7 +15158,7 @@
       <c r="A9" t="s">
         <v>776</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="58" t="s">
         <v>777</v>
       </c>
     </row>
@@ -15541,7 +15166,7 @@
       <c r="A10" t="s">
         <v>778</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="58" t="s">
         <v>777</v>
       </c>
     </row>
@@ -15565,7 +15190,7 @@
       <c r="A13" t="s">
         <v>780</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="58" t="s">
         <v>781</v>
       </c>
     </row>
@@ -15573,8 +15198,8 @@
       <c r="A14" t="s">
         <v>782</v>
       </c>
-      <c r="B14" s="59" t="s">
-        <v>887</v>
+      <c r="B14" s="58" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -15621,7 +15246,7 @@
       <c r="A20" t="s">
         <v>769</v>
       </c>
-      <c r="B20" s="95" t="s">
+      <c r="B20" s="93" t="s">
         <v>790</v>
       </c>
     </row>
@@ -15629,7 +15254,7 @@
       <c r="A21" t="s">
         <v>768</v>
       </c>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="58" t="s">
         <v>806</v>
       </c>
     </row>
@@ -15667,10 +15292,10 @@
     </row>
     <row r="26" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="B26" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -15748,10 +15373,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="49" t="s">
         <v>282</v>
       </c>
     </row>
@@ -15759,15 +15384,15 @@
       <c r="A2" t="s">
         <v>743</v>
       </c>
-      <c r="B2" s="99" t="s">
-        <v>849</v>
+      <c r="B2" s="97" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="58" t="s">
         <v>285</v>
       </c>
     </row>
@@ -15775,16 +15400,16 @@
       <c r="A4" t="s">
         <v>768</v>
       </c>
-      <c r="B4" s="59" t="s">
-        <v>881</v>
+      <c r="B4" s="58" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>769</v>
       </c>
-      <c r="B5" s="59" t="s">
-        <v>880</v>
+      <c r="B5" s="58" t="s">
+        <v>872</v>
       </c>
     </row>
   </sheetData>
@@ -15811,10 +15436,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="49" t="s">
         <v>282</v>
       </c>
     </row>
@@ -15822,15 +15447,15 @@
       <c r="A2" t="s">
         <v>743</v>
       </c>
-      <c r="B2" s="99" t="s">
-        <v>849</v>
+      <c r="B2" s="97" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="58" t="s">
         <v>285</v>
       </c>
     </row>
@@ -15838,24 +15463,24 @@
       <c r="A4" t="s">
         <v>768</v>
       </c>
-      <c r="B4" s="59" t="s">
-        <v>883</v>
+      <c r="B4" s="58" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>769</v>
       </c>
-      <c r="B5" s="59" t="s">
-        <v>882</v>
+      <c r="B5" s="58" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>744</v>
       </c>
-      <c r="B6" s="97" t="s">
-        <v>850</v>
+      <c r="B6" s="95" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -15863,7 +15488,7 @@
         <v>745</v>
       </c>
       <c r="B7" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
     </row>
   </sheetData>
@@ -15893,7 +15518,7 @@
       <c r="A1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="96">
+      <c r="B1" s="94">
         <v>1707</v>
       </c>
     </row>
@@ -15901,8 +15526,8 @@
       <c r="A2" t="s">
         <v>743</v>
       </c>
-      <c r="B2" s="59" t="s">
-        <v>849</v>
+      <c r="B2" s="58" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -15918,7 +15543,7 @@
         <v>765</v>
       </c>
       <c r="B4" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -15940,8 +15565,8 @@
       <c r="A8" t="s">
         <v>769</v>
       </c>
-      <c r="B8" s="95" t="s">
-        <v>859</v>
+      <c r="B8" s="93" t="s">
+        <v>851</v>
       </c>
     </row>
   </sheetData>
@@ -15958,304 +15583,345 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="43.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="53.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>191</v>
       </c>
       <c r="B1">
         <v>1003</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1103</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>774</v>
       </c>
       <c r="B3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="95" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="93" t="s">
+        <v>850</v>
+      </c>
+      <c r="C4" s="93" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>768</v>
       </c>
       <c r="B5">
         <v>9683254705</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>9683254705</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>188</v>
       </c>
       <c r="B6" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>761</v>
       </c>
       <c r="B7" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>849</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>817</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="58" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="58" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>818</v>
       </c>
       <c r="B9" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1099</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>819</v>
       </c>
-      <c r="B11" s="59" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="58" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>820</v>
       </c>
-      <c r="B12" s="59" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="58" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>821</v>
       </c>
       <c r="B13" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>785</v>
       </c>
       <c r="B14" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>824</v>
       </c>
       <c r="B15" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1106</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>826</v>
       </c>
       <c r="B16" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1110</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>827</v>
       </c>
       <c r="B17" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1111</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>828</v>
       </c>
       <c r="B18" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1108</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>829</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="58" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="58" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>831</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="58" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="58" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>832</v>
       </c>
       <c r="B21" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1098</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1112</v>
+        <v>1101</v>
       </c>
       <c r="B22" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>833</v>
       </c>
       <c r="B23" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>834</v>
       </c>
       <c r="B24" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>835</v>
       </c>
       <c r="B25" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>837</v>
       </c>
       <c r="B26" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>839</v>
       </c>
       <c r="B27">
         <v>3000</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>840</v>
       </c>
       <c r="B28">
         <v>300000</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>841</v>
-      </c>
-      <c r="B29" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>842</v>
-      </c>
-      <c r="B30" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>844</v>
-      </c>
-      <c r="B31" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>845</v>
-      </c>
-      <c r="B32" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>847</v>
-      </c>
-      <c r="B33" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>848</v>
-      </c>
-      <c r="B34" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B35" s="59" t="s">
-        <v>1113</v>
+        <v>1100</v>
+      </c>
+      <c r="B29" s="58" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C29" s="58" t="s">
+        <v>1102</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -16280,7 +15946,7 @@
       <c r="A1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="96">
+      <c r="B1" s="94">
         <v>1707</v>
       </c>
     </row>
@@ -16288,8 +15954,8 @@
       <c r="A2" t="s">
         <v>743</v>
       </c>
-      <c r="B2" s="59" t="s">
-        <v>849</v>
+      <c r="B2" s="58" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -16304,8 +15970,8 @@
       <c r="A4" t="s">
         <v>744</v>
       </c>
-      <c r="B4" s="97" t="s">
-        <v>850</v>
+      <c r="B4" s="95" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -16313,7 +15979,7 @@
         <v>745</v>
       </c>
       <c r="B5" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -16321,7 +15987,7 @@
         <v>765</v>
       </c>
       <c r="B6" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -16343,8 +16009,8 @@
       <c r="A10" t="s">
         <v>769</v>
       </c>
-      <c r="B10" s="95" t="s">
-        <v>855</v>
+      <c r="B10" s="93" t="s">
+        <v>847</v>
       </c>
     </row>
   </sheetData>
@@ -16391,15 +16057,15 @@
         <v>761</v>
       </c>
       <c r="B3" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="95" t="s">
-        <v>892</v>
+      <c r="B4" s="93" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -16414,21 +16080,21 @@
       <c r="A6" t="s">
         <v>820</v>
       </c>
-      <c r="B6" s="59">
+      <c r="B6" s="58">
         <v>84625318710</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>893</v>
-      </c>
-      <c r="B7" s="59">
+        <v>885</v>
+      </c>
+      <c r="B7" s="58">
         <v>84625318710</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="B8" t="s">
         <v>285</v>
@@ -16477,8 +16143,8 @@
       <c r="A3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="95" t="s">
-        <v>895</v>
+      <c r="B3" s="93" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -16491,7 +16157,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="B5" t="s">
         <v>285</v>
@@ -16499,10 +16165,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="B6" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
     </row>
   </sheetData>
@@ -16535,7 +16201,7 @@
       <c r="A1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="96">
+      <c r="B1" s="94">
         <v>1707</v>
       </c>
     </row>
@@ -16543,8 +16209,8 @@
       <c r="A2" t="s">
         <v>743</v>
       </c>
-      <c r="B2" s="59" t="s">
-        <v>849</v>
+      <c r="B2" s="58" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -16582,7 +16248,7 @@
       <c r="A1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="96">
+      <c r="B1" s="94">
         <v>1707</v>
       </c>
     </row>
@@ -16590,8 +16256,8 @@
       <c r="A2" t="s">
         <v>743</v>
       </c>
-      <c r="B2" s="59" t="s">
-        <v>852</v>
+      <c r="B2" s="58" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -16606,8 +16272,8 @@
       <c r="A4" t="s">
         <v>744</v>
       </c>
-      <c r="B4" s="97" t="s">
-        <v>851</v>
+      <c r="B4" s="95" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -16615,7 +16281,7 @@
         <v>745</v>
       </c>
       <c r="B5" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
     </row>
   </sheetData>
@@ -16645,7 +16311,7 @@
       <c r="A1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="96">
+      <c r="B1" s="94">
         <v>1707</v>
       </c>
     </row>
@@ -16653,7 +16319,7 @@
       <c r="A2" t="s">
         <v>743</v>
       </c>
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="97" t="s">
         <v>752</v>
       </c>
     </row>
@@ -16661,7 +16327,7 @@
       <c r="A3" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="58" t="s">
         <v>285</v>
       </c>
     </row>
@@ -16669,7 +16335,7 @@
       <c r="A4" t="s">
         <v>744</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="95" t="s">
         <v>753</v>
       </c>
     </row>
@@ -16705,10 +16371,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="49" t="s">
         <v>282</v>
       </c>
     </row>
@@ -16716,7 +16382,7 @@
       <c r="A2" t="s">
         <v>743</v>
       </c>
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="97" t="s">
         <v>752</v>
       </c>
     </row>
@@ -16724,7 +16390,7 @@
       <c r="A3" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="58" t="s">
         <v>285</v>
       </c>
     </row>
@@ -16755,7 +16421,7 @@
       <c r="A1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="96">
+      <c r="B1" s="94">
         <v>1707</v>
       </c>
     </row>
@@ -16779,7 +16445,7 @@
       <c r="A4" t="s">
         <v>744</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="98" t="s">
         <v>759</v>
       </c>
     </row>
@@ -16818,7 +16484,7 @@
       <c r="A1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="96">
+      <c r="B1" s="94">
         <v>1707</v>
       </c>
     </row>
@@ -16826,7 +16492,7 @@
       <c r="A2" t="s">
         <v>743</v>
       </c>
-      <c r="B2" s="100">
+      <c r="B2" s="98">
         <v>103132</v>
       </c>
     </row>
@@ -16842,7 +16508,7 @@
       <c r="A4" t="s">
         <v>755</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="98" t="s">
         <v>756</v>
       </c>
     </row>
@@ -16905,7 +16571,7 @@
       <c r="A4" t="s">
         <v>761</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="96" t="s">
         <v>762</v>
       </c>
     </row>
@@ -16930,8 +16596,8 @@
   </sheetPr>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16949,7 +16615,9 @@
       <c r="B1" s="2">
         <v>1003</v>
       </c>
-      <c r="C1" s="66"/>
+      <c r="C1" s="2">
+        <v>1006</v>
+      </c>
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -16959,17 +16627,21 @@
       <c r="B2" s="7">
         <v>1003</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="67"/>
+      <c r="C2" s="7">
+        <v>1006</v>
+      </c>
+      <c r="D2" s="65"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>53</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C3" s="7"/>
+        <v>1103</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>1373</v>
+      </c>
       <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -16979,7 +16651,9 @@
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -16987,19 +16661,23 @@
         <v>7</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C5" s="7"/>
+        <v>1112</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>1382</v>
+      </c>
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C6" s="8"/>
+        <v>1113</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>1383</v>
+      </c>
       <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -17009,7 +16687,9 @@
       <c r="B7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -17019,7 +16699,9 @@
       <c r="B8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="32"/>
+      <c r="C8" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -17027,19 +16709,23 @@
         <v>18</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C9" s="7"/>
+        <v>1114</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>1384</v>
+      </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>52</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C10" s="32"/>
+        <v>1115</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>1385</v>
+      </c>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -17049,7 +16735,9 @@
       <c r="B11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>1386</v>
+      </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -17057,9 +16745,11 @@
         <v>16</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C12" s="32"/>
+        <v>1116</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>1387</v>
+      </c>
       <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -17067,9 +16757,11 @@
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C13" s="7"/>
+        <v>1117</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>1388</v>
+      </c>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -17077,9 +16769,11 @@
         <v>57</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C14" s="7"/>
+        <v>1118</v>
+      </c>
+      <c r="C14" s="116" t="s">
+        <v>1389</v>
+      </c>
       <c r="D14" s="32"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -17087,42 +16781,44 @@
         <v>10</v>
       </c>
       <c r="B15" s="9"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="68"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="66"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>1225</v>
-      </c>
-      <c r="C16" s="32"/>
+        <v>1192</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>1390</v>
+      </c>
       <c r="D16" s="32"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17157,7 +16853,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>764</v>
@@ -17167,8 +16863,8 @@
       <c r="A3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="95" t="s">
-        <v>899</v>
+      <c r="B3" s="93" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -17232,7 +16928,7 @@
         <v>761</v>
       </c>
       <c r="B11" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -17313,7 +17009,7 @@
       <c r="A4" t="s">
         <v>748</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="96" t="s">
         <v>749</v>
       </c>
     </row>
@@ -17344,31 +17040,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="104" collapsed="1"/>
+    <col min="1" max="1" width="18" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="102" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="103">
+      <c r="B1" s="101">
         <v>1707</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="104" t="s">
-        <v>915</v>
-      </c>
-      <c r="B2" s="105"/>
+      <c r="A2" s="102" t="s">
+        <v>907</v>
+      </c>
+      <c r="B2" s="103"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="104" t="s">
-        <v>916</v>
-      </c>
-      <c r="B3" s="106" t="s">
-        <v>917</v>
+      <c r="A3" s="102" t="s">
+        <v>908</v>
+      </c>
+      <c r="B3" s="104" t="s">
+        <v>909</v>
       </c>
     </row>
   </sheetData>
@@ -17392,35 +17088,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="103">
+      <c r="B1" s="101">
         <v>1707</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="102" t="s">
         <v>210</v>
       </c>
-      <c r="B2" s="105">
+      <c r="B2" s="103">
         <v>1707</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="104" t="s">
-        <v>916</v>
-      </c>
-      <c r="B3" s="106" t="s">
-        <v>923</v>
+      <c r="A3" s="102" t="s">
+        <v>908</v>
+      </c>
+      <c r="B3" s="104" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>924</v>
-      </c>
-      <c r="B4" s="107" t="s">
-        <v>925</v>
+        <v>916</v>
+      </c>
+      <c r="B4" s="105" t="s">
+        <v>917</v>
       </c>
     </row>
   </sheetData>
@@ -17444,25 +17140,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="103">
+      <c r="B1" s="101">
         <v>1707</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="104" t="s">
-        <v>915</v>
-      </c>
-      <c r="B2" s="105"/>
+      <c r="A2" s="102" t="s">
+        <v>907</v>
+      </c>
+      <c r="B2" s="103"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="104" t="s">
-        <v>916</v>
-      </c>
-      <c r="B3" s="106" t="s">
-        <v>926</v>
+      <c r="A3" s="102" t="s">
+        <v>908</v>
+      </c>
+      <c r="B3" s="104" t="s">
+        <v>918</v>
       </c>
     </row>
   </sheetData>
@@ -17484,31 +17180,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="104" collapsed="1"/>
+    <col min="1" max="1" width="18" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="102" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="103">
+      <c r="B1" s="101">
         <v>1707</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="104" t="s">
-        <v>915</v>
-      </c>
-      <c r="B2" s="105"/>
+      <c r="A2" s="102" t="s">
+        <v>907</v>
+      </c>
+      <c r="B2" s="103"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="104" t="s">
-        <v>916</v>
-      </c>
-      <c r="B3" s="106" t="s">
-        <v>917</v>
+      <c r="A3" s="102" t="s">
+        <v>908</v>
+      </c>
+      <c r="B3" s="104" t="s">
+        <v>909</v>
       </c>
     </row>
   </sheetData>
@@ -17545,16 +17241,16 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="B1" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="C1" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="D1" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="E1" t="s">
         <v>99</v>
@@ -17563,19 +17259,19 @@
         <v>261</v>
       </c>
       <c r="G1" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="H1" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="I1" t="s">
         <v>98</v>
       </c>
       <c r="J1" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="K1" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="L1" t="s">
         <v>103</v>
@@ -17584,19 +17280,19 @@
         <v>262</v>
       </c>
       <c r="N1" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="O1" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="P1" t="s">
         <v>102</v>
       </c>
       <c r="Q1" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="R1" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -17604,33 +17300,33 @@
         <v>1003</v>
       </c>
       <c r="E2" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="F2" t="s">
-        <v>1266</v>
-      </c>
-      <c r="G2" s="59"/>
+        <v>1233</v>
+      </c>
+      <c r="G2" s="58"/>
       <c r="H2" t="s">
-        <v>1268</v>
-      </c>
-      <c r="I2" s="59" t="s">
-        <v>1100</v>
-      </c>
-      <c r="J2" s="59"/>
+        <v>1235</v>
+      </c>
+      <c r="I2" s="58" t="s">
+        <v>1089</v>
+      </c>
+      <c r="J2" s="58"/>
       <c r="K2">
         <v>500</v>
       </c>
       <c r="L2" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="M2" t="s">
         <v>264</v>
       </c>
       <c r="O2" t="s">
-        <v>1272</v>
-      </c>
-      <c r="P2" s="59" t="s">
-        <v>1267</v>
+        <v>1239</v>
+      </c>
+      <c r="P2" s="58" t="s">
+        <v>1234</v>
       </c>
       <c r="Q2">
         <v>500</v>
@@ -17653,11 +17349,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
-        <v>902</v>
-      </c>
-      <c r="B1" s="103" t="s">
-        <v>1371</v>
+      <c r="A1" s="100" t="s">
+        <v>894</v>
+      </c>
+      <c r="B1" s="101" t="s">
+        <v>1337</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -17689,88 +17385,88 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>1273</v>
+        <v>1240</v>
       </c>
       <c r="C1" t="s">
-        <v>1274</v>
+        <v>1241</v>
       </c>
       <c r="D1" t="s">
-        <v>1275</v>
+        <v>1242</v>
       </c>
       <c r="E1" t="s">
-        <v>1276</v>
+        <v>1243</v>
       </c>
       <c r="F1" t="s">
-        <v>1277</v>
+        <v>1244</v>
       </c>
       <c r="G1" t="s">
-        <v>1278</v>
+        <v>1245</v>
       </c>
       <c r="H1" t="s">
-        <v>1279</v>
+        <v>1246</v>
       </c>
       <c r="I1" t="s">
-        <v>1280</v>
+        <v>1247</v>
       </c>
       <c r="J1" t="s">
-        <v>1281</v>
+        <v>1248</v>
       </c>
       <c r="K1" t="s">
-        <v>1282</v>
+        <v>1249</v>
       </c>
       <c r="L1" t="s">
-        <v>1283</v>
+        <v>1250</v>
       </c>
       <c r="M1" t="s">
-        <v>1284</v>
+        <v>1251</v>
       </c>
       <c r="N1" t="s">
-        <v>1285</v>
+        <v>1252</v>
       </c>
       <c r="O1" t="s">
-        <v>1286</v>
+        <v>1253</v>
       </c>
       <c r="P1" t="s">
-        <v>1287</v>
+        <v>1254</v>
       </c>
       <c r="Q1" t="s">
-        <v>1288</v>
+        <v>1255</v>
       </c>
       <c r="R1" t="s">
-        <v>1289</v>
+        <v>1256</v>
       </c>
       <c r="S1" t="s">
-        <v>1290</v>
+        <v>1257</v>
       </c>
       <c r="T1" t="s">
-        <v>1291</v>
+        <v>1258</v>
       </c>
       <c r="U1" t="s">
         <v>261</v>
       </c>
       <c r="V1" t="s">
-        <v>1292</v>
+        <v>1259</v>
       </c>
       <c r="W1" t="s">
-        <v>1293</v>
+        <v>1260</v>
       </c>
       <c r="X1" t="s">
         <v>99</v>
       </c>
       <c r="Y1" t="s">
-        <v>1294</v>
+        <v>1261</v>
       </c>
       <c r="Z1" t="s">
-        <v>1295</v>
+        <v>1262</v>
       </c>
       <c r="AA1" t="s">
-        <v>1296</v>
+        <v>1263</v>
       </c>
       <c r="AB1" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="AC1" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -17780,91 +17476,91 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1141</v>
+        <v>1130</v>
       </c>
       <c r="B3" t="s">
-        <v>1377</v>
+        <v>1343</v>
       </c>
       <c r="C3" t="s">
-        <v>1372</v>
+        <v>1338</v>
       </c>
       <c r="D3" t="s">
-        <v>1079</v>
+        <v>1071</v>
       </c>
       <c r="E3" t="s">
-        <v>1373</v>
+        <v>1339</v>
       </c>
       <c r="F3" t="s">
-        <v>1374</v>
+        <v>1340</v>
       </c>
       <c r="G3" t="s">
-        <v>1375</v>
+        <v>1341</v>
       </c>
       <c r="H3" t="s">
-        <v>1378</v>
+        <v>1344</v>
       </c>
       <c r="I3" t="s">
-        <v>1373</v>
+        <v>1339</v>
       </c>
       <c r="J3" t="s">
-        <v>1266</v>
+        <v>1233</v>
       </c>
       <c r="K3" t="s">
-        <v>1149</v>
+        <v>1138</v>
       </c>
       <c r="L3" t="s">
         <v>823</v>
       </c>
       <c r="M3" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="N3" t="s">
-        <v>1123</v>
+        <v>1112</v>
       </c>
       <c r="O3" t="s">
-        <v>1125</v>
+        <v>1114</v>
       </c>
       <c r="P3" t="s">
         <v>8</v>
       </c>
       <c r="Q3" t="s">
-        <v>1152</v>
+        <v>1141</v>
       </c>
       <c r="R3" t="s">
-        <v>1376</v>
+        <v>1342</v>
       </c>
       <c r="S3" t="s">
-        <v>1378</v>
+        <v>1344</v>
       </c>
       <c r="T3" t="s">
-        <v>1373</v>
+        <v>1339</v>
       </c>
       <c r="U3" t="s">
         <v>264</v>
       </c>
       <c r="V3" t="s">
-        <v>1272</v>
+        <v>1239</v>
       </c>
       <c r="W3" t="s">
-        <v>1379</v>
+        <v>1345</v>
       </c>
       <c r="X3" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="Y3" t="s">
-        <v>1123</v>
+        <v>1112</v>
       </c>
       <c r="Z3" t="s">
-        <v>1125</v>
+        <v>1114</v>
       </c>
       <c r="AA3" t="s">
         <v>8</v>
       </c>
       <c r="AB3" t="s">
-        <v>1376</v>
+        <v>1342</v>
       </c>
       <c r="AC3" t="s">
-        <v>1152</v>
+        <v>1141</v>
       </c>
     </row>
   </sheetData>
@@ -17895,22 +17591,22 @@
         <v>4</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>1066</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="60" t="s">
-        <v>1070</v>
+      <c r="B2" s="59" t="s">
+        <v>1062</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>927</v>
-      </c>
-      <c r="B3" s="60" t="s">
+        <v>919</v>
+      </c>
+      <c r="B3" s="59" t="s">
         <v>248</v>
       </c>
     </row>
@@ -17927,14 +17623,14 @@
   </sheetPr>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="49" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.5703125" style="49" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="30.140625" style="48" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" style="48" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="26.85546875" style="30" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
@@ -17946,7 +17642,9 @@
       <c r="B1" s="2">
         <v>1003</v>
       </c>
-      <c r="C1" s="31"/>
+      <c r="C1" s="2">
+        <v>1006</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
@@ -17955,23 +17653,27 @@
       <c r="B2" s="7">
         <v>1003</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="7">
+        <v>1006</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
         <v>53</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C3" s="15"/>
+        <v>1103</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>1373</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
         <v>162</v>
       </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="15"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
@@ -17980,34 +17682,42 @@
       <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="15"/>
+      <c r="C5" s="7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C6" s="15"/>
+        <v>1112</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>1382</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
         <v>54</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C7" s="44"/>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>1113</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
         <v>55</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="45"/>
+      <c r="C8" s="8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="43" t="s">
@@ -18016,25 +17726,31 @@
       <c r="B9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="45"/>
+      <c r="C9" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C10" s="15"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="45" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C11" s="44"/>
+        <v>1115</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>1385</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
@@ -18043,55 +17759,66 @@
       <c r="B12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="15"/>
+      <c r="C12" s="7" t="s">
+        <v>1386</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="45" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C13" s="44"/>
+        <v>1116</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>1387</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="42" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C14" s="15"/>
+        <v>1117</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>1388</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
         <v>57</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C15" s="15"/>
+        <v>1118</v>
+      </c>
+      <c r="C15" s="116" t="s">
+        <v>1389</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="47" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C16" s="47"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="46" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="B17" s="110" t="s">
-        <v>1343</v>
-      </c>
-      <c r="C17" s="48"/>
+      <c r="B17" s="108" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>1391</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="48"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18118,7 +17845,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>1066</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -18126,7 +17853,7 @@
         <v>193</v>
       </c>
       <c r="B2" t="s">
-        <v>1067</v>
+        <v>1059</v>
       </c>
     </row>
   </sheetData>
@@ -18311,10 +18038,10 @@
       </c>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A2" s="108">
+      <c r="A2" s="106">
         <v>1008</v>
       </c>
-      <c r="B2" s="59">
+      <c r="B2" s="58">
         <v>100823630</v>
       </c>
     </row>
@@ -18350,35 +18077,35 @@
       <c r="A1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="60" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C1" s="60" t="s">
-        <v>1228</v>
-      </c>
-      <c r="D1" s="60" t="s">
-        <v>1229</v>
-      </c>
-      <c r="E1" s="60" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F1" s="60" t="s">
-        <v>1231</v>
-      </c>
-      <c r="G1" s="60" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H1" s="60" t="s">
-        <v>1233</v>
-      </c>
-      <c r="I1" s="60" t="s">
-        <v>1234</v>
+      <c r="B1" s="59" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D1" s="59" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E1" s="59" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F1" s="59" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G1" s="59" t="s">
+        <v>1199</v>
+      </c>
+      <c r="H1" s="59" t="s">
+        <v>1200</v>
+      </c>
+      <c r="I1" s="59" t="s">
+        <v>1201</v>
       </c>
       <c r="J1" s="29" t="s">
         <v>164</v>
       </c>
       <c r="K1" t="s">
-        <v>1068</v>
+        <v>1060</v>
       </c>
       <c r="L1" t="s">
         <v>99</v>
@@ -18390,22 +18117,22 @@
         <v>172</v>
       </c>
       <c r="O1" t="s">
-        <v>1145</v>
+        <v>1134</v>
       </c>
       <c r="P1" t="s">
-        <v>1146</v>
+        <v>1135</v>
       </c>
       <c r="Q1" t="s">
-        <v>1148</v>
+        <v>1137</v>
       </c>
       <c r="R1" t="s">
-        <v>1150</v>
+        <v>1139</v>
       </c>
       <c r="S1" t="s">
-        <v>1151</v>
+        <v>1140</v>
       </c>
       <c r="T1" t="s">
-        <v>1153</v>
+        <v>1142</v>
       </c>
       <c r="U1" t="s">
         <v>103</v>
@@ -18417,22 +18144,22 @@
         <v>173</v>
       </c>
       <c r="X1" t="s">
-        <v>1157</v>
+        <v>1144</v>
       </c>
       <c r="Y1" t="s">
-        <v>1159</v>
+        <v>1146</v>
       </c>
       <c r="Z1" t="s">
-        <v>1160</v>
+        <v>1147</v>
       </c>
       <c r="AA1" t="s">
-        <v>1161</v>
+        <v>1148</v>
       </c>
       <c r="AB1" t="s">
-        <v>1163</v>
+        <v>1150</v>
       </c>
       <c r="AC1" t="s">
-        <v>1164</v>
+        <v>1151</v>
       </c>
       <c r="AD1" t="s">
         <v>107</v>
@@ -18444,22 +18171,22 @@
         <v>174</v>
       </c>
       <c r="AG1" t="s">
-        <v>1169</v>
+        <v>1153</v>
       </c>
       <c r="AH1" t="s">
-        <v>1171</v>
+        <v>1155</v>
       </c>
       <c r="AI1" t="s">
-        <v>1172</v>
+        <v>1156</v>
       </c>
       <c r="AJ1" t="s">
-        <v>1173</v>
+        <v>1157</v>
       </c>
       <c r="AK1" t="s">
-        <v>1175</v>
+        <v>1159</v>
       </c>
       <c r="AL1" t="s">
-        <v>1176</v>
+        <v>1160</v>
       </c>
       <c r="AM1" t="s">
         <v>111</v>
@@ -18471,22 +18198,22 @@
         <v>175</v>
       </c>
       <c r="AP1" t="s">
-        <v>1181</v>
+        <v>1161</v>
       </c>
       <c r="AQ1" t="s">
-        <v>1183</v>
+        <v>1162</v>
       </c>
       <c r="AR1" t="s">
-        <v>1184</v>
+        <v>1163</v>
       </c>
       <c r="AS1" t="s">
-        <v>1185</v>
+        <v>1164</v>
       </c>
       <c r="AT1" t="s">
-        <v>1187</v>
+        <v>1165</v>
       </c>
       <c r="AU1" t="s">
-        <v>1188</v>
+        <v>1166</v>
       </c>
       <c r="AV1" t="s">
         <v>115</v>
@@ -18498,146 +18225,146 @@
         <v>176</v>
       </c>
       <c r="AY1" t="s">
-        <v>1190</v>
+        <v>1167</v>
       </c>
       <c r="AZ1" t="s">
-        <v>1191</v>
+        <v>1168</v>
       </c>
       <c r="BA1" t="s">
-        <v>1192</v>
+        <v>1169</v>
       </c>
       <c r="BB1" t="s">
-        <v>1193</v>
+        <v>1170</v>
       </c>
       <c r="BC1" t="s">
-        <v>1194</v>
+        <v>1171</v>
       </c>
       <c r="BD1" t="s">
-        <v>1195</v>
+        <v>1172</v>
       </c>
       <c r="BE1" t="s">
-        <v>1248</v>
+        <v>1215</v>
       </c>
       <c r="BF1" t="s">
-        <v>1249</v>
+        <v>1216</v>
       </c>
       <c r="BG1" t="s">
         <v>190</v>
       </c>
       <c r="BH1" t="s">
-        <v>1359</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="2" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
-        <v>1141</v>
-      </c>
-      <c r="B2" s="60" t="s">
-        <v>1354</v>
-      </c>
-      <c r="C2" s="60" t="s">
-        <v>1355</v>
-      </c>
-      <c r="D2" s="60" t="s">
-        <v>1356</v>
-      </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="K2" s="59" t="s">
-        <v>1212</v>
+      <c r="A2" s="59" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="K2" s="58" t="s">
+        <v>1179</v>
       </c>
       <c r="L2" t="s">
-        <v>1134</v>
+        <v>1123</v>
       </c>
       <c r="M2" t="s">
-        <v>1364</v>
+        <v>1330</v>
       </c>
       <c r="N2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="R2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="S2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="T2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="U2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="V2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="W2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="X2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="Z2" t="s">
         <v>1158</v>
       </c>
-      <c r="O2" t="s">
-        <v>1158</v>
-      </c>
-      <c r="P2" t="s">
-        <v>1365</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>1162</v>
-      </c>
-      <c r="R2" t="s">
-        <v>1147</v>
-      </c>
-      <c r="S2" t="s">
-        <v>1149</v>
-      </c>
-      <c r="T2" t="s">
-        <v>1366</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="AA2" t="s">
         <v>1136</v>
       </c>
-      <c r="V2" t="s">
-        <v>1364</v>
-      </c>
-      <c r="W2" t="s">
-        <v>1170</v>
-      </c>
-      <c r="X2" t="s">
-        <v>1170</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>1365</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>1174</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>1147</v>
-      </c>
       <c r="AB2" t="s">
-        <v>1149</v>
+        <v>1138</v>
       </c>
       <c r="AC2" t="s">
-        <v>1366</v>
+        <v>1332</v>
       </c>
       <c r="AD2" t="s">
-        <v>1132</v>
+        <v>1121</v>
       </c>
       <c r="AE2" t="s">
-        <v>1364</v>
+        <v>1330</v>
       </c>
       <c r="AF2" t="s">
-        <v>1200</v>
+        <v>1173</v>
       </c>
       <c r="AG2" t="s">
-        <v>1200</v>
+        <v>1173</v>
       </c>
       <c r="AH2" t="s">
-        <v>1365</v>
+        <v>1331</v>
       </c>
       <c r="AI2" t="s">
-        <v>1367</v>
+        <v>1333</v>
       </c>
       <c r="AJ2" t="s">
-        <v>1147</v>
+        <v>1136</v>
       </c>
       <c r="AK2" t="s">
-        <v>1149</v>
+        <v>1138</v>
       </c>
       <c r="AL2" t="s">
-        <v>1366</v>
+        <v>1332</v>
       </c>
       <c r="BE2" t="s">
-        <v>1358</v>
+        <v>1324</v>
       </c>
       <c r="BG2" t="s">
         <v>836</v>
       </c>
       <c r="BH2" t="s">
-        <v>1360</v>
+        <v>1326</v>
       </c>
     </row>
   </sheetData>
@@ -18666,7 +18393,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>1066</v>
+        <v>1058</v>
       </c>
       <c r="C1">
         <v>1006</v>
@@ -18676,19 +18403,19 @@
       <c r="A2" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="60" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C2" s="59" t="s">
-        <v>1086</v>
+      <c r="B2" s="59" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>1078</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>1068</v>
+        <v>1060</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1069</v>
+        <v>1061</v>
       </c>
       <c r="C3">
         <v>10069905</v>
@@ -18728,22 +18455,22 @@
         <v>172</v>
       </c>
       <c r="E1" t="s">
-        <v>1145</v>
+        <v>1134</v>
       </c>
       <c r="F1" t="s">
-        <v>1146</v>
+        <v>1135</v>
       </c>
       <c r="G1" t="s">
-        <v>1148</v>
+        <v>1137</v>
       </c>
       <c r="H1" t="s">
-        <v>1150</v>
+        <v>1139</v>
       </c>
       <c r="I1" t="s">
-        <v>1151</v>
+        <v>1140</v>
       </c>
       <c r="J1" t="s">
-        <v>1153</v>
+        <v>1142</v>
       </c>
       <c r="K1" t="s">
         <v>103</v>
@@ -18755,22 +18482,22 @@
         <v>173</v>
       </c>
       <c r="N1" t="s">
-        <v>1157</v>
+        <v>1144</v>
       </c>
       <c r="O1" t="s">
-        <v>1159</v>
+        <v>1146</v>
       </c>
       <c r="P1" t="s">
-        <v>1160</v>
+        <v>1147</v>
       </c>
       <c r="Q1" t="s">
-        <v>1161</v>
+        <v>1148</v>
       </c>
       <c r="R1" t="s">
-        <v>1163</v>
+        <v>1150</v>
       </c>
       <c r="S1" t="s">
-        <v>1164</v>
+        <v>1151</v>
       </c>
       <c r="T1" t="s">
         <v>107</v>
@@ -18782,22 +18509,22 @@
         <v>174</v>
       </c>
       <c r="W1" t="s">
-        <v>1169</v>
+        <v>1153</v>
       </c>
       <c r="X1" t="s">
-        <v>1171</v>
+        <v>1155</v>
       </c>
       <c r="Y1" t="s">
-        <v>1172</v>
+        <v>1156</v>
       </c>
       <c r="Z1" t="s">
-        <v>1173</v>
+        <v>1157</v>
       </c>
       <c r="AA1" t="s">
-        <v>1175</v>
+        <v>1159</v>
       </c>
       <c r="AB1" t="s">
-        <v>1176</v>
+        <v>1160</v>
       </c>
       <c r="AC1" t="s">
         <v>111</v>
@@ -18809,22 +18536,22 @@
         <v>175</v>
       </c>
       <c r="AF1" t="s">
-        <v>1181</v>
+        <v>1161</v>
       </c>
       <c r="AG1" t="s">
-        <v>1183</v>
+        <v>1162</v>
       </c>
       <c r="AH1" t="s">
-        <v>1184</v>
+        <v>1163</v>
       </c>
       <c r="AI1" t="s">
-        <v>1185</v>
+        <v>1164</v>
       </c>
       <c r="AJ1" t="s">
-        <v>1187</v>
+        <v>1165</v>
       </c>
       <c r="AK1" t="s">
-        <v>1188</v>
+        <v>1166</v>
       </c>
       <c r="AL1" t="s">
         <v>115</v>
@@ -18836,28 +18563,28 @@
         <v>176</v>
       </c>
       <c r="AO1" t="s">
-        <v>1190</v>
+        <v>1167</v>
       </c>
       <c r="AP1" t="s">
-        <v>1191</v>
+        <v>1168</v>
       </c>
       <c r="AQ1" t="s">
-        <v>1192</v>
+        <v>1169</v>
       </c>
       <c r="AR1" t="s">
-        <v>1193</v>
+        <v>1170</v>
       </c>
       <c r="AS1" t="s">
-        <v>1194</v>
+        <v>1171</v>
       </c>
       <c r="AT1" t="s">
-        <v>1195</v>
+        <v>1172</v>
       </c>
       <c r="AU1" t="s">
-        <v>1248</v>
+        <v>1215</v>
       </c>
       <c r="AV1" t="s">
-        <v>1249</v>
+        <v>1216</v>
       </c>
       <c r="AW1" t="s">
         <v>190</v>
@@ -18865,133 +18592,133 @@
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>1313</v>
+        <v>1280</v>
       </c>
       <c r="B2" t="s">
-        <v>1314</v>
-      </c>
-      <c r="H2" s="59" t="s">
+        <v>1281</v>
+      </c>
+      <c r="H2" s="58" t="s">
+        <v>1141</v>
+      </c>
+      <c r="I2" s="58" t="s">
+        <v>1141</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="L2" s="58" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M2" s="113" t="s">
+        <v>1284</v>
+      </c>
+      <c r="N2" s="113" t="s">
+        <v>1285</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="Q2" s="58" t="s">
+        <v>1141</v>
+      </c>
+      <c r="R2" s="58" t="s">
+        <v>1141</v>
+      </c>
+      <c r="S2" s="113" t="s">
+        <v>1285</v>
+      </c>
+      <c r="T2" t="s">
+        <v>1287</v>
+      </c>
+      <c r="U2" s="58" t="s">
+        <v>1288</v>
+      </c>
+      <c r="V2" s="58" t="s">
+        <v>1289</v>
+      </c>
+      <c r="W2" s="58" t="s">
+        <v>1290</v>
+      </c>
+      <c r="X2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="Z2" s="58" t="s">
+        <v>1141</v>
+      </c>
+      <c r="AA2" s="58" t="s">
+        <v>1141</v>
+      </c>
+      <c r="AB2" s="58" t="s">
+        <v>1290</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>1291</v>
+      </c>
+      <c r="AD2" s="58" t="s">
         <v>1152</v>
       </c>
-      <c r="I2" s="59" t="s">
-        <v>1152</v>
-      </c>
-      <c r="K2" t="s">
-        <v>1315</v>
-      </c>
-      <c r="L2" s="59" t="s">
-        <v>1316</v>
-      </c>
-      <c r="M2" s="115" t="s">
-        <v>1317</v>
-      </c>
-      <c r="N2" s="115" t="s">
-        <v>1318</v>
-      </c>
-      <c r="O2" t="s">
-        <v>1319</v>
-      </c>
-      <c r="P2" t="s">
-        <v>1149</v>
-      </c>
-      <c r="Q2" s="59" t="s">
-        <v>1152</v>
-      </c>
-      <c r="R2" s="59" t="s">
-        <v>1152</v>
-      </c>
-      <c r="S2" s="115" t="s">
-        <v>1318</v>
-      </c>
-      <c r="T2" t="s">
-        <v>1320</v>
-      </c>
-      <c r="U2" s="59" t="s">
-        <v>1321</v>
-      </c>
-      <c r="V2" s="59" t="s">
-        <v>1322</v>
-      </c>
-      <c r="W2" s="59" t="s">
-        <v>1323</v>
-      </c>
-      <c r="X2" t="s">
-        <v>1319</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>1149</v>
-      </c>
-      <c r="Z2" s="59" t="s">
-        <v>1152</v>
-      </c>
-      <c r="AA2" s="59" t="s">
-        <v>1152</v>
-      </c>
-      <c r="AB2" s="59" t="s">
-        <v>1323</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>1324</v>
-      </c>
-      <c r="AD2" s="59" t="s">
-        <v>1167</v>
-      </c>
-      <c r="AE2" s="59" t="s">
-        <v>1325</v>
-      </c>
-      <c r="AF2" s="59" t="s">
-        <v>1326</v>
+      <c r="AE2" s="58" t="s">
+        <v>1292</v>
+      </c>
+      <c r="AF2" s="58" t="s">
+        <v>1293</v>
       </c>
       <c r="AG2" t="s">
-        <v>1319</v>
+        <v>1286</v>
       </c>
       <c r="AH2" t="s">
-        <v>1149</v>
-      </c>
-      <c r="AI2" s="59" t="s">
-        <v>1152</v>
-      </c>
-      <c r="AJ2" s="59" t="s">
-        <v>1152</v>
-      </c>
-      <c r="AK2" s="59" t="s">
-        <v>1326</v>
-      </c>
-      <c r="AL2" s="59" t="s">
-        <v>1327</v>
-      </c>
-      <c r="AM2" s="59" t="s">
-        <v>1155</v>
-      </c>
-      <c r="AN2" s="59" t="s">
-        <v>1328</v>
-      </c>
-      <c r="AO2" s="59" t="s">
-        <v>1329</v>
+        <v>1138</v>
+      </c>
+      <c r="AI2" s="58" t="s">
+        <v>1141</v>
+      </c>
+      <c r="AJ2" s="58" t="s">
+        <v>1141</v>
+      </c>
+      <c r="AK2" s="58" t="s">
+        <v>1293</v>
+      </c>
+      <c r="AL2" s="58" t="s">
+        <v>1294</v>
+      </c>
+      <c r="AM2" s="58" t="s">
+        <v>1143</v>
+      </c>
+      <c r="AN2" s="58" t="s">
+        <v>1295</v>
+      </c>
+      <c r="AO2" s="58" t="s">
+        <v>1296</v>
       </c>
       <c r="AP2" t="s">
-        <v>1319</v>
+        <v>1286</v>
       </c>
       <c r="AQ2" t="s">
-        <v>1149</v>
-      </c>
-      <c r="AR2" s="59" t="s">
-        <v>1152</v>
-      </c>
-      <c r="AS2" s="59" t="s">
-        <v>1152</v>
-      </c>
-      <c r="AT2" s="59" t="s">
-        <v>1329</v>
-      </c>
-      <c r="AU2" s="59" t="s">
-        <v>1330</v>
-      </c>
-      <c r="AV2" s="59" t="s">
-        <v>1330</v>
+        <v>1138</v>
+      </c>
+      <c r="AR2" s="58" t="s">
+        <v>1141</v>
+      </c>
+      <c r="AS2" s="58" t="s">
+        <v>1141</v>
+      </c>
+      <c r="AT2" s="58" t="s">
+        <v>1296</v>
+      </c>
+      <c r="AU2" s="58" t="s">
+        <v>1297</v>
+      </c>
+      <c r="AV2" s="58" t="s">
+        <v>1297</v>
       </c>
       <c r="AW2" t="s">
-        <v>1250</v>
+        <v>1217</v>
       </c>
     </row>
   </sheetData>
@@ -19010,16 +18737,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="104" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="8.7109375" style="104" collapsed="1"/>
+    <col min="1" max="1" width="17.5703125" style="102" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.28515625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="8.7109375" style="102" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="114">
+      <c r="B1" s="112">
         <v>1003</v>
       </c>
       <c r="C1"/>
@@ -19029,11 +18756,11 @@
       <c r="G1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="102" t="s">
         <v>171</v>
       </c>
       <c r="B2" t="s">
-        <v>1341</v>
+        <v>1308</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -19042,11 +18769,11 @@
       <c r="G2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="104" t="s">
-        <v>1297</v>
-      </c>
-      <c r="B3" s="106" t="s">
-        <v>1373</v>
+      <c r="A3" s="102" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B3" s="104" t="s">
+        <v>1339</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -19058,8 +18785,8 @@
       <c r="A4" s="30" t="s">
         <v>736</v>
       </c>
-      <c r="B4" s="116" t="s">
-        <v>1351</v>
+      <c r="B4" s="114" t="s">
+        <v>1317</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -19068,11 +18795,11 @@
       <c r="G4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
-        <v>1298</v>
-      </c>
-      <c r="B5" s="116" t="s">
-        <v>1352</v>
+      <c r="A5" s="102" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B5" s="114" t="s">
+        <v>1318</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -19081,11 +18808,11 @@
       <c r="G5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="104" t="s">
-        <v>1299</v>
-      </c>
-      <c r="B6" s="115" t="s">
-        <v>1308</v>
+      <c r="A6" s="102" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B6" s="113" t="s">
+        <v>1275</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -19094,18 +18821,18 @@
       <c r="G6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="104" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B7" s="116" t="s">
-        <v>1305</v>
+      <c r="A7" s="102" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B7" s="114" t="s">
+        <v>1272</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="104" t="s">
-        <v>1301</v>
-      </c>
-      <c r="B8" s="116" t="s">
+      <c r="A8" s="102" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B8" s="114" t="s">
         <v>838</v>
       </c>
     </row>
@@ -19116,8 +18843,8 @@
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
-      <c r="G13" s="104" t="s">
-        <v>1302</v>
+      <c r="G13" s="102" t="s">
+        <v>1269</v>
       </c>
     </row>
   </sheetData>
@@ -19136,81 +18863,81 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="104" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="8.7109375" style="104" collapsed="1"/>
+    <col min="1" max="1" width="17.5703125" style="102" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.28515625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="8.7109375" style="102" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="114">
+      <c r="B1" s="112">
         <v>1003</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="102" t="s">
         <v>171</v>
       </c>
       <c r="B2" t="s">
-        <v>1341</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="104" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B3" s="116" t="s">
-        <v>1305</v>
+      <c r="A3" s="102" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B3" s="114" t="s">
+        <v>1272</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
-        <v>1301</v>
-      </c>
-      <c r="B4" s="116" t="s">
+      <c r="A4" s="102" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B4" s="114" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
-        <v>1303</v>
-      </c>
-      <c r="B5" s="106" t="s">
-        <v>1373</v>
+      <c r="A5" s="102" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B5" s="104" t="s">
+        <v>1339</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="102" t="s">
         <v>257</v>
       </c>
-      <c r="B6" s="116" t="s">
-        <v>1309</v>
+      <c r="B6" s="114" t="s">
+        <v>1276</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>736</v>
       </c>
-      <c r="B7" s="116" t="s">
-        <v>1351</v>
+      <c r="B7" s="114" t="s">
+        <v>1317</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="104" t="s">
-        <v>1304</v>
-      </c>
-      <c r="B8" s="116" t="s">
-        <v>1352</v>
+      <c r="A8" s="102" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B8" s="114" t="s">
+        <v>1318</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="104" t="s">
-        <v>1299</v>
-      </c>
-      <c r="B9" s="115" t="s">
-        <v>1308</v>
+      <c r="A9" s="102" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B9" s="113" t="s">
+        <v>1275</v>
       </c>
     </row>
   </sheetData>
@@ -19229,89 +18956,89 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="104" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.140625" style="104" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="8.7109375" style="104" collapsed="1"/>
+    <col min="1" max="1" width="22.7109375" style="102" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.140625" style="102" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="8.7109375" style="102" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="117">
+      <c r="B1" s="115">
         <v>1003</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="102" t="s">
         <v>171</v>
       </c>
       <c r="B2" t="s">
-        <v>1341</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="104" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B3" s="116" t="s">
-        <v>1305</v>
+      <c r="A3" s="102" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B3" s="114" t="s">
+        <v>1272</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
-        <v>1301</v>
-      </c>
-      <c r="B4" s="116" t="s">
+      <c r="A4" s="102" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B4" s="114" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
-        <v>1306</v>
-      </c>
-      <c r="B5" s="116" t="s">
-        <v>1380</v>
+      <c r="A5" s="102" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B5" s="114" t="s">
+        <v>1346</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="104" t="s">
-        <v>1297</v>
-      </c>
-      <c r="B6" s="106" t="s">
-        <v>1373</v>
+      <c r="A6" s="102" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B6" s="104" t="s">
+        <v>1339</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>736</v>
       </c>
-      <c r="B7" s="116" t="s">
-        <v>1351</v>
+      <c r="B7" s="114" t="s">
+        <v>1317</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="104" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B8" s="116" t="s">
-        <v>1352</v>
+      <c r="A8" s="102" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B8" s="114" t="s">
+        <v>1318</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="102" t="s">
         <v>257</v>
       </c>
-      <c r="B9" s="116" t="s">
-        <v>1309</v>
+      <c r="B9" s="114" t="s">
+        <v>1276</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="104" t="s">
+      <c r="A10" s="102" t="s">
         <v>216</v>
       </c>
-      <c r="B10" s="115" t="s">
-        <v>1308</v>
+      <c r="B10" s="113" t="s">
+        <v>1275</v>
       </c>
     </row>
   </sheetData>
@@ -19350,23 +19077,23 @@
       </c>
       <c r="D1" s="26"/>
       <c r="E1" s="31"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="C2" t="s">
-        <v>1395</v>
+        <v>1361</v>
       </c>
       <c r="E2" s="38"/>
       <c r="F2" s="38"/>
@@ -19382,10 +19109,10 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="C3" t="s">
-        <v>1396</v>
+        <v>1362</v>
       </c>
       <c r="E3" s="38"/>
       <c r="F3" s="38"/>
@@ -19401,10 +19128,10 @@
         <v>154</v>
       </c>
       <c r="B4" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="C4" t="s">
-        <v>1397</v>
+        <v>1363</v>
       </c>
       <c r="E4" s="38"/>
       <c r="F4" s="38"/>
@@ -19420,10 +19147,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="C5" t="s">
-        <v>1398</v>
+        <v>1364</v>
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="38"/>
@@ -19439,10 +19166,10 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="C6" t="s">
-        <v>1399</v>
+        <v>1365</v>
       </c>
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
@@ -19458,10 +19185,10 @@
         <v>155</v>
       </c>
       <c r="B7" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="C7" t="s">
-        <v>1400</v>
+        <v>1366</v>
       </c>
       <c r="E7" s="38"/>
       <c r="F7" s="38"/>
@@ -19477,10 +19204,10 @@
         <v>156</v>
       </c>
       <c r="B8" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="C8" t="s">
-        <v>1401</v>
+        <v>1367</v>
       </c>
       <c r="E8" s="38"/>
       <c r="F8" s="38"/>
@@ -19496,10 +19223,10 @@
         <v>157</v>
       </c>
       <c r="B9" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="C9" t="s">
-        <v>1402</v>
+        <v>1368</v>
       </c>
       <c r="E9" s="38"/>
       <c r="F9" s="38"/>
@@ -19515,10 +19242,10 @@
         <v>158</v>
       </c>
       <c r="B10" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="C10" t="s">
-        <v>1403</v>
+        <v>1369</v>
       </c>
       <c r="E10" s="38"/>
       <c r="F10" s="38"/>
@@ -19534,10 +19261,10 @@
         <v>159</v>
       </c>
       <c r="B11" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="C11" t="s">
-        <v>1404</v>
+        <v>1370</v>
       </c>
       <c r="E11" s="39"/>
       <c r="F11" s="39"/>
@@ -19549,8 +19276,8 @@
       <c r="L11" s="39"/>
     </row>
     <row r="18" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H18" s="95" t="s">
-        <v>1108</v>
+      <c r="H18" s="93" t="s">
+        <v>1097</v>
       </c>
     </row>
   </sheetData>
@@ -19580,123 +19307,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="92" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="89" t="s">
         <v>139</v>
       </c>
       <c r="B2" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="89" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="89" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="89" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="89" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="89" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="89" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="89" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="89" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="89" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>141</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="89" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="91" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="89" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="91" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="89" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="91" t="s">
-        <v>144</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="90" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" t="s">
         <v>1077</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="91" t="s">
-        <v>145</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="91" t="s">
-        <v>146</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="91" t="s">
-        <v>147</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="91" t="s">
-        <v>148</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="91" t="s">
-        <v>149</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="91" t="s">
-        <v>150</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="91" t="s">
-        <v>151</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="92" t="s">
-        <v>152</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1085</v>
       </c>
     </row>
   </sheetData>
@@ -19713,7 +19440,7 @@
   <dimension ref="A1:AP3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19885,16 +19612,88 @@
       <c r="A2">
         <v>1006</v>
       </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>500</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>500</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="M2">
+        <v>15</v>
+      </c>
+      <c r="N2">
+        <v>1500</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="Q2">
+        <v>10</v>
+      </c>
+      <c r="R2">
+        <v>2000</v>
+      </c>
+      <c r="S2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="T2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="U2">
+        <v>25</v>
+      </c>
+      <c r="V2">
+        <v>200</v>
+      </c>
+      <c r="W2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="X2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="Y2">
+        <v>12</v>
+      </c>
+      <c r="Z2">
+        <v>1800</v>
+      </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1003</v>
       </c>
       <c r="C3" t="s">
-        <v>1131</v>
+        <v>1120</v>
       </c>
       <c r="D3" t="s">
-        <v>1132</v>
+        <v>1121</v>
       </c>
       <c r="E3">
         <v>25</v>
@@ -19903,10 +19702,10 @@
         <v>2000</v>
       </c>
       <c r="G3" t="s">
-        <v>1133</v>
+        <v>1122</v>
       </c>
       <c r="H3" t="s">
-        <v>1134</v>
+        <v>1123</v>
       </c>
       <c r="I3">
         <v>10</v>

--- a/WppRegpack/TestResource/Regression/DS_SPN_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_SPN_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GlobalTestSuite_BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620" firstSheet="12" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2888" uniqueCount="1401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2893" uniqueCount="1405">
   <si>
     <t>Description</t>
   </si>
@@ -4317,6 +4317,18 @@
   </si>
   <si>
     <t>Gastos No Facturables</t>
+  </si>
+  <si>
+    <t>9/20/2020</t>
+  </si>
+  <si>
+    <t>9/30/2020</t>
+  </si>
+  <si>
+    <t>1008AutomationUser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1008-Grey Worldwide Sdn Bhd </t>
   </si>
 </sst>
 </file>
@@ -5670,7 +5682,7 @@
   </sheetPr>
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -8182,89 +8194,117 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="23.140625" style="30" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="30" collapsed="1"/>
+    <col min="3" max="3" width="21.85546875" style="30" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="49" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="49" t="s">
         <v>1130</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="49">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="50" t="s">
         <v>1278</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
-        <v>1</v>
+        <v>746</v>
       </c>
       <c r="B3" s="50" t="s">
         <v>1130</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="50">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="50" t="s">
         <v>166</v>
       </c>
       <c r="B4" s="58" t="s">
         <v>1279</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="50">
+        <v>10089905</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
         <v>53</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>1103</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="50" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="50" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
         <v>43</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>1177</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="15" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="50" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>1182</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="15" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="50" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="50" t="s">
         <v>1130</v>
+      </c>
+      <c r="C9" s="50">
+        <v>1008</v>
       </c>
     </row>
   </sheetData>
@@ -13786,8 +13826,8 @@
   </sheetPr>
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15585,8 +15625,8 @@
   </sheetPr>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A14" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WppRegpack/TestResource/Regression/DS_SPN_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_SPN_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\OneDrive - Cognizant\Documents\GlobalTestSuite Project\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620" firstSheet="46" activeTab="49"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620" firstSheet="77" activeTab="80"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -91,17 +91,19 @@
     <sheet name="CreateGeneralJournal" sheetId="68" r:id="rId77"/>
     <sheet name="PostJournalEntries" sheetId="92" r:id="rId78"/>
     <sheet name="GLMPL" sheetId="88" r:id="rId79"/>
-    <sheet name="InvoicePreparation" sheetId="74" r:id="rId80"/>
-    <sheet name="InvoiceLookups" sheetId="75" r:id="rId81"/>
-    <sheet name="InvoiceOnAccount" sheetId="76" r:id="rId82"/>
-    <sheet name="InvoicingFromBudget" sheetId="77" r:id="rId83"/>
-    <sheet name="JobInvoiceAllocation_WIP" sheetId="78" r:id="rId84"/>
-    <sheet name="InvoiceMPL" sheetId="80" r:id="rId85"/>
-    <sheet name="CreatePaymentFile" sheetId="89" r:id="rId86"/>
-    <sheet name="CreatePaymentSelection" sheetId="90" r:id="rId87"/>
-    <sheet name="PrintPaymentRemittance" sheetId="91" r:id="rId88"/>
-    <sheet name="Agency Users" sheetId="11" r:id="rId89"/>
-    <sheet name="SSC Users" sheetId="12" r:id="rId90"/>
+    <sheet name="CreateAnAccrualJobByJob" sheetId="94" r:id="rId80"/>
+    <sheet name="CreateAnAccrualForAGroupOfJobs" sheetId="95" r:id="rId81"/>
+    <sheet name="InvoicePreparation" sheetId="74" r:id="rId82"/>
+    <sheet name="InvoiceLookups" sheetId="75" r:id="rId83"/>
+    <sheet name="InvoiceOnAccount" sheetId="76" r:id="rId84"/>
+    <sheet name="InvoicingFromBudget" sheetId="77" r:id="rId85"/>
+    <sheet name="JobInvoiceAllocation_WIP" sheetId="78" r:id="rId86"/>
+    <sheet name="InvoiceMPL" sheetId="80" r:id="rId87"/>
+    <sheet name="CreatePaymentFile" sheetId="89" r:id="rId88"/>
+    <sheet name="CreatePaymentSelection" sheetId="90" r:id="rId89"/>
+    <sheet name="PrintPaymentRemittance" sheetId="91" r:id="rId90"/>
+    <sheet name="Agency Users" sheetId="11" r:id="rId91"/>
+    <sheet name="SSC Users" sheetId="12" r:id="rId92"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -113,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3176" uniqueCount="1464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3225" uniqueCount="1483">
   <si>
     <t>Description</t>
   </si>
@@ -4507,6 +4509,63 @@
   </si>
   <si>
     <t>12869505</t>
+  </si>
+  <si>
+    <t>WorkCode</t>
+  </si>
+  <si>
+    <t>NoForAccrual</t>
+  </si>
+  <si>
+    <t>EntryDate</t>
+  </si>
+  <si>
+    <t>CreatePurchaseOrder2</t>
+  </si>
+  <si>
+    <t>ApprovePurchaseOrder2</t>
+  </si>
+  <si>
+    <t>E1005</t>
+  </si>
+  <si>
+    <t>10/07/2020</t>
+  </si>
+  <si>
+    <t>Job Sheet_2</t>
+  </si>
+  <si>
+    <t>Budget sheet_2</t>
+  </si>
+  <si>
+    <t>Quote Sheet_2</t>
+  </si>
+  <si>
+    <t>PO Sheet_2</t>
+  </si>
+  <si>
+    <t>Approve PO Sheet_2</t>
+  </si>
+  <si>
+    <t>JobCreation3</t>
+  </si>
+  <si>
+    <t>JobBudgetCreation3</t>
+  </si>
+  <si>
+    <t>CreateQuote3</t>
+  </si>
+  <si>
+    <t>CreatePurchaseOrder3</t>
+  </si>
+  <si>
+    <t>ApprovePurchaseOrder3</t>
+  </si>
+  <si>
+    <t>E1171</t>
+  </si>
+  <si>
+    <t>10/09/2020</t>
   </si>
 </sst>
 </file>
@@ -15050,7 +15109,7 @@
   </sheetPr>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
@@ -18944,6 +19003,229 @@
 
 <file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F1" s="57" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1006</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>1467</v>
+      </c>
+      <c r="F2" s="57" t="s">
+        <v>1468</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1469</v>
+      </c>
+      <c r="J2" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="K2" s="56" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="9.140625" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F1" s="57" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G1" s="57" t="s">
+        <v>1471</v>
+      </c>
+      <c r="H1" s="57" t="s">
+        <v>1472</v>
+      </c>
+      <c r="I1" s="57" t="s">
+        <v>1473</v>
+      </c>
+      <c r="J1" s="57" t="s">
+        <v>1474</v>
+      </c>
+      <c r="K1" s="57" t="s">
+        <v>1475</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1006</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>1467</v>
+      </c>
+      <c r="F2" s="57" t="s">
+        <v>1468</v>
+      </c>
+      <c r="G2" s="57" t="s">
+        <v>1476</v>
+      </c>
+      <c r="H2" s="57" t="s">
+        <v>1477</v>
+      </c>
+      <c r="I2" s="57" t="s">
+        <v>1478</v>
+      </c>
+      <c r="J2" s="57" t="s">
+        <v>1479</v>
+      </c>
+      <c r="K2" s="57" t="s">
+        <v>1480</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1481</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1391</v>
+      </c>
+      <c r="O2" s="56" t="s">
+        <v>1190</v>
+      </c>
+      <c r="P2" s="56" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -18987,7 +19269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -19023,7 +19305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX2"/>
   <sheetViews>
@@ -19212,7 +19494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH2"/>
   <sheetViews>
@@ -19534,7 +19816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -19586,7 +19868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW2"/>
   <sheetViews>
@@ -19886,7 +20168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
@@ -20012,7 +20294,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -20102,349 +20384,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.7109375" style="98" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.140625" style="98" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="8.7109375" style="98" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="111">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B3" s="110" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="98" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B4" s="110" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="98" t="s">
-        <v>1270</v>
-      </c>
-      <c r="B5" s="110" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="98" t="s">
-        <v>1261</v>
-      </c>
-      <c r="B6" s="100" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>736</v>
-      </c>
-      <c r="B7" s="110" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="98" t="s">
-        <v>1271</v>
-      </c>
-      <c r="B8" s="110" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="98" t="s">
-        <v>257</v>
-      </c>
-      <c r="B9" s="110" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="98" t="s">
-        <v>216</v>
-      </c>
-      <c r="B10" s="109" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFC00000"/>
-  </sheetPr>
-  <dimension ref="A1:L18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="9" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="35">
-        <v>1006</v>
-      </c>
-      <c r="C1" s="35">
-        <v>1008</v>
-      </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="B2" t="s">
-        <v>921</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1358</v>
-      </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>922</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1359</v>
-      </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="B4" t="s">
-        <v>923</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1360</v>
-      </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>924</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1361</v>
-      </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>920</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1362</v>
-      </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="B7" t="s">
-        <v>925</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1363</v>
-      </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="B8" t="s">
-        <v>926</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1364</v>
-      </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="B9" t="s">
-        <v>927</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1365</v>
-      </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="B10" t="s">
-        <v>928</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1366</v>
-      </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="B11" t="s">
-        <v>919</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1367</v>
-      </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H18" s="89" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H18" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -20791,6 +20730,349 @@
 
 <file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" style="98" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.140625" style="98" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="8.7109375" style="98" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="96" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="111">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="98" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="98" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B3" s="110" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="98" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B4" s="110" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="98" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B5" s="110" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="98" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B6" s="100" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>736</v>
+      </c>
+      <c r="B7" s="110" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="98" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B8" s="110" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="98" t="s">
+        <v>257</v>
+      </c>
+      <c r="B9" s="110" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="98" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" s="109" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:L18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="9" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="35">
+        <v>1006</v>
+      </c>
+      <c r="C1" s="35">
+        <v>1008</v>
+      </c>
+      <c r="D1" s="24"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>922</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" t="s">
+        <v>923</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>924</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>920</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" t="s">
+        <v>925</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" t="s">
+        <v>926</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" t="s">
+        <v>927</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" t="s">
+        <v>928</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11" t="s">
+        <v>919</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="89" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H18" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>

--- a/WppRegpack/TestResource/Regression/DS_SPN_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_SPN_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\OneDrive - Cognizant\Documents\GlobalTestSuite Project\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GlobalTestAutomation1\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620" firstSheet="77" activeTab="80"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620" firstSheet="22" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -8961,8 +8961,8 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8986,7 +8986,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="B2" s="48" t="s">
         <v>1275</v>
@@ -19098,7 +19098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/WppRegpack/TestResource/Regression/DS_SPN_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_SPN_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620" firstSheet="22" activeTab="22"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620" firstSheet="22" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -35,75 +35,76 @@
     <sheet name="EmployeeCreation" sheetId="5" r:id="rId21"/>
     <sheet name="EmployeeAsUser" sheetId="7" r:id="rId22"/>
     <sheet name="UserCreation" sheetId="6" r:id="rId23"/>
-    <sheet name="ChangeEmployee" sheetId="25" r:id="rId24"/>
-    <sheet name="ChangeUser" sheetId="43" r:id="rId25"/>
-    <sheet name="Modify budget" sheetId="32" r:id="rId26"/>
-    <sheet name="Approve Expenses Sheet Opco" sheetId="29" r:id="rId27"/>
-    <sheet name="Approve Expenses Sheet SSC" sheetId="30" r:id="rId28"/>
-    <sheet name="Reject Expenses" sheetId="31" r:id="rId29"/>
-    <sheet name="ApproveTimesheet" sheetId="17" r:id="rId30"/>
-    <sheet name="RejectTimesheet" sheetId="18" r:id="rId31"/>
-    <sheet name="FixedAssetPurchaseOrder" sheetId="19" r:id="rId32"/>
-    <sheet name="CreatePurchaseOrder" sheetId="15" r:id="rId33"/>
-    <sheet name="ApprovePurchaseOrder" sheetId="20" r:id="rId34"/>
-    <sheet name="RejectPurchaseOrder" sheetId="21" r:id="rId35"/>
-    <sheet name="Create Fixed Asset" sheetId="34" r:id="rId36"/>
-    <sheet name="FixedAssetDepreciation" sheetId="33" r:id="rId37"/>
-    <sheet name="PostEntries" sheetId="28" r:id="rId38"/>
-    <sheet name="FixedAssetVal" sheetId="26" r:id="rId39"/>
-    <sheet name="FixedAssetDisposal" sheetId="27" r:id="rId40"/>
-    <sheet name="VendorInvoice" sheetId="22" r:id="rId41"/>
-    <sheet name="ApproveVendorInvoice" sheetId="23" r:id="rId42"/>
-    <sheet name="RejectVendorInvoice" sheetId="24" r:id="rId43"/>
-    <sheet name="PostVendorJournal" sheetId="44" r:id="rId44"/>
-    <sheet name="AR Single Payment" sheetId="35" r:id="rId45"/>
-    <sheet name="AR Multiple Payment" sheetId="36" r:id="rId46"/>
-    <sheet name="Post a Customer Payment" sheetId="37" r:id="rId47"/>
-    <sheet name="Post in Foreign currency" sheetId="38" r:id="rId48"/>
-    <sheet name="Writingoffbad" sheetId="39" r:id="rId49"/>
-    <sheet name="Time_Material_Invocing" sheetId="93" r:id="rId50"/>
-    <sheet name="Reverse a Credit Note" sheetId="40" r:id="rId51"/>
-    <sheet name="Reverse Invoice" sheetId="41" r:id="rId52"/>
-    <sheet name="Credit Note With PO" sheetId="42" r:id="rId53"/>
-    <sheet name="CreateCompanyClient" sheetId="59" r:id="rId54"/>
-    <sheet name="CreateCompanyBrand" sheetId="60" r:id="rId55"/>
-    <sheet name="CreateGlobalBrand" sheetId="63" r:id="rId56"/>
-    <sheet name="CreateGlobalProduct" sheetId="64" r:id="rId57"/>
-    <sheet name="AmendCompanyClient" sheetId="61" r:id="rId58"/>
-    <sheet name="AmendCompanyBrand" sheetId="62" r:id="rId59"/>
-    <sheet name="AmendGlobalClient" sheetId="55" r:id="rId60"/>
-    <sheet name="AmendGlobalBrand" sheetId="56" r:id="rId61"/>
-    <sheet name="AmendGlobalVendor" sheetId="65" r:id="rId62"/>
-    <sheet name="AmendCompanyVendor" sheetId="66" r:id="rId63"/>
-    <sheet name="BlockGlobalClient" sheetId="47" r:id="rId64"/>
-    <sheet name="BlockGlobalBrand" sheetId="48" r:id="rId65"/>
-    <sheet name="BlockCompanyBrand" sheetId="50" r:id="rId66"/>
-    <sheet name="BlockCompanyClient" sheetId="51" r:id="rId67"/>
-    <sheet name="BlockGlobalProduct" sheetId="52" r:id="rId68"/>
-    <sheet name="BlockCompanyProduct" sheetId="53" r:id="rId69"/>
-    <sheet name="BlockGlobalVendor" sheetId="49" r:id="rId70"/>
-    <sheet name="CreateCompanyVendor" sheetId="67" r:id="rId71"/>
-    <sheet name="BlockCompanyVendor" sheetId="54" r:id="rId72"/>
-    <sheet name="ReverseGL" sheetId="69" r:id="rId73"/>
-    <sheet name="CreateCurrencyJournal" sheetId="71" r:id="rId74"/>
-    <sheet name="CopyGL" sheetId="72" r:id="rId75"/>
-    <sheet name="ReverseGL (2)" sheetId="73" r:id="rId76"/>
-    <sheet name="CreateGeneralJournal" sheetId="68" r:id="rId77"/>
-    <sheet name="PostJournalEntries" sheetId="92" r:id="rId78"/>
-    <sheet name="GLMPL" sheetId="88" r:id="rId79"/>
-    <sheet name="CreateAnAccrualJobByJob" sheetId="94" r:id="rId80"/>
-    <sheet name="CreateAnAccrualForAGroupOfJobs" sheetId="95" r:id="rId81"/>
-    <sheet name="InvoicePreparation" sheetId="74" r:id="rId82"/>
-    <sheet name="InvoiceLookups" sheetId="75" r:id="rId83"/>
-    <sheet name="InvoiceOnAccount" sheetId="76" r:id="rId84"/>
-    <sheet name="InvoicingFromBudget" sheetId="77" r:id="rId85"/>
-    <sheet name="JobInvoiceAllocation_WIP" sheetId="78" r:id="rId86"/>
-    <sheet name="InvoiceMPL" sheetId="80" r:id="rId87"/>
-    <sheet name="CreatePaymentFile" sheetId="89" r:id="rId88"/>
-    <sheet name="CreatePaymentSelection" sheetId="90" r:id="rId89"/>
-    <sheet name="PrintPaymentRemittance" sheetId="91" r:id="rId90"/>
-    <sheet name="Agency Users" sheetId="11" r:id="rId91"/>
-    <sheet name="SSC Users" sheetId="12" r:id="rId92"/>
+    <sheet name="BlockUser" sheetId="96" r:id="rId24"/>
+    <sheet name="ChangeEmployee" sheetId="25" r:id="rId25"/>
+    <sheet name="ChangeUser" sheetId="43" r:id="rId26"/>
+    <sheet name="Modify budget" sheetId="32" r:id="rId27"/>
+    <sheet name="Approve Expenses Sheet Opco" sheetId="29" r:id="rId28"/>
+    <sheet name="Approve Expenses Sheet SSC" sheetId="30" r:id="rId29"/>
+    <sheet name="Reject Expenses" sheetId="31" r:id="rId30"/>
+    <sheet name="ApproveTimesheet" sheetId="17" r:id="rId31"/>
+    <sheet name="RejectTimesheet" sheetId="18" r:id="rId32"/>
+    <sheet name="FixedAssetPurchaseOrder" sheetId="19" r:id="rId33"/>
+    <sheet name="CreatePurchaseOrder" sheetId="15" r:id="rId34"/>
+    <sheet name="ApprovePurchaseOrder" sheetId="20" r:id="rId35"/>
+    <sheet name="RejectPurchaseOrder" sheetId="21" r:id="rId36"/>
+    <sheet name="Create Fixed Asset" sheetId="34" r:id="rId37"/>
+    <sheet name="FixedAssetDepreciation" sheetId="33" r:id="rId38"/>
+    <sheet name="PostEntries" sheetId="28" r:id="rId39"/>
+    <sheet name="FixedAssetVal" sheetId="26" r:id="rId40"/>
+    <sheet name="FixedAssetDisposal" sheetId="27" r:id="rId41"/>
+    <sheet name="VendorInvoice" sheetId="22" r:id="rId42"/>
+    <sheet name="ApproveVendorInvoice" sheetId="23" r:id="rId43"/>
+    <sheet name="RejectVendorInvoice" sheetId="24" r:id="rId44"/>
+    <sheet name="PostVendorJournal" sheetId="44" r:id="rId45"/>
+    <sheet name="AR Single Payment" sheetId="35" r:id="rId46"/>
+    <sheet name="AR Multiple Payment" sheetId="36" r:id="rId47"/>
+    <sheet name="Post a Customer Payment" sheetId="37" r:id="rId48"/>
+    <sheet name="Post in Foreign currency" sheetId="38" r:id="rId49"/>
+    <sheet name="Writingoffbad" sheetId="39" r:id="rId50"/>
+    <sheet name="Time_Material_Invocing" sheetId="93" r:id="rId51"/>
+    <sheet name="Reverse a Credit Note" sheetId="40" r:id="rId52"/>
+    <sheet name="Reverse Invoice" sheetId="41" r:id="rId53"/>
+    <sheet name="Credit Note With PO" sheetId="42" r:id="rId54"/>
+    <sheet name="CreateCompanyClient" sheetId="59" r:id="rId55"/>
+    <sheet name="CreateCompanyBrand" sheetId="60" r:id="rId56"/>
+    <sheet name="CreateGlobalBrand" sheetId="63" r:id="rId57"/>
+    <sheet name="CreateGlobalProduct" sheetId="64" r:id="rId58"/>
+    <sheet name="AmendCompanyClient" sheetId="61" r:id="rId59"/>
+    <sheet name="AmendCompanyBrand" sheetId="62" r:id="rId60"/>
+    <sheet name="AmendGlobalClient" sheetId="55" r:id="rId61"/>
+    <sheet name="AmendGlobalBrand" sheetId="56" r:id="rId62"/>
+    <sheet name="AmendGlobalVendor" sheetId="65" r:id="rId63"/>
+    <sheet name="AmendCompanyVendor" sheetId="66" r:id="rId64"/>
+    <sheet name="BlockGlobalClient" sheetId="47" r:id="rId65"/>
+    <sheet name="BlockGlobalBrand" sheetId="48" r:id="rId66"/>
+    <sheet name="BlockCompanyBrand" sheetId="50" r:id="rId67"/>
+    <sheet name="BlockCompanyClient" sheetId="51" r:id="rId68"/>
+    <sheet name="BlockGlobalProduct" sheetId="52" r:id="rId69"/>
+    <sheet name="BlockCompanyProduct" sheetId="53" r:id="rId70"/>
+    <sheet name="BlockGlobalVendor" sheetId="49" r:id="rId71"/>
+    <sheet name="CreateCompanyVendor" sheetId="67" r:id="rId72"/>
+    <sheet name="BlockCompanyVendor" sheetId="54" r:id="rId73"/>
+    <sheet name="ReverseGL" sheetId="69" r:id="rId74"/>
+    <sheet name="CreateCurrencyJournal" sheetId="71" r:id="rId75"/>
+    <sheet name="CopyGL" sheetId="72" r:id="rId76"/>
+    <sheet name="ReverseGL (2)" sheetId="73" r:id="rId77"/>
+    <sheet name="CreateGeneralJournal" sheetId="68" r:id="rId78"/>
+    <sheet name="PostJournalEntries" sheetId="92" r:id="rId79"/>
+    <sheet name="GLMPL" sheetId="88" r:id="rId80"/>
+    <sheet name="CreateAnAccrualJobByJob" sheetId="94" r:id="rId81"/>
+    <sheet name="CreateAnAccrualForAGroupOfJobs" sheetId="95" r:id="rId82"/>
+    <sheet name="InvoicePreparation" sheetId="74" r:id="rId83"/>
+    <sheet name="InvoiceLookups" sheetId="75" r:id="rId84"/>
+    <sheet name="InvoiceOnAccount" sheetId="76" r:id="rId85"/>
+    <sheet name="InvoicingFromBudget" sheetId="77" r:id="rId86"/>
+    <sheet name="JobInvoiceAllocation_WIP" sheetId="78" r:id="rId87"/>
+    <sheet name="InvoiceMPL" sheetId="80" r:id="rId88"/>
+    <sheet name="CreatePaymentFile" sheetId="89" r:id="rId89"/>
+    <sheet name="CreatePaymentSelection" sheetId="90" r:id="rId90"/>
+    <sheet name="PrintPaymentRemittance" sheetId="91" r:id="rId91"/>
+    <sheet name="Agency Users" sheetId="11" r:id="rId92"/>
+    <sheet name="SSC Users" sheetId="12" r:id="rId93"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -115,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3225" uniqueCount="1483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3231" uniqueCount="1486">
   <si>
     <t>Description</t>
   </si>
@@ -4566,6 +4567,15 @@
   </si>
   <si>
     <t>10/09/2020</t>
+  </si>
+  <si>
+    <t>2025AutomationUser</t>
+  </si>
+  <si>
+    <t>TerminationDate</t>
+  </si>
+  <si>
+    <t>11/04/2020</t>
   </si>
 </sst>
 </file>
@@ -8961,7 +8971,7 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -9079,6 +9089,45 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B3" s="101" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -9208,7 +9257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -9319,7 +9368,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -9449,7 +9498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -9489,7 +9538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -9531,42 +9580,6 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1003</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -10898,6 +10911,42 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10950,7 +10999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -11001,7 +11050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -11279,7 +11328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -11510,7 +11559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -11550,7 +11599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -11589,7 +11638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -11700,7 +11749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -11778,91 +11827,6 @@
       </c>
       <c r="C6" s="28" t="s">
         <v>252</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="74" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C1" s="74" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>210</v>
-      </c>
-      <c r="B2" s="80" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C2" s="80" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
-        <v>211</v>
-      </c>
-      <c r="B3" s="80" t="s">
-        <v>212</v>
-      </c>
-      <c r="C3" s="80" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
-        <v>215</v>
-      </c>
-      <c r="B5" s="76" t="s">
-        <v>225</v>
-      </c>
-      <c r="C5" s="76" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="77" t="s">
-        <v>216</v>
-      </c>
-      <c r="B6" s="78" t="s">
-        <v>217</v>
-      </c>
-      <c r="C6" s="78" t="s">
-        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -11888,63 +11852,65 @@
     <col min="2" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="74" t="s">
         <v>1127</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="74" t="s">
         <v>1056</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="B2">
-        <v>1003</v>
-      </c>
-      <c r="C2">
-        <v>1008</v>
+      <c r="B2" s="80" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="80" t="s">
         <v>212</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="80" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="51" t="s">
         <v>213</v>
       </c>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="B5" s="71" t="s">
-        <v>1354</v>
-      </c>
-      <c r="C5" s="71" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="69" t="s">
+      <c r="B5" s="76" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="76" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="77" t="s">
         <v>216</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="78" t="s">
         <v>217</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="78" t="s">
         <v>217</v>
       </c>
     </row>
@@ -14013,6 +13979,89 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2">
+        <v>1003</v>
+      </c>
+      <c r="C2">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="69" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="71" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C5" s="71" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" s="71" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>217</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14079,7 +14128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -14204,7 +14253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -14243,7 +14292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -14279,7 +14328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -14331,7 +14380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -14403,7 +14452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -14480,7 +14529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -14529,7 +14578,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -14620,7 +14669,372 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="50.5703125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="90">
+        <v>1003</v>
+      </c>
+      <c r="C1" s="90">
+        <v>1006</v>
+      </c>
+      <c r="D1" s="90">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>770</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>772</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>814</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>774</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>775</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>775</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>776</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>775</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>775</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C7" t="s">
+        <v>290</v>
+      </c>
+      <c r="D7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" t="s">
+        <v>777</v>
+      </c>
+      <c r="C8" t="s">
+        <v>777</v>
+      </c>
+      <c r="D8" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>778</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>780</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11" t="s">
+        <v>289</v>
+      </c>
+      <c r="C11" t="s">
+        <v>259</v>
+      </c>
+      <c r="D11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>781</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C12" t="s">
+        <v>782</v>
+      </c>
+      <c r="D12" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>783</v>
+      </c>
+      <c r="B13" t="s">
+        <v>784</v>
+      </c>
+      <c r="C13" t="s">
+        <v>784</v>
+      </c>
+      <c r="D13" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>786</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C15" t="s">
+        <v>823</v>
+      </c>
+      <c r="D15" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>767</v>
+      </c>
+      <c r="B16" s="89" t="s">
+        <v>788</v>
+      </c>
+      <c r="C16" s="89" t="s">
+        <v>788</v>
+      </c>
+      <c r="D16" s="89" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>766</v>
+      </c>
+      <c r="B17" s="56" t="s">
+        <v>804</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D17" s="56" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>789</v>
+      </c>
+      <c r="B18">
+        <v>10039919</v>
+      </c>
+      <c r="C18">
+        <v>10069905</v>
+      </c>
+      <c r="D18">
+        <v>10089905</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19" t="s">
+        <v>834</v>
+      </c>
+      <c r="C19" t="s">
+        <v>834</v>
+      </c>
+      <c r="D19" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>791</v>
+      </c>
+      <c r="B20" t="s">
+        <v>792</v>
+      </c>
+      <c r="C20" t="s">
+        <v>792</v>
+      </c>
+      <c r="D20" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>793</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>795</v>
+      </c>
+      <c r="B22" t="s">
+        <v>796</v>
+      </c>
+      <c r="C22" t="s">
+        <v>796</v>
+      </c>
+      <c r="D22" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>797</v>
+      </c>
+      <c r="B23" t="s">
+        <v>798</v>
+      </c>
+      <c r="C23" t="s">
+        <v>798</v>
+      </c>
+      <c r="D23" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C24" s="56" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D24" s="56" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B16" r:id="rId1"/>
+    <hyperlink ref="C16" r:id="rId2"/>
+    <hyperlink ref="D16" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -14737,372 +15151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:D24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="50.5703125" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="90">
-        <v>1003</v>
-      </c>
-      <c r="C1" s="90">
-        <v>1006</v>
-      </c>
-      <c r="D1" s="90">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>1370</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>770</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1371</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>772</v>
-      </c>
-      <c r="B4" s="56" t="s">
-        <v>814</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1372</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>774</v>
-      </c>
-      <c r="B5" s="56" t="s">
-        <v>775</v>
-      </c>
-      <c r="C5" s="56" t="s">
-        <v>775</v>
-      </c>
-      <c r="D5" s="56" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>776</v>
-      </c>
-      <c r="B6" s="56" t="s">
-        <v>775</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>775</v>
-      </c>
-      <c r="D6" s="56" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>288</v>
-      </c>
-      <c r="C7" t="s">
-        <v>290</v>
-      </c>
-      <c r="D7" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B8" t="s">
-        <v>777</v>
-      </c>
-      <c r="C8" t="s">
-        <v>777</v>
-      </c>
-      <c r="D8" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>778</v>
-      </c>
-      <c r="B9" s="56" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C9" s="56" t="s">
-        <v>1377</v>
-      </c>
-      <c r="D9" s="56" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>780</v>
-      </c>
-      <c r="B10" s="56" t="s">
-        <v>1295</v>
-      </c>
-      <c r="C10" s="56" t="s">
-        <v>1377</v>
-      </c>
-      <c r="D10" s="56" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>188</v>
-      </c>
-      <c r="B11" t="s">
-        <v>289</v>
-      </c>
-      <c r="C11" t="s">
-        <v>259</v>
-      </c>
-      <c r="D11" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>781</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C12" t="s">
-        <v>782</v>
-      </c>
-      <c r="D12" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>783</v>
-      </c>
-      <c r="B13" t="s">
-        <v>784</v>
-      </c>
-      <c r="C13" t="s">
-        <v>784</v>
-      </c>
-      <c r="D13" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>189</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1373</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>786</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C15" t="s">
-        <v>823</v>
-      </c>
-      <c r="D15" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>767</v>
-      </c>
-      <c r="B16" s="89" t="s">
-        <v>788</v>
-      </c>
-      <c r="C16" s="89" t="s">
-        <v>788</v>
-      </c>
-      <c r="D16" s="89" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>766</v>
-      </c>
-      <c r="B17" s="56" t="s">
-        <v>804</v>
-      </c>
-      <c r="C17" s="56" t="s">
-        <v>1374</v>
-      </c>
-      <c r="D17" s="56" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>789</v>
-      </c>
-      <c r="B18">
-        <v>10039919</v>
-      </c>
-      <c r="C18">
-        <v>10069905</v>
-      </c>
-      <c r="D18">
-        <v>10089905</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>190</v>
-      </c>
-      <c r="B19" t="s">
-        <v>834</v>
-      </c>
-      <c r="C19" t="s">
-        <v>834</v>
-      </c>
-      <c r="D19" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>791</v>
-      </c>
-      <c r="B20" t="s">
-        <v>792</v>
-      </c>
-      <c r="C20" t="s">
-        <v>792</v>
-      </c>
-      <c r="D20" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>793</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1375</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>795</v>
-      </c>
-      <c r="B22" t="s">
-        <v>796</v>
-      </c>
-      <c r="C22" t="s">
-        <v>796</v>
-      </c>
-      <c r="D22" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>797</v>
-      </c>
-      <c r="B23" t="s">
-        <v>798</v>
-      </c>
-      <c r="C23" t="s">
-        <v>798</v>
-      </c>
-      <c r="D23" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B24" s="56" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C24" s="56" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D24" s="56" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B16" r:id="rId1"/>
-    <hyperlink ref="C16" r:id="rId2"/>
-    <hyperlink ref="D16" r:id="rId3"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -15175,7 +15224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -15255,7 +15304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -15326,7 +15375,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -15512,7 +15561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -15700,7 +15749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -15906,7 +15955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -16180,7 +16229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -16459,7 +16508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -16514,85 +16563,6 @@
       </c>
       <c r="B5" s="56" t="s">
         <v>870</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="47" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>741</v>
-      </c>
-      <c r="B2" s="93" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B3" s="56" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>766</v>
-      </c>
-      <c r="B4" s="56" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>767</v>
-      </c>
-      <c r="B5" s="56" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>742</v>
-      </c>
-      <c r="B6" s="91" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>743</v>
-      </c>
-      <c r="B7" t="s">
-        <v>844</v>
       </c>
     </row>
   </sheetData>
@@ -17041,6 +17011,85 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>741</v>
+      </c>
+      <c r="B2" s="93" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>766</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>767</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>742</v>
+      </c>
+      <c r="B6" s="91" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>743</v>
+      </c>
+      <c r="B7" t="s">
+        <v>844</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17117,7 +17166,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -17214,7 +17263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -17301,7 +17350,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -17372,7 +17421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -17411,69 +17460,6 @@
       </c>
       <c r="B3" t="s">
         <v>285</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="90">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>741</v>
-      </c>
-      <c r="B2" s="56" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>742</v>
-      </c>
-      <c r="B4" s="91" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>743</v>
-      </c>
-      <c r="B5" t="s">
-        <v>843</v>
       </c>
     </row>
   </sheetData>
@@ -17496,7 +17482,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -17511,15 +17497,15 @@
       <c r="A2" t="s">
         <v>741</v>
       </c>
-      <c r="B2" s="93" t="s">
-        <v>750</v>
+      <c r="B2" s="56" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" t="s">
         <v>285</v>
       </c>
     </row>
@@ -17528,7 +17514,7 @@
         <v>742</v>
       </c>
       <c r="B4" s="91" t="s">
-        <v>751</v>
+        <v>841</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -17536,7 +17522,7 @@
         <v>743</v>
       </c>
       <c r="B5" t="s">
-        <v>752</v>
+        <v>843</v>
       </c>
     </row>
   </sheetData>
@@ -17546,6 +17532,69 @@
 </file>
 
 <file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="90">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>741</v>
+      </c>
+      <c r="B2" s="93" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>742</v>
+      </c>
+      <c r="B4" s="91" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>743</v>
+      </c>
+      <c r="B5" t="s">
+        <v>752</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -17592,7 +17641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -17647,69 +17696,6 @@
       </c>
       <c r="B5" t="s">
         <v>758</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="90">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>741</v>
-      </c>
-      <c r="B2" s="94">
-        <v>103132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>753</v>
-      </c>
-      <c r="B4" s="94" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>755</v>
-      </c>
-      <c r="B5" t="s">
-        <v>756</v>
       </c>
     </row>
   </sheetData>
@@ -17998,6 +17984,69 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="90">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>741</v>
+      </c>
+      <c r="B2" s="94">
+        <v>103132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>753</v>
+      </c>
+      <c r="B4" s="94" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>755</v>
+      </c>
+      <c r="B5" t="s">
+        <v>756</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="25.85546875" customWidth="1" collapsed="1"/>
   </cols>
@@ -18048,7 +18097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -18186,7 +18235,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -18249,7 +18298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -18295,7 +18344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -18347,7 +18396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -18389,7 +18438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -18435,7 +18484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
@@ -18560,7 +18609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -18581,208 +18630,6 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1003</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="28" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1237</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1238</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1239</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1240</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1241</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1242</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1243</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1244</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1245</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1246</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1247</v>
-      </c>
-      <c r="M1" t="s">
-        <v>1248</v>
-      </c>
-      <c r="N1" t="s">
-        <v>1249</v>
-      </c>
-      <c r="O1" t="s">
-        <v>1250</v>
-      </c>
-      <c r="P1" t="s">
-        <v>1251</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>1252</v>
-      </c>
-      <c r="R1" t="s">
-        <v>1253</v>
-      </c>
-      <c r="S1" t="s">
-        <v>1254</v>
-      </c>
-      <c r="T1" t="s">
-        <v>1255</v>
-      </c>
-      <c r="U1" t="s">
-        <v>261</v>
-      </c>
-      <c r="V1" t="s">
-        <v>1256</v>
-      </c>
-      <c r="W1" t="s">
-        <v>1257</v>
-      </c>
-      <c r="X1" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>1258</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>1259</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>895</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="28">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1340</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1335</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1336</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1337</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1338</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1341</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1336</v>
-      </c>
-      <c r="J3" t="s">
-        <v>1230</v>
-      </c>
-      <c r="K3" t="s">
-        <v>1135</v>
-      </c>
-      <c r="L3" t="s">
-        <v>821</v>
-      </c>
-      <c r="M3" t="s">
-        <v>909</v>
-      </c>
-      <c r="N3" t="s">
-        <v>1109</v>
-      </c>
-      <c r="O3" t="s">
-        <v>1111</v>
-      </c>
-      <c r="P3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>1138</v>
-      </c>
-      <c r="R3" t="s">
-        <v>1339</v>
-      </c>
-      <c r="S3" t="s">
-        <v>1341</v>
-      </c>
-      <c r="T3" t="s">
-        <v>1336</v>
-      </c>
-      <c r="U3" t="s">
-        <v>264</v>
-      </c>
-      <c r="V3" t="s">
-        <v>1236</v>
-      </c>
-      <c r="W3" t="s">
-        <v>1342</v>
-      </c>
-      <c r="X3" t="s">
-        <v>908</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>1109</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>1111</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>1339</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>1138</v>
       </c>
     </row>
   </sheetData>
@@ -19003,6 +18850,208 @@
 
 <file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="28" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="U1" t="s">
+        <v>261</v>
+      </c>
+      <c r="V1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="W1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="X1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>895</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="28">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1341</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1230</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="L3" t="s">
+        <v>821</v>
+      </c>
+      <c r="M3" t="s">
+        <v>909</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="P3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="R3" t="s">
+        <v>1339</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1341</v>
+      </c>
+      <c r="T3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="U3" t="s">
+        <v>264</v>
+      </c>
+      <c r="V3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="W3" t="s">
+        <v>1342</v>
+      </c>
+      <c r="X3" t="s">
+        <v>908</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>1339</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19094,7 +19143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
@@ -19224,7 +19273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -19269,7 +19318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -19305,7 +19354,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX2"/>
   <sheetViews>
@@ -19494,7 +19543,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH2"/>
   <sheetViews>
@@ -19816,7 +19865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -19868,7 +19917,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW2"/>
   <sheetViews>
@@ -20168,7 +20217,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
@@ -20286,99 +20335,6 @@
       <c r="F13"/>
       <c r="G13" s="98" t="s">
         <v>1266</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.5703125" style="98" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.28515625" style="98" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="8.7109375" style="98" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="108">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B3" s="110" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="98" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B4" s="110" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="98" t="s">
-        <v>1267</v>
-      </c>
-      <c r="B5" s="100" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="98" t="s">
-        <v>257</v>
-      </c>
-      <c r="B6" s="110" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>736</v>
-      </c>
-      <c r="B7" s="110" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="98" t="s">
-        <v>1268</v>
-      </c>
-      <c r="B8" s="110" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="98" t="s">
-        <v>1263</v>
-      </c>
-      <c r="B9" s="109" t="s">
-        <v>1272</v>
       </c>
     </row>
   </sheetData>
@@ -20730,6 +20686,99 @@
 
 <file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" style="98" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.28515625" style="98" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="8.7109375" style="98" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="96" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="108">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="98" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="98" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B3" s="110" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="98" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B4" s="110" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="98" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B5" s="100" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="98" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6" s="110" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>736</v>
+      </c>
+      <c r="B7" s="110" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="98" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B8" s="110" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="98" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B9" s="109" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20829,7 +20878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -21071,7 +21120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>

--- a/WppRegpack/TestResource/Regression/DS_SPN_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_SPN_REGRESSION.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GlobalTestAutomation1\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620" firstSheet="22" activeTab="23"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620" firstSheet="94" activeTab="95"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -103,12 +103,18 @@
     <sheet name="CreatePaymentFile" sheetId="89" r:id="rId89"/>
     <sheet name="CreatePaymentSelection" sheetId="90" r:id="rId90"/>
     <sheet name="PrintPaymentRemittance" sheetId="91" r:id="rId91"/>
-    <sheet name="Agency Users" sheetId="11" r:id="rId92"/>
-    <sheet name="SSC Users" sheetId="12" r:id="rId93"/>
+    <sheet name="AbsenceRequest" sheetId="97" r:id="rId92"/>
+    <sheet name="RejectAbsence" sheetId="99" r:id="rId93"/>
+    <sheet name="ApproveAbsence" sheetId="98" r:id="rId94"/>
+    <sheet name="AbsenceAllowanceRequest" sheetId="100" r:id="rId95"/>
+    <sheet name="RejectAllowanceRequest" sheetId="101" r:id="rId96"/>
+    <sheet name="ApproveAllowanceRequest" sheetId="102" r:id="rId97"/>
+    <sheet name="Agency Users" sheetId="11" r:id="rId98"/>
+    <sheet name="SSC Users" sheetId="12" r:id="rId99"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -116,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3231" uniqueCount="1486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3316" uniqueCount="1512">
   <si>
     <t>Description</t>
   </si>
@@ -4251,9 +4257,6 @@
     <t>A1006001</t>
   </si>
   <si>
-    <t>C1006001</t>
-  </si>
-  <si>
     <t>1006_GlobalVendor</t>
   </si>
   <si>
@@ -4576,12 +4579,94 @@
   </si>
   <si>
     <t>11/04/2020</t>
+  </si>
+  <si>
+    <t>C10060011</t>
+  </si>
+  <si>
+    <t>102589</t>
+  </si>
+  <si>
+    <t>1006_AutoClient 11November2020 18:44:59</t>
+  </si>
+  <si>
+    <t>102589001</t>
+  </si>
+  <si>
+    <t>AutoGlobalBrand 11November2020 18:44:59</t>
+  </si>
+  <si>
+    <t>102589001001</t>
+  </si>
+  <si>
+    <t>AutoGlobalProduct 11November2020 18:44:59</t>
+  </si>
+  <si>
+    <t>11/11/2019</t>
+  </si>
+  <si>
+    <t>11/11/2020</t>
+  </si>
+  <si>
+    <t>100610174</t>
+  </si>
+  <si>
+    <t>First Day</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Absence Type</t>
+  </si>
+  <si>
+    <t>Other Leave</t>
+  </si>
+  <si>
+    <t>AbsenceType</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11November2020 20:32:33</t>
+  </si>
+  <si>
+    <t>Absence Reason</t>
+  </si>
+  <si>
+    <t>Absence Date</t>
+  </si>
+  <si>
+    <t>Absence Duration</t>
+  </si>
+  <si>
+    <t>Time Registered</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Approve</t>
+  </si>
+  <si>
+    <t>Valid Till</t>
+  </si>
+  <si>
+    <t>AllowanceAbsenceType</t>
+  </si>
+  <si>
+    <t>AllowanceAbsenceDate</t>
+  </si>
+  <si>
+    <t>Allowance Reason</t>
+  </si>
+  <si>
+    <t>Approve 11November2020 20:50:55</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4843,7 +4928,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5056,6 +5141,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5349,9 +5437,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5427,9 +5515,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.7109375" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.5703125" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="28" collapsed="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" style="28" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="28" width="8.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="28" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -5483,7 +5571,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="28" collapsed="1"/>
+    <col min="1" max="16384" style="28" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
@@ -5599,10 +5687,10 @@
         <v>1163</v>
       </c>
       <c r="AL1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="AM1" t="s">
         <v>1447</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>1448</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
@@ -5610,16 +5698,16 @@
         <v>1008</v>
       </c>
       <c r="B2" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C2" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="D2" t="s">
         <v>1339</v>
       </c>
       <c r="E2" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="F2" t="s">
         <v>1133</v>
@@ -5628,25 +5716,25 @@
         <v>1135</v>
       </c>
       <c r="H2" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="I2" t="s">
         <v>1138</v>
       </c>
       <c r="J2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1391</v>
+      </c>
+      <c r="L2" t="s">
         <v>1436</v>
       </c>
-      <c r="K2" t="s">
-        <v>1392</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>1437</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>1438</v>
-      </c>
-      <c r="N2" t="s">
-        <v>1439</v>
       </c>
       <c r="O2" t="s">
         <v>1133</v>
@@ -5655,25 +5743,25 @@
         <v>1135</v>
       </c>
       <c r="Q2" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="R2" t="s">
         <v>1138</v>
       </c>
       <c r="S2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="T2" t="s">
+        <v>1391</v>
+      </c>
+      <c r="U2" t="s">
         <v>1441</v>
       </c>
-      <c r="T2" t="s">
-        <v>1392</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>1442</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>1443</v>
-      </c>
-      <c r="W2" t="s">
-        <v>1444</v>
       </c>
       <c r="X2" t="s">
         <v>1133</v>
@@ -5682,13 +5770,13 @@
         <v>1135</v>
       </c>
       <c r="Z2" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="AA2" t="s">
         <v>1138</v>
       </c>
       <c r="AB2" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="AC2" t="s">
         <v>1135</v>
@@ -5721,7 +5809,7 @@
         <v>1190</v>
       </c>
       <c r="AM2" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
@@ -5750,7 +5838,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="28" collapsed="1"/>
+    <col min="1" max="16384" style="28" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -5807,28 +5895,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -5945,7 +6033,7 @@
       </c>
       <c r="D2" s="15"/>
       <c r="E2" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="F2" t="s">
         <v>287</v>
@@ -5984,7 +6072,7 @@
       </c>
       <c r="D4" s="15"/>
       <c r="E4" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="F4" t="s">
         <v>287</v>
@@ -6012,8 +6100,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="19" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" style="28" width="19.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -6046,7 +6134,7 @@
         <v>1346</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -6235,8 +6323,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -6410,8 +6498,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -6585,40 +6673,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
@@ -6807,7 +6895,7 @@
         <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="E3">
         <v>12</v>
@@ -6816,10 +6904,10 @@
         <v>500</v>
       </c>
       <c r="G3" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="H3" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="I3">
         <v>50</v>
@@ -6828,10 +6916,10 @@
         <v>700</v>
       </c>
       <c r="K3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="L3" t="s">
         <v>1391</v>
-      </c>
-      <c r="L3" t="s">
-        <v>1392</v>
       </c>
       <c r="M3">
         <v>20</v>
@@ -6840,10 +6928,10 @@
         <v>800</v>
       </c>
       <c r="O3" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="P3" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="Q3">
         <v>40</v>
@@ -6852,10 +6940,10 @@
         <v>500</v>
       </c>
       <c r="S3" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="T3" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="U3">
         <v>40</v>
@@ -6866,10 +6954,10 @@
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
+        <v>1395</v>
+      </c>
+      <c r="H4" t="s">
         <v>1396</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1397</v>
       </c>
     </row>
   </sheetData>
@@ -6891,40 +6979,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
@@ -7150,9 +7238,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -7189,30 +7277,32 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:FK73"/>
+  <dimension ref="A1:FL78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="31.140625" style="28" customWidth="1" collapsed="1"/>
-    <col min="3" max="166" width="32" style="28" customWidth="1" collapsed="1"/>
-    <col min="167" max="16384" width="9.140625" style="28" collapsed="1"/>
+    <col min="1" max="3" customWidth="true" style="28" width="31.140625" collapsed="true"/>
+    <col min="4" max="167" customWidth="true" style="28" width="32.0" collapsed="true"/>
+    <col min="168" max="16384" style="28" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:167" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>161</v>
       </c>
       <c r="B1" s="14">
+        <v>1006</v>
+      </c>
+      <c r="C1" s="14">
         <v>1008</v>
       </c>
-      <c r="C1" s="14">
+      <c r="D1" s="14">
         <v>1003</v>
       </c>
-      <c r="D1" s="14"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
@@ -7375,651 +7465,778 @@
       <c r="FH1" s="14"/>
       <c r="FI1" s="14"/>
       <c r="FJ1" s="14"/>
-      <c r="FK1" t="s">
+      <c r="FK1" s="14"/>
+      <c r="FL1" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="2" spans="1:167" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="B2" t="s">
-        <v>1431</v>
-      </c>
       <c r="C2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D2" t="s">
         <v>1357</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>1326</v>
       </c>
-      <c r="E2" s="57"/>
       <c r="F2" s="57"/>
       <c r="G2" s="57"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="56"/>
-    </row>
-    <row r="3" spans="1:167" x14ac:dyDescent="0.25">
+      <c r="H2" s="57"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="56"/>
+    </row>
+    <row r="3" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>100310124</v>
       </c>
     </row>
-    <row r="4" spans="1:167" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>1349</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="5" spans="1:167" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="B5" t="s">
-        <v>1452</v>
-      </c>
       <c r="C5" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D5" t="s">
         <v>1311</v>
       </c>
     </row>
-    <row r="6" spans="1:167" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>735</v>
       </c>
-      <c r="B6" t="s">
-        <v>1460</v>
-      </c>
       <c r="C6" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D6" t="s">
         <v>1316</v>
       </c>
     </row>
-    <row r="7" spans="1:167" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>736</v>
       </c>
-      <c r="B7" t="s">
-        <v>1454</v>
-      </c>
       <c r="C7" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D7" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="8" spans="1:167" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>738</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="9" spans="1:167" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>739</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="10" spans="1:167" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>740</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>1346</v>
       </c>
     </row>
-    <row r="11" spans="1:167" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="12" spans="1:167" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="13" spans="1:167" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="14" spans="1:167" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>806</v>
       </c>
-      <c r="B14" t="s">
-        <v>1417</v>
+      <c r="B14" s="28" t="s">
+        <v>1486</v>
       </c>
       <c r="C14" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D14" t="s">
         <v>1297</v>
       </c>
-      <c r="FK14" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="15" spans="1:167" x14ac:dyDescent="0.25">
+      <c r="FL14" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="15" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>807</v>
       </c>
-      <c r="B15" t="s">
-        <v>1418</v>
+      <c r="B15" s="28" t="s">
+        <v>1487</v>
       </c>
       <c r="C15" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D15" t="s">
         <v>1298</v>
       </c>
-      <c r="FK15" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="16" spans="1:167" x14ac:dyDescent="0.25">
+      <c r="FL15" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="16" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>808</v>
       </c>
-      <c r="B16" t="s">
-        <v>1419</v>
+      <c r="B16" s="28" t="s">
+        <v>1488</v>
       </c>
       <c r="C16" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D16" t="s">
         <v>1299</v>
       </c>
-      <c r="FK16" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="17" spans="1:167" x14ac:dyDescent="0.25">
+      <c r="FL16" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="17" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>809</v>
       </c>
-      <c r="B17" t="s">
-        <v>1420</v>
+      <c r="B17" s="28" t="s">
+        <v>1489</v>
       </c>
       <c r="C17" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D17" t="s">
         <v>1300</v>
       </c>
-      <c r="FK17" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="18" spans="1:167" x14ac:dyDescent="0.25">
+      <c r="FL17" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="18" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>810</v>
       </c>
-      <c r="B18" t="s">
-        <v>1421</v>
+      <c r="B18" s="28" t="s">
+        <v>1490</v>
       </c>
       <c r="C18" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D18" t="s">
         <v>1301</v>
       </c>
-      <c r="FK18" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="19" spans="1:167" x14ac:dyDescent="0.25">
+      <c r="FL18" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="19" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>811</v>
       </c>
-      <c r="B19" t="s">
-        <v>1422</v>
+      <c r="B19" s="28" t="s">
+        <v>1491</v>
       </c>
       <c r="C19" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D19" t="s">
         <v>1302</v>
       </c>
-      <c r="FK19" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="20" spans="1:167" x14ac:dyDescent="0.25">
+      <c r="FL19" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="20" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="21" spans="1:167" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="22" spans="1:167" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="B22" t="s">
-        <v>1424</v>
-      </c>
       <c r="C22" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D22" t="s">
         <v>1305</v>
       </c>
     </row>
-    <row r="23" spans="1:167" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="24" spans="1:167" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>904</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="25" spans="1:167" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>1352</v>
       </c>
     </row>
-    <row r="26" spans="1:167" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
         <v>911</v>
       </c>
-      <c r="B26" t="s">
-        <v>1431</v>
-      </c>
       <c r="C26" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D26" t="s">
         <v>1306</v>
       </c>
     </row>
-    <row r="27" spans="1:167" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
         <v>912</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>184</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>1308</v>
       </c>
     </row>
-    <row r="28" spans="1:167" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1060</v>
       </c>
       <c r="B28"/>
-    </row>
-    <row r="29" spans="1:167" x14ac:dyDescent="0.25">
+      <c r="C28"/>
+    </row>
+    <row r="29" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1106</v>
       </c>
       <c r="B29" t="s">
+        <v>287</v>
+      </c>
+      <c r="C29" t="s">
         <v>259</v>
       </c>
-      <c r="C29"/>
-      <c r="FK29" t="s">
+      <c r="D29"/>
+      <c r="FL29" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="30" spans="1:167" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1128</v>
       </c>
-      <c r="B30" t="s">
-        <v>1429</v>
-      </c>
+      <c r="B30"/>
       <c r="C30" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D30" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="31" spans="1:167" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1129</v>
       </c>
-      <c r="B31" t="s">
-        <v>1450</v>
-      </c>
+      <c r="B31"/>
       <c r="C31" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D31" t="s">
         <v>1309</v>
       </c>
     </row>
-    <row r="32" spans="1:167" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1130</v>
       </c>
-      <c r="B32" t="s">
-        <v>1451</v>
-      </c>
+      <c r="B32"/>
       <c r="C32" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D32" t="s">
         <v>1310</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1171</v>
       </c>
       <c r="B33"/>
       <c r="C33"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D33"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>250</v>
       </c>
-      <c r="B34"/>
-      <c r="C34" t="s">
+      <c r="B34" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34" t="s">
         <v>1355</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1184</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35"/>
+      <c r="C35" t="s">
         <v>287</v>
       </c>
-      <c r="C35"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D35"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1186</v>
       </c>
-      <c r="B36" t="s">
-        <v>1461</v>
-      </c>
+      <c r="B36"/>
       <c r="C36" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D36" t="s">
         <v>1315</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1187</v>
       </c>
-      <c r="B37" t="s">
-        <v>1460</v>
-      </c>
+      <c r="B37"/>
       <c r="C37" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D37" t="s">
         <v>1316</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="28" t="s">
         <v>1199</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>1306</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>901</v>
       </c>
       <c r="B39"/>
-      <c r="C39" t="s">
+      <c r="C39"/>
+      <c r="D39" t="s">
         <v>1326</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1200</v>
       </c>
       <c r="B40"/>
-      <c r="C40" t="s">
+      <c r="C40"/>
+      <c r="D40" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1201</v>
       </c>
       <c r="B41"/>
-      <c r="C41" t="s">
+      <c r="C41"/>
+      <c r="D41" t="s">
         <v>1326</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1202</v>
       </c>
       <c r="B42"/>
-      <c r="C42" t="s">
+      <c r="C42"/>
+      <c r="D42" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1203</v>
       </c>
       <c r="B43"/>
       <c r="C43"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D43"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
         <v>1204</v>
       </c>
-      <c r="C44"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D44"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1205</v>
       </c>
       <c r="B45"/>
-      <c r="C45" t="s">
+      <c r="C45"/>
+      <c r="D45" t="s">
         <v>1326</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="28" t="s">
         <v>1206</v>
       </c>
-      <c r="C46" t="s">
-        <v>1326</v>
-      </c>
       <c r="D46" t="s">
         <v>1326</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1207</v>
       </c>
       <c r="B47"/>
       <c r="C47"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D47"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1208</v>
       </c>
       <c r="B48"/>
       <c r="C48"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D48"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1209</v>
       </c>
       <c r="B49"/>
       <c r="C49"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D49"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>1210</v>
       </c>
       <c r="B50"/>
       <c r="C50"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D50"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1211</v>
       </c>
       <c r="B51"/>
       <c r="C51"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D51"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>1215</v>
       </c>
       <c r="B52"/>
-      <c r="C52" t="s">
-        <v>1331</v>
-      </c>
+      <c r="C52"/>
       <c r="D52" t="s">
         <v>1331</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="28" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>1217</v>
       </c>
       <c r="B54"/>
-      <c r="C54" t="s">
+      <c r="C54"/>
+      <c r="D54" t="s">
         <v>1324</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1218</v>
       </c>
       <c r="B55"/>
-      <c r="C55" t="s">
+      <c r="C55"/>
+      <c r="D55" t="s">
         <v>1325</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1219</v>
       </c>
       <c r="B56"/>
-      <c r="C56" t="s">
-        <v>1320</v>
-      </c>
+      <c r="C56"/>
       <c r="D56" t="s">
         <v>1320</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1220</v>
       </c>
       <c r="B57"/>
-      <c r="C57" t="s">
+      <c r="C57"/>
+      <c r="D57" t="s">
         <v>1332</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>1221</v>
       </c>
       <c r="B58"/>
-      <c r="C58" t="s">
+      <c r="C58"/>
+      <c r="D58" t="s">
         <v>1333</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>1222</v>
       </c>
       <c r="B59"/>
-      <c r="C59" t="s">
-        <v>1326</v>
-      </c>
+      <c r="C59"/>
       <c r="D59" t="s">
         <v>1326</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="28" t="s">
         <v>1223</v>
       </c>
-      <c r="C60"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D60"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1225</v>
       </c>
       <c r="B61"/>
       <c r="C61"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D61"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1226</v>
       </c>
       <c r="B62"/>
       <c r="C62"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D62"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>1227</v>
       </c>
       <c r="B63"/>
       <c r="C63"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D63"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>1228</v>
       </c>
       <c r="B64"/>
       <c r="C64"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1229</v>
       </c>
       <c r="B65"/>
       <c r="C65"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1224</v>
       </c>
       <c r="B66"/>
       <c r="C66"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1233</v>
       </c>
       <c r="B67"/>
       <c r="C67"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1234</v>
       </c>
       <c r="B68"/>
       <c r="C68"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1235</v>
       </c>
       <c r="B69"/>
       <c r="C69"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="28" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B71"/>
+      <c r="C71" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>1456</v>
       </c>
-      <c r="B71" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="B72"/>
+      <c r="C72" t="s">
         <v>1457</v>
       </c>
-      <c r="B72" t="s">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>1458</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>1459</v>
-      </c>
-      <c r="B73" t="s">
+      <c r="B73"/>
+      <c r="C73" t="s">
         <v>1281</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1511</v>
       </c>
     </row>
   </sheetData>
@@ -8041,9 +8258,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -8088,15 +8305,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="60.140625" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="51" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="51.85546875" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="58.140625" style="28" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="57.7109375" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="63.7109375" style="28" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="45.28515625" style="28" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="28" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="31.0" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" style="28" width="60.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="28" width="51.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="28" width="51.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="28" width="58.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="28" width="57.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="28" width="63.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="28" width="45.28515625" collapsed="true"/>
+    <col min="10" max="16384" style="28" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8124,7 +8341,7 @@
         <v>1173</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
@@ -8189,7 +8406,7 @@
         <v>1100</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="D6"/>
       <c r="E6" s="15"/>
@@ -8238,7 +8455,7 @@
         <v>1175</v>
       </c>
       <c r="C9" s="89" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
@@ -8488,10 +8705,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="60.140625" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="9" width="87.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="69.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" style="28" width="60.140625" collapsed="true"/>
+    <col min="4" max="9" bestFit="true" customWidth="true" width="87.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="69.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8520,7 +8737,7 @@
         <v>1173</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
@@ -8592,7 +8809,7 @@
         <v>1100</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="D6" s="15"/>
       <c r="F6" s="15"/>
@@ -8645,7 +8862,7 @@
         <v>1175</v>
       </c>
       <c r="C9" s="89" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
@@ -8977,10 +9194,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.140625" style="28" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.85546875" style="28" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="28" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="24.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="28" width="23.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="28" width="21.85546875" collapsed="true"/>
+    <col min="4" max="16384" style="28" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9002,7 +9219,7 @@
         <v>1275</v>
       </c>
       <c r="C2" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -9035,7 +9252,7 @@
         <v>1100</v>
       </c>
       <c r="C5" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -9057,7 +9274,7 @@
         <v>1174</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -9068,7 +9285,7 @@
         <v>1179</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -9092,7 +9309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -9111,15 +9328,15 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B3" s="101" t="s">
         <v>1484</v>
-      </c>
-      <c r="B3" s="101" t="s">
-        <v>1485</v>
       </c>
     </row>
   </sheetData>
@@ -9140,8 +9357,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="44.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="44.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9270,8 +9487,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="46.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="46.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9381,9 +9598,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9511,8 +9728,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -9551,8 +9768,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="29.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="29.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -9601,7 +9818,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="28" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -10919,8 +11136,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="32.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -10955,8 +11172,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -11012,8 +11229,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11063,50 +11280,50 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="16" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="22" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="28" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="34" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="40" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="46" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="52" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="57" max="58" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="63" max="64" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="15" max="16" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="21" max="22" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="27" max="28" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="33" max="34" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="39" max="40" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="45" max="46" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="51" max="52" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="57" max="58" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="63" max="64" customWidth="true" width="11.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:64" x14ac:dyDescent="0.25">
@@ -11341,40 +11558,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -11550,7 +11767,7 @@
       <c r="B4" s="56"/>
       <c r="C4" s="56"/>
       <c r="D4" s="105" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
   </sheetData>
@@ -11572,8 +11789,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -11612,8 +11829,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11643,19 +11860,20 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="24.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>191</v>
       </c>
@@ -11665,8 +11883,11 @@
       <c r="C1">
         <v>1008</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>253</v>
       </c>
@@ -11676,8 +11897,11 @@
       <c r="C2" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -11687,8 +11911,11 @@
       <c r="C3">
         <v>1008</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -11698,8 +11925,11 @@
       <c r="C4" t="s">
         <v>1182</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -11709,8 +11939,11 @@
       <c r="C5">
         <v>1008</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>255</v>
       </c>
@@ -11720,8 +11953,11 @@
       <c r="C6" s="101" t="s">
         <v>1353</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="101" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>256</v>
       </c>
@@ -11731,8 +11967,11 @@
       <c r="C7">
         <v>10000</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>257</v>
       </c>
@@ -11740,6 +11979,9 @@
         <v>258</v>
       </c>
       <c r="C8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D8" t="s">
         <v>258</v>
       </c>
     </row>
@@ -11754,20 +11996,20 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="12.42578125" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="28" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="21.140625" collapsed="true"/>
+    <col min="2" max="4" bestFit="true" customWidth="true" style="28" width="12.42578125" collapsed="true"/>
+    <col min="5" max="16384" style="28" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="82" t="s">
         <v>63</v>
       </c>
@@ -11777,8 +12019,11 @@
       <c r="C1" s="28">
         <v>1008</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="28">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>249</v>
       </c>
@@ -11788,8 +12033,11 @@
       <c r="C2" s="28" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="28" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -11799,15 +12047,19 @@
       <c r="C3" s="28">
         <v>1008</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="28">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>250</v>
       </c>
       <c r="B4"/>
       <c r="C4"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>251</v>
       </c>
@@ -11817,8 +12069,11 @@
       <c r="C5" s="28" t="s">
         <v>1183</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="28" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>216</v>
       </c>
@@ -11826,6 +12081,9 @@
         <v>252</v>
       </c>
       <c r="C6" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" s="28" t="s">
         <v>252</v>
       </c>
     </row>
@@ -11840,19 +12098,19 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="2" max="4" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="68" t="s">
         <v>4</v>
       </c>
@@ -11862,8 +12120,11 @@
       <c r="C1" s="74" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="74">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
         <v>210</v>
       </c>
@@ -11873,8 +12134,11 @@
       <c r="C2" s="80" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="80">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
         <v>211</v>
       </c>
@@ -11884,15 +12148,19 @@
       <c r="C3" s="80" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="80" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="51" t="s">
         <v>213</v>
       </c>
       <c r="B4" s="75"/>
       <c r="C4" s="75"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="75"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="51" t="s">
         <v>215</v>
       </c>
@@ -11902,8 +12170,11 @@
       <c r="C5" s="76" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="76" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="77" t="s">
         <v>216</v>
       </c>
@@ -11911,6 +12182,9 @@
         <v>217</v>
       </c>
       <c r="C6" s="78" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" s="78" t="s">
         <v>217</v>
       </c>
     </row>
@@ -11933,7 +12207,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13979,19 +14253,19 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="2" max="4" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="70" t="s">
         <v>4</v>
       </c>
@@ -14001,8 +14275,11 @@
       <c r="C1" s="24" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="24">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>210</v>
       </c>
@@ -14012,8 +14289,11 @@
       <c r="C2">
         <v>1008</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>211</v>
       </c>
@@ -14023,13 +14303,16 @@
       <c r="C3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
         <v>215</v>
       </c>
@@ -14039,8 +14322,11 @@
       <c r="C5" s="71" t="s">
         <v>1354</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="71" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="69" t="s">
         <v>216</v>
       </c>
@@ -14048,6 +14334,9 @@
         <v>217</v>
       </c>
       <c r="C6" s="71" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" s="71" t="s">
         <v>217</v>
       </c>
     </row>
@@ -14062,63 +14351,79 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="68" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="60" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="60" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="69" t="s">
         <v>213</v>
       </c>
       <c r="B2" s="72" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="72"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
         <v>218</v>
       </c>
       <c r="B3" s="79" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="79" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="51" t="s">
         <v>220</v>
       </c>
       <c r="B4" s="71" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="71" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="51" t="s">
         <v>221</v>
       </c>
       <c r="B5" s="72" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="72" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
         <v>223</v>
       </c>
       <c r="B6" s="73" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" s="73" t="s">
         <v>224</v>
       </c>
     </row>
@@ -14141,12 +14446,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="15" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="7" max="15" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -14235,16 +14540,16 @@
         <v>1008</v>
       </c>
       <c r="C4" s="101" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D4" s="101" t="s">
+        <v>1452</v>
+      </c>
+      <c r="E4" t="s">
         <v>1453</v>
       </c>
-      <c r="D4" s="101" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>1454</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1455</v>
       </c>
     </row>
   </sheetData>
@@ -14266,7 +14571,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -14305,7 +14610,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14341,8 +14646,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -14393,9 +14698,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="24.42578125" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="28" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="20.42578125" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" style="28" width="24.42578125" collapsed="true"/>
+    <col min="4" max="16384" style="28" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -14465,9 +14770,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="24.42578125" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="28" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="20.42578125" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" style="28" width="24.42578125" collapsed="true"/>
+    <col min="4" max="16384" style="28" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -14542,8 +14847,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -14591,9 +14896,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="24.42578125" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="28" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="20.42578125" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" style="28" width="24.42578125" collapsed="true"/>
+    <col min="4" max="16384" style="28" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -14677,14 +14982,14 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="50.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="50.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -14712,7 +15017,7 @@
         <v>1370</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -14726,7 +15031,7 @@
         <v>1371</v>
       </c>
       <c r="D3" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -14779,7 +15084,7 @@
         <v>288</v>
       </c>
       <c r="C7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D7" t="s">
         <v>290</v>
@@ -14807,10 +15112,10 @@
         <v>1296</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>1377</v>
+        <v>1485</v>
       </c>
       <c r="D9" s="56" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -14821,10 +15126,10 @@
         <v>1295</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>1377</v>
+        <v>1485</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -14835,7 +15140,7 @@
         <v>289</v>
       </c>
       <c r="C11" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="D11" t="s">
         <v>259</v>
@@ -14978,7 +15283,7 @@
         <v>1375</v>
       </c>
       <c r="D21" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -15047,17 +15352,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -15201,13 +15506,13 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B2" s="57"/>
       <c r="C2" s="57"/>
       <c r="D2" s="57"/>
       <c r="K2" s="56" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -15237,9 +15542,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.28515625" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="28" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="14.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="28" width="15.28515625" collapsed="true"/>
+    <col min="3" max="16384" style="28" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -15317,8 +15622,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -15388,11 +15693,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -15574,9 +15879,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="49.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="49.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -15762,9 +16067,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="49.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="49.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -15968,8 +16273,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -16242,8 +16547,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -16521,8 +16826,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="28.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16584,9 +16889,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="43.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="53.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="43.85546875" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="53.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -16614,7 +16919,7 @@
         <v>1370</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -16681,10 +16986,10 @@
         <v>847</v>
       </c>
       <c r="C7" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D7" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -16740,7 +17045,7 @@
         <v>1376</v>
       </c>
       <c r="D11" s="56" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -16754,7 +17059,7 @@
         <v>1376</v>
       </c>
       <c r="D12" s="56" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -17019,8 +17324,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="28.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17098,8 +17403,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="29.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -17179,8 +17484,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="39.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -17276,8 +17581,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="25.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -17363,8 +17668,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="25.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -17434,8 +17739,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -17481,8 +17786,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="39.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -17544,8 +17849,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -17607,8 +17912,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17654,8 +17959,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -17717,10 +18022,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.85546875" style="28" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="20.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="28" width="31.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -17762,7 +18067,7 @@
         <v>1370</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -17787,10 +18092,10 @@
         <v>1109</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -17801,10 +18106,10 @@
         <v>1110</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -17843,10 +18148,10 @@
         <v>1111</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -17857,10 +18162,10 @@
         <v>1112</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -17871,10 +18176,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -17885,10 +18190,10 @@
         <v>1113</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -17899,10 +18204,10 @@
         <v>1114</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -17913,10 +18218,10 @@
         <v>1115</v>
       </c>
       <c r="C14" s="112" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -17935,10 +18240,10 @@
         <v>1189</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -17984,8 +18289,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -18047,8 +18352,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="25.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -18110,8 +18415,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -18248,8 +18553,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -18311,9 +18616,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="98" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35" style="98" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="98" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="98" width="18.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="98" width="35.0" collapsed="true"/>
+    <col min="3" max="16384" style="98" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -18354,8 +18659,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -18406,8 +18711,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -18451,9 +18756,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="98" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35" style="98" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="98" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="98" width="18.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="98" width="35.0" collapsed="true"/>
+    <col min="3" max="16384" style="98" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -18497,17 +18802,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -18651,10 +18956,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="46" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.5703125" style="46" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.85546875" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="28" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="46" width="30.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="46" width="33.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="28" width="26.85546875" collapsed="true"/>
+    <col min="4" max="16384" style="28" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -18716,7 +19021,7 @@
         <v>1109</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -18727,7 +19032,7 @@
         <v>1110</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -18760,7 +19065,7 @@
         <v>1111</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -18771,7 +19076,7 @@
         <v>1112</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -18782,7 +19087,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -18793,7 +19098,7 @@
         <v>1113</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -18804,7 +19109,7 @@
         <v>1114</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -18815,7 +19120,7 @@
         <v>1115</v>
       </c>
       <c r="C15" s="112" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -18835,7 +19140,7 @@
         <v>1307</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -18858,7 +19163,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="28" collapsed="1"/>
+    <col min="1" max="16384" style="28" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -19060,17 +19365,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -19099,13 +19404,13 @@
         <v>182</v>
       </c>
       <c r="I1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="J1" t="s">
         <v>1464</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>1465</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1466</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -19122,19 +19427,19 @@
         <v>1319</v>
       </c>
       <c r="E2" s="57" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F2" s="57" t="s">
         <v>1467</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="I2" t="s">
         <v>1468</v>
-      </c>
-      <c r="I2" t="s">
-        <v>1469</v>
       </c>
       <c r="J2" s="56" t="s">
         <v>184</v>
       </c>
       <c r="K2" s="56" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
   </sheetData>
@@ -19153,20 +19458,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9.140625" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="14" max="14" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -19189,34 +19494,34 @@
         <v>1195</v>
       </c>
       <c r="G1" s="57" t="s">
+        <v>1470</v>
+      </c>
+      <c r="H1" s="57" t="s">
         <v>1471</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="I1" s="57" t="s">
         <v>1472</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="J1" s="57" t="s">
         <v>1473</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="K1" s="57" t="s">
         <v>1474</v>
-      </c>
-      <c r="K1" s="57" t="s">
-        <v>1475</v>
       </c>
       <c r="L1" s="27" t="s">
         <v>164</v>
       </c>
       <c r="M1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="N1" s="28" t="s">
         <v>102</v>
       </c>
       <c r="O1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="P1" t="s">
         <v>1465</v>
-      </c>
-      <c r="P1" t="s">
-        <v>1466</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -19233,37 +19538,37 @@
         <v>1319</v>
       </c>
       <c r="E2" s="57" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F2" s="57" t="s">
         <v>1467</v>
       </c>
-      <c r="F2" s="57" t="s">
-        <v>1468</v>
-      </c>
       <c r="G2" s="57" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H2" s="57" t="s">
         <v>1476</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="I2" s="57" t="s">
         <v>1477</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="J2" s="57" t="s">
         <v>1478</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="K2" s="57" t="s">
         <v>1479</v>
       </c>
-      <c r="K2" s="57" t="s">
+      <c r="M2" t="s">
         <v>1480</v>
       </c>
-      <c r="M2" t="s">
-        <v>1481</v>
-      </c>
       <c r="N2" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="O2" s="56" t="s">
         <v>1190</v>
       </c>
       <c r="P2" s="56" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19286,8 +19591,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -19328,8 +19633,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="28" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -19364,41 +19669,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
@@ -19553,16 +19858,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="28.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:60" x14ac:dyDescent="0.25">
@@ -19875,9 +20180,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="28" width="11.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -19927,8 +20232,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="28" collapsed="1"/>
-    <col min="50" max="16384" width="9.140625" style="28" collapsed="1"/>
+    <col min="1" max="1" style="28" width="9.140625" collapsed="true"/>
+    <col min="50" max="16384" style="28" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.25">
@@ -20227,9 +20532,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="98" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.28515625" style="98" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="8.7109375" style="98" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="98" width="17.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="98" width="16.28515625" collapsed="true"/>
+    <col min="3" max="16384" style="98" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -20351,44 +20656,44 @@
   <dimension ref="A1:AP4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
@@ -20527,7 +20832,7 @@
         <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="E2">
         <v>12</v>
@@ -20536,10 +20841,10 @@
         <v>500</v>
       </c>
       <c r="G2" t="s">
+        <v>1390</v>
+      </c>
+      <c r="H2" t="s">
         <v>1391</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1392</v>
       </c>
       <c r="I2">
         <v>20</v>
@@ -20548,10 +20853,10 @@
         <v>500</v>
       </c>
       <c r="K2" t="s">
+        <v>1390</v>
+      </c>
+      <c r="L2" t="s">
         <v>1391</v>
-      </c>
-      <c r="L2" t="s">
-        <v>1392</v>
       </c>
       <c r="M2">
         <v>15</v>
@@ -20560,10 +20865,10 @@
         <v>1500</v>
       </c>
       <c r="O2" t="s">
+        <v>1390</v>
+      </c>
+      <c r="P2" t="s">
         <v>1391</v>
-      </c>
-      <c r="P2" t="s">
-        <v>1392</v>
       </c>
       <c r="Q2">
         <v>10</v>
@@ -20572,10 +20877,10 @@
         <v>2000</v>
       </c>
       <c r="S2" t="s">
+        <v>1390</v>
+      </c>
+      <c r="T2" t="s">
         <v>1391</v>
-      </c>
-      <c r="T2" t="s">
-        <v>1392</v>
       </c>
       <c r="U2">
         <v>25</v>
@@ -20584,10 +20889,10 @@
         <v>200</v>
       </c>
       <c r="W2" t="s">
+        <v>1390</v>
+      </c>
+      <c r="X2" t="s">
         <v>1391</v>
-      </c>
-      <c r="X2" t="s">
-        <v>1392</v>
       </c>
       <c r="Y2">
         <v>12</v>
@@ -20633,7 +20938,7 @@
         <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="E4">
         <v>12</v>
@@ -20642,10 +20947,10 @@
         <v>500</v>
       </c>
       <c r="G4" t="s">
+        <v>1390</v>
+      </c>
+      <c r="H4" t="s">
         <v>1391</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1392</v>
       </c>
       <c r="I4">
         <v>20</v>
@@ -20654,10 +20959,10 @@
         <v>500</v>
       </c>
       <c r="K4" t="s">
+        <v>1390</v>
+      </c>
+      <c r="L4" t="s">
         <v>1391</v>
-      </c>
-      <c r="L4" t="s">
-        <v>1392</v>
       </c>
       <c r="M4">
         <v>15</v>
@@ -20666,10 +20971,10 @@
         <v>1500</v>
       </c>
       <c r="O4" t="s">
+        <v>1390</v>
+      </c>
+      <c r="P4" t="s">
         <v>1391</v>
-      </c>
-      <c r="P4" t="s">
-        <v>1392</v>
       </c>
       <c r="Q4">
         <v>10</v>
@@ -20694,9 +20999,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="98" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.28515625" style="98" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="8.7109375" style="98" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="98" width="17.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="98" width="22.28515625" collapsed="true"/>
+    <col min="3" max="16384" style="98" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -20787,9 +21092,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="98" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.140625" style="98" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="8.7109375" style="98" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="98" width="22.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="98" width="34.140625" collapsed="true"/>
+    <col min="3" max="16384" style="98" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -20880,20 +21185,353 @@
 
 <file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.85546875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="96" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="108">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="98" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B2" s="100" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="98" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B3" s="98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="98" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B4" s="100" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="96" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="108">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="98" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B2" s="100" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="98" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B3" s="98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="98" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B4" s="100" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="96" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="108">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="98" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B2" s="100" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="98" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B3" s="98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="98" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B4" s="100" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="113" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="9" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="4" max="9" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21107,20 +21745,15 @@
       <c r="L11" s="37"/>
     </row>
     <row r="18" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H18" s="89" t="s">
-        <v>1094</v>
-      </c>
+      <c r="H18" s="89"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H18" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -21133,8 +21766,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="36.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/WppRegpack/TestResource/Regression/DS_SPN_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_SPN_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620" firstSheet="68" activeTab="68"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620" firstSheet="84" activeTab="87"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -99,18 +99,19 @@
     <sheet name="InvoiceOnAccount" sheetId="76" r:id="rId85"/>
     <sheet name="InvoicingFromBudget" sheetId="77" r:id="rId86"/>
     <sheet name="JobInvoiceAllocation_WIP" sheetId="78" r:id="rId87"/>
-    <sheet name="InvoiceMPL" sheetId="80" r:id="rId88"/>
-    <sheet name="CreatePaymentFile" sheetId="89" r:id="rId89"/>
-    <sheet name="CreatePaymentSelection" sheetId="90" r:id="rId90"/>
-    <sheet name="PrintPaymentRemittance" sheetId="91" r:id="rId91"/>
-    <sheet name="AbsenceRequest" sheetId="97" r:id="rId92"/>
-    <sheet name="RejectAbsence" sheetId="99" r:id="rId93"/>
-    <sheet name="ApproveAbsence" sheetId="98" r:id="rId94"/>
-    <sheet name="AbsenceAllowanceRequest" sheetId="100" r:id="rId95"/>
-    <sheet name="RejectAllowanceRequest" sheetId="101" r:id="rId96"/>
-    <sheet name="ApproveAllowanceRequest" sheetId="102" r:id="rId97"/>
-    <sheet name="Agency Users" sheetId="11" r:id="rId98"/>
-    <sheet name="SSC Users" sheetId="12" r:id="rId99"/>
+    <sheet name="CombinedInvoice" sheetId="103" r:id="rId88"/>
+    <sheet name="InvoiceMPL" sheetId="80" r:id="rId89"/>
+    <sheet name="CreatePaymentFile" sheetId="89" r:id="rId90"/>
+    <sheet name="CreatePaymentSelection" sheetId="90" r:id="rId91"/>
+    <sheet name="PrintPaymentRemittance" sheetId="91" r:id="rId92"/>
+    <sheet name="AbsenceRequest" sheetId="97" r:id="rId93"/>
+    <sheet name="RejectAbsence" sheetId="99" r:id="rId94"/>
+    <sheet name="ApproveAbsence" sheetId="98" r:id="rId95"/>
+    <sheet name="AbsenceAllowanceRequest" sheetId="100" r:id="rId96"/>
+    <sheet name="RejectAllowanceRequest" sheetId="101" r:id="rId97"/>
+    <sheet name="ApproveAllowanceRequest" sheetId="102" r:id="rId98"/>
+    <sheet name="Agency Users" sheetId="11" r:id="rId99"/>
+    <sheet name="SSC Users" sheetId="12" r:id="rId100"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -122,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3270" uniqueCount="1496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3281" uniqueCount="1501">
   <si>
     <t>Description</t>
   </si>
@@ -4612,6 +4613,21 @@
   </si>
   <si>
     <t>A Dos Disseny Amb Cartro Sl</t>
+  </si>
+  <si>
+    <t>JobCreation5</t>
+  </si>
+  <si>
+    <t>JobBudgetCreation5</t>
+  </si>
+  <si>
+    <t>CreateQuote5</t>
+  </si>
+  <si>
+    <t>12849905</t>
+  </si>
+  <si>
+    <t>10069905</t>
   </si>
 </sst>
 </file>
@@ -5501,6 +5517,149 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="85" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="83" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="83" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="83" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="83" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="83" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="83" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="83" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="83" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="83" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="83" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="83" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="83" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="84" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM4"/>
@@ -17742,7 +17901,7 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -19993,6 +20152,78 @@
 
 <file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.140625" collapsed="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9.140625" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1284</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>1498</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1006</v>
+      </c>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="F3" s="56" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20283,132 +20514,6 @@
       </c>
       <c r="AW2" t="s">
         <v>1188</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.5703125" style="95" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.28515625" style="95" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="8.7109375" style="95" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="105">
-        <v>1003</v>
-      </c>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="95" t="s">
-        <v>1235</v>
-      </c>
-      <c r="B3" s="97" t="s">
-        <v>1310</v>
-      </c>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>719</v>
-      </c>
-      <c r="B4" s="107" t="s">
-        <v>1288</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="95" t="s">
-        <v>1236</v>
-      </c>
-      <c r="B5" s="107" t="s">
-        <v>1289</v>
-      </c>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="95" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B6" s="106" t="s">
-        <v>1246</v>
-      </c>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B7" s="107" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="95" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B8" s="107" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13" s="95" t="s">
-        <v>1240</v>
       </c>
     </row>
   </sheetData>
@@ -20760,6 +20865,132 @@
 
 <file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" style="95" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.28515625" style="95" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="8.7109375" style="95" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="105">
+        <v>1003</v>
+      </c>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="95" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="95" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B3" s="97" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>719</v>
+      </c>
+      <c r="B4" s="107" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="95" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B5" s="107" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="95" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B6" s="106" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="95" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B7" s="107" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="95" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B8" s="107" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13" s="95" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20851,7 +21082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -20952,7 +21183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -21003,7 +21234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -21054,7 +21285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -21105,7 +21336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -21163,7 +21394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -21224,7 +21455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -21285,7 +21516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -21520,147 +21751,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFC00000"/>
-  </sheetPr>
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="85" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="86" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="83" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>141</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="83" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="83" t="s">
-        <v>144</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="83" t="s">
-        <v>145</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="83" t="s">
-        <v>146</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="83" t="s">
-        <v>147</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="83" t="s">
-        <v>148</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="83" t="s">
-        <v>149</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="83" t="s">
-        <v>150</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="83" t="s">
-        <v>151</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="84" t="s">
-        <v>152</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/WppRegpack/TestResource/Regression/DS_SPN_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_SPN_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" firstSheet="78" activeTab="80"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" firstSheet="120" activeTab="123"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4650" uniqueCount="1776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4712" uniqueCount="1817">
   <si>
     <t>Description</t>
   </si>
@@ -4547,9 +4547,6 @@
     <t>Global Regression</t>
   </si>
   <si>
-    <t>EMEA - SPA -1008 - Ogilvy &amp; Mather Publicidad Madrid, S.A.U.</t>
-  </si>
-  <si>
     <t>Project Manager</t>
   </si>
   <si>
@@ -4802,9 +4799,6 @@
     <t>C:\GlobalTestSuiteAutomation\WppRegPack\MPLReports\Critical_Regression\Spain\1008\Print Job Quote-2.pdf</t>
   </si>
   <si>
-    <t>A10080031</t>
-  </si>
-  <si>
     <t>100825717</t>
   </si>
   <si>
@@ -4934,33 +4928,6 @@
     <t>1008_GlobalVendor 07June2021 12:45:21</t>
   </si>
   <si>
-    <t>610.84</t>
-  </si>
-  <si>
-    <t>12,216.80</t>
-  </si>
-  <si>
-    <t>2,565.53</t>
-  </si>
-  <si>
-    <t>14782.33</t>
-  </si>
-  <si>
-    <t>1,832.51</t>
-  </si>
-  <si>
-    <t>27,487.65</t>
-  </si>
-  <si>
-    <t>5,772.41</t>
-  </si>
-  <si>
-    <t>33260.06</t>
-  </si>
-  <si>
-    <t>70,137.95</t>
-  </si>
-  <si>
     <t>100825888</t>
   </si>
   <si>
@@ -5423,27 +5390,9 @@
     <t>100838341</t>
   </si>
   <si>
-    <t>6/7/2021</t>
-  </si>
-  <si>
-    <t>6/1/2021</t>
-  </si>
-  <si>
-    <t>6/30/2021</t>
-  </si>
-  <si>
-    <t>1008613038</t>
-  </si>
-  <si>
     <t>100811882</t>
   </si>
   <si>
-    <t>2,443.35</t>
-  </si>
-  <si>
-    <t>24,433.50</t>
-  </si>
-  <si>
     <t>C:\GlobalTestSuiteAutomation\WppRegPack\MPLReports\Critical_Regression\Spain\1008\P_JobBudget.pdf</t>
   </si>
   <si>
@@ -5490,6 +5439,180 @@
   </si>
   <si>
     <t>100838347</t>
+  </si>
+  <si>
+    <t>A1008003111</t>
+  </si>
+  <si>
+    <t>A100800311</t>
+  </si>
+  <si>
+    <t>103457</t>
+  </si>
+  <si>
+    <t>1008_AutoClient 13July2021 15:22:37</t>
+  </si>
+  <si>
+    <t>103457001</t>
+  </si>
+  <si>
+    <t>AutoGlobalBrand 13July2021 15:22:37</t>
+  </si>
+  <si>
+    <t>103457001001</t>
+  </si>
+  <si>
+    <t>AutoGlobalProduct 13July2021 15:22:37</t>
+  </si>
+  <si>
+    <t>1009769</t>
+  </si>
+  <si>
+    <t>1008_GlobalVendor 13July2021 16:02:48</t>
+  </si>
+  <si>
+    <t>100826068</t>
+  </si>
+  <si>
+    <t>Branch Name</t>
+  </si>
+  <si>
+    <t>HDFC</t>
+  </si>
+  <si>
+    <t>EMEA - SPA - 1008 - Ogilvy &amp; Mather Publicidad Madrid, S.A.U.</t>
+  </si>
+  <si>
+    <t>592.86</t>
+  </si>
+  <si>
+    <t>11,857.20</t>
+  </si>
+  <si>
+    <t>2,490.01</t>
+  </si>
+  <si>
+    <t>14347.21</t>
+  </si>
+  <si>
+    <t>1,778.58</t>
+  </si>
+  <si>
+    <t>26,678.70</t>
+  </si>
+  <si>
+    <t>5,602.53</t>
+  </si>
+  <si>
+    <t>32281.23</t>
+  </si>
+  <si>
+    <t>68,250.30</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>1008703478</t>
+  </si>
+  <si>
+    <t>Expense Description</t>
+  </si>
+  <si>
+    <t>Expenses 13July2021 18:03:39</t>
+  </si>
+  <si>
+    <t>100822687</t>
+  </si>
+  <si>
+    <t>100839244</t>
+  </si>
+  <si>
+    <t>8/12/2021</t>
+  </si>
+  <si>
+    <t>100839245</t>
+  </si>
+  <si>
+    <t>7/13/2021</t>
+  </si>
+  <si>
+    <t>7/1/2021</t>
+  </si>
+  <si>
+    <t>7/31/2021</t>
+  </si>
+  <si>
+    <t>1008614671</t>
+  </si>
+  <si>
+    <t>100810438</t>
+  </si>
+  <si>
+    <t>1008AutomationEmpy13July2021195040@gmail.com</t>
+  </si>
+  <si>
+    <t>100810439</t>
+  </si>
+  <si>
+    <t>2,371.44</t>
+  </si>
+  <si>
+    <t>23,714.40</t>
+  </si>
+  <si>
+    <t>C:\GlobalTestSuiteAutomation\WppRegPack\MPLReports\Critical_Regression\Spain\1008\P_JobBudget-1.pdf</t>
+  </si>
+  <si>
+    <t>C:\GlobalTestSuiteAutomation\WppRegPack\MPLReports\Critical_Regression\Spain\1008\P_PurchaseOrder-2.pdf</t>
+  </si>
+  <si>
+    <t>C:\GlobalTestSuiteAutomation\WppRegPack\MPLReports\Critical_Regression\Spain\1008\PaymentSelection-4.pdf</t>
+  </si>
+  <si>
+    <t>C:\GlobalTestSuiteAutomation\WppRegPack\MPLReports\Critical_Regression\Spain\1008\P_PaymentOrder-4.pdf</t>
+  </si>
+  <si>
+    <t>100826069</t>
+  </si>
+  <si>
+    <t>100826070</t>
+  </si>
+  <si>
+    <t>C:\GlobalTestSuiteAutomation\WppRegPack\MPLReports\Critical_Regression\Spain\1008\Print Job Quote-9.pdf</t>
+  </si>
+  <si>
+    <t>C:\GlobalTestSuiteAutomation\WppRegPack\MPLReports\Critical_Regression\Spain\1008\Print Job Order Confirmation-3.pdf</t>
+  </si>
+  <si>
+    <t>C:\GlobalTestSuiteAutomation\WppRegPack\MPLReports\Critical_Regression\Spain\1008\Print Invoice Editing-6.pdf</t>
+  </si>
+  <si>
+    <t>1008408562</t>
+  </si>
+  <si>
+    <t>1008408563</t>
+  </si>
+  <si>
+    <t>1008408564</t>
+  </si>
+  <si>
+    <t>1008453068</t>
+  </si>
+  <si>
+    <t>100839251</t>
+  </si>
+  <si>
+    <t>1008453069</t>
+  </si>
+  <si>
+    <t>100839252</t>
+  </si>
+  <si>
+    <t>1008453070</t>
+  </si>
+  <si>
+    <t>100839253</t>
   </si>
 </sst>
 </file>
@@ -6253,7 +6376,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6312,7 +6435,7 @@
         <v>803</v>
       </c>
       <c r="B5" s="110" t="s">
-        <v>1461</v>
+        <v>1772</v>
       </c>
     </row>
   </sheetData>
@@ -6402,7 +6525,7 @@
         <v>1435</v>
       </c>
       <c r="D6" s="103" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -7100,7 +7223,7 @@
         <v>942</v>
       </c>
       <c r="H4" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="I4" s="55" t="s">
         <v>811</v>
@@ -7116,7 +7239,7 @@
         <v>249</v>
       </c>
       <c r="O4" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="P4" s="55" t="s">
         <v>943</v>
@@ -7412,28 +7535,28 @@
         <v>783</v>
       </c>
       <c r="B4" t="s">
-        <v>1752</v>
+        <v>1789</v>
       </c>
       <c r="C4" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="D4" t="s">
         <v>795</v>
       </c>
       <c r="E4" t="s">
-        <v>1753</v>
+        <v>1790</v>
       </c>
       <c r="F4" t="s">
-        <v>1754</v>
+        <v>1791</v>
       </c>
       <c r="G4" t="s">
-        <v>1755</v>
+        <v>1792</v>
       </c>
       <c r="H4" t="s">
-        <v>1756</v>
+        <v>1793</v>
       </c>
       <c r="I4" t="s">
-        <v>1753</v>
+        <v>1790</v>
       </c>
       <c r="J4" t="s">
         <v>942</v>
@@ -7463,16 +7586,16 @@
         <v>1226</v>
       </c>
       <c r="S4" t="s">
-        <v>1756</v>
+        <v>1793</v>
       </c>
       <c r="T4" t="s">
-        <v>1753</v>
+        <v>1790</v>
       </c>
       <c r="U4" t="s">
         <v>249</v>
       </c>
       <c r="V4" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="W4" t="s">
         <v>1231</v>
@@ -8677,10 +8800,10 @@
     </row>
     <row r="3" spans="1:7" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="92" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B3" s="94" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="C3" s="94"/>
       <c r="D3"/>
@@ -8690,10 +8813,10 @@
     </row>
     <row r="4" spans="1:7" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="92" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B4" s="103" t="s">
         <v>1502</v>
-      </c>
-      <c r="B4" s="103" t="s">
-        <v>1503</v>
       </c>
       <c r="C4" s="103"/>
     </row>
@@ -8984,10 +9107,10 @@
 
 <file path=xl/worksheets/sheet124.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF3"/>
+  <dimension ref="A1:BF4"/>
   <sheetViews>
-    <sheetView topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="BA11" sqref="BA11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9379,6 +9502,11 @@
       <c r="BD3"/>
       <c r="BE3"/>
       <c r="BF3"/>
+    </row>
+    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>783</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9894,7 +10022,7 @@
         <v>179</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>94</v>
@@ -9962,7 +10090,7 @@
         <v>1008</v>
       </c>
       <c r="B2" t="s">
-        <v>1599</v>
+        <v>1769</v>
       </c>
       <c r="C2" t="s">
         <v>1036</v>
@@ -10038,8 +10166,8 @@
   </sheetPr>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10199,7 +10327,7 @@
         <v>1271</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>1546</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -10216,7 +10344,7 @@
         <v>1271</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>1546</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -10498,7 +10626,7 @@
         <v>683</v>
       </c>
       <c r="E28" s="55" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
   </sheetData>
@@ -10518,10 +10646,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A7" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10756,184 +10884,198 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>722</v>
-      </c>
-      <c r="B17" t="s">
-        <v>833</v>
-      </c>
-      <c r="C17" t="s">
-        <v>833</v>
-      </c>
-      <c r="D17" t="s">
-        <v>833</v>
+      <c r="A17" s="28" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>1771</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B18" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="C18" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="D18" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>724</v>
-      </c>
-      <c r="B19" s="55" t="s">
-        <v>725</v>
-      </c>
-      <c r="C19" s="55" t="s">
-        <v>725</v>
-      </c>
-      <c r="D19" s="55" t="s">
-        <v>725</v>
+        <v>723</v>
+      </c>
+      <c r="B19" t="s">
+        <v>830</v>
+      </c>
+      <c r="C19" t="s">
+        <v>830</v>
+      </c>
+      <c r="D19" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>226</v>
+        <v>725</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>226</v>
+        <v>725</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>226</v>
+        <v>725</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>727</v>
-      </c>
-      <c r="B21" t="s">
-        <v>820</v>
-      </c>
-      <c r="C21" t="s">
-        <v>820</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1011</v>
+        <v>726</v>
+      </c>
+      <c r="B21" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="D21" s="55" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>823</v>
+        <v>727</v>
       </c>
       <c r="B22" t="s">
-        <v>685</v>
+        <v>820</v>
       </c>
       <c r="C22" t="s">
-        <v>685</v>
+        <v>820</v>
       </c>
       <c r="D22" t="s">
-        <v>1082</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>728</v>
+        <v>823</v>
       </c>
       <c r="B23" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="C23" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="D23" t="s">
-        <v>697</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B24" t="s">
-        <v>720</v>
+        <v>697</v>
       </c>
       <c r="C24" t="s">
-        <v>720</v>
+        <v>697</v>
       </c>
       <c r="D24" t="s">
-        <v>720</v>
+        <v>697</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B25" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="C25" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="D25" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B26" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C26" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D26" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>734</v>
-      </c>
-      <c r="B27">
-        <v>3000</v>
-      </c>
-      <c r="C27">
-        <v>3000</v>
-      </c>
-      <c r="D27">
-        <v>3000</v>
+        <v>732</v>
+      </c>
+      <c r="B27" t="s">
+        <v>733</v>
+      </c>
+      <c r="C27" t="s">
+        <v>733</v>
+      </c>
+      <c r="D27" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B28">
-        <v>300000</v>
+        <v>3000</v>
       </c>
       <c r="C28">
-        <v>300000</v>
+        <v>3000</v>
       </c>
       <c r="D28">
-        <v>300000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>735</v>
+      </c>
+      <c r="B29">
+        <v>300000</v>
+      </c>
+      <c r="C29">
+        <v>300000</v>
+      </c>
+      <c r="D29">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>822</v>
       </c>
-      <c r="B29" s="55" t="s">
+      <c r="B30" s="55" t="s">
         <v>824</v>
       </c>
-      <c r="C29" s="55" t="s">
+      <c r="C30" s="55" t="s">
         <v>824</v>
       </c>
-      <c r="D29" s="55" t="s">
+      <c r="D30" s="55" t="s">
         <v>824</v>
       </c>
     </row>
@@ -11124,8 +11266,8 @@
   </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11380,7 +11522,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="D20" s="1">
         <v>10089910</v>
@@ -11950,22 +12092,22 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:FQ141"/>
+  <dimension ref="A1:FR142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" customWidth="true" style="28" width="31.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="28" width="32.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="28" width="42.5703125" collapsed="true"/>
-    <col min="10" max="171" customWidth="true" style="28" width="32.0" collapsed="true"/>
-    <col min="172" max="16384" style="28" width="9.140625" collapsed="true"/>
+    <col min="1" max="8" customWidth="true" style="28" width="31.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="28" width="32.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="28" width="42.5703125" collapsed="true"/>
+    <col min="11" max="172" customWidth="true" style="28" width="32.0" collapsed="true"/>
+    <col min="173" max="16384" style="28" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>156</v>
       </c>
@@ -11979,18 +12121,20 @@
         <v>1008</v>
       </c>
       <c r="E1" s="14">
+        <v>1008</v>
+      </c>
+      <c r="F1" s="14">
         <v>10081</v>
       </c>
-      <c r="F1" s="14">
+      <c r="G1" s="14">
         <v>1006</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>1270</v>
       </c>
-      <c r="H1" s="14">
+      <c r="I1" s="14">
         <v>1003</v>
       </c>
-      <c r="I1" s="14"/>
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
       <c r="L1" s="14"/>
@@ -12153,188 +12297,207 @@
       <c r="FM1" s="14"/>
       <c r="FN1" s="14"/>
       <c r="FO1" s="14"/>
-      <c r="FP1" t="s">
+      <c r="FP1" s="14"/>
+      <c r="FQ1" t="s">
         <v>783</v>
       </c>
-      <c r="FQ1" t="s">
+      <c r="FR1" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="2" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>704</v>
       </c>
       <c r="B2" t="s">
-        <v>1582</v>
+        <v>1761</v>
       </c>
       <c r="C2" t="s">
-        <v>1582</v>
-      </c>
-      <c r="D2" s="56" t="s">
-        <v>1509</v>
-      </c>
-      <c r="E2" s="55" t="s">
-        <v>1465</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1272</v>
+        <v>1580</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>1464</v>
       </c>
       <c r="G2" t="s">
         <v>1272</v>
       </c>
       <c r="H2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="I2" t="s">
         <v>1263</v>
       </c>
-      <c r="FP2" t="s">
+      <c r="FQ2" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="3" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>705</v>
       </c>
       <c r="B3" t="s">
-        <v>1583</v>
+        <v>1762</v>
       </c>
       <c r="C3" t="s">
-        <v>1583</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>1508</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1464</v>
+        <v>1581</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1581</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>1507</v>
       </c>
       <c r="F3" t="s">
-        <v>1273</v>
+        <v>1463</v>
       </c>
       <c r="G3" t="s">
         <v>1273</v>
       </c>
       <c r="H3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="I3" t="s">
         <v>1264</v>
       </c>
-      <c r="FP3" t="s">
+      <c r="FQ3" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="4" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>706</v>
       </c>
       <c r="B4" t="s">
-        <v>1584</v>
+        <v>1763</v>
       </c>
       <c r="C4" t="s">
-        <v>1584</v>
-      </c>
-      <c r="D4" s="56" t="s">
-        <v>1512</v>
-      </c>
-      <c r="E4" s="55" t="s">
-        <v>1466</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1274</v>
+        <v>1582</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1582</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>1465</v>
       </c>
       <c r="G4" t="s">
         <v>1274</v>
       </c>
       <c r="H4" t="s">
+        <v>1274</v>
+      </c>
+      <c r="I4" t="s">
         <v>1265</v>
       </c>
-      <c r="FP4" t="s">
+      <c r="FQ4" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="5" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>707</v>
       </c>
       <c r="B5" t="s">
-        <v>1585</v>
+        <v>1764</v>
       </c>
       <c r="C5" t="s">
-        <v>1585</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>1510</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1467</v>
+        <v>1583</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1583</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>1509</v>
       </c>
       <c r="F5" t="s">
-        <v>1275</v>
+        <v>1466</v>
       </c>
       <c r="G5" t="s">
         <v>1275</v>
       </c>
       <c r="H5" t="s">
+        <v>1275</v>
+      </c>
+      <c r="I5" t="s">
         <v>1266</v>
       </c>
-      <c r="FP5" t="s">
+      <c r="FQ5" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="6" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>708</v>
       </c>
       <c r="B6" t="s">
-        <v>1586</v>
+        <v>1765</v>
       </c>
       <c r="C6" t="s">
-        <v>1586</v>
-      </c>
-      <c r="D6" s="56" t="s">
-        <v>1513</v>
-      </c>
-      <c r="E6" s="55" t="s">
-        <v>1468</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1276</v>
+        <v>1584</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1584</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>1512</v>
+      </c>
+      <c r="F6" s="55" t="s">
+        <v>1467</v>
       </c>
       <c r="G6" t="s">
         <v>1276</v>
       </c>
       <c r="H6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="I6" t="s">
         <v>1267</v>
       </c>
-      <c r="FP6" t="s">
+      <c r="FQ6" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="7" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>709</v>
       </c>
       <c r="B7" t="s">
-        <v>1587</v>
+        <v>1766</v>
       </c>
       <c r="C7" t="s">
-        <v>1587</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>1511</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1469</v>
+        <v>1585</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>1510</v>
       </c>
       <c r="F7" t="s">
-        <v>1277</v>
+        <v>1468</v>
       </c>
       <c r="G7" t="s">
         <v>1277</v>
       </c>
       <c r="H7" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I7" t="s">
         <v>1268</v>
       </c>
-      <c r="FP7" t="s">
+      <c r="FQ7" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="8" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>831</v>
       </c>
@@ -12344,10 +12507,10 @@
       <c r="C8" t="s">
         <v>244</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" t="s">
         <v>244</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="28" t="s">
         <v>244</v>
       </c>
       <c r="F8" t="s">
@@ -12359,11 +12522,14 @@
       <c r="H8" t="s">
         <v>244</v>
       </c>
-      <c r="FP8" t="s">
+      <c r="I8" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="9" spans="1:173" x14ac:dyDescent="0.25">
+      <c r="FQ8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1085</v>
       </c>
@@ -12372,11 +12538,12 @@
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9"/>
-      <c r="G9" t="s">
+      <c r="G9"/>
+      <c r="H9" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="10" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1086</v>
       </c>
@@ -12385,14 +12552,15 @@
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10"/>
-      <c r="G10" t="s">
+      <c r="G10"/>
+      <c r="H10" t="s">
         <v>1279</v>
       </c>
-      <c r="I10" s="28" t="s">
+      <c r="J10" s="28" t="s">
         <v>1412</v>
       </c>
     </row>
-    <row r="11" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1087</v>
       </c>
@@ -12401,17 +12569,18 @@
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11"/>
-      <c r="G11" t="s">
+      <c r="G11"/>
+      <c r="H11" t="s">
         <v>1280</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>1411</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>1410</v>
       </c>
     </row>
-    <row r="12" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1088</v>
       </c>
@@ -12420,36 +12589,37 @@
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
-      <c r="G12" t="s">
+      <c r="G12"/>
+      <c r="H12" t="s">
         <v>1281</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="13" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>1089</v>
       </c>
-      <c r="G13" s="56" t="s">
+      <c r="H13" s="56" t="s">
         <v>1282</v>
       </c>
-      <c r="I13" s="28" t="s">
+      <c r="J13" s="28" t="s">
         <v>1414</v>
       </c>
     </row>
-    <row r="14" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>1090</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="H14" s="28" t="s">
         <v>1283</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>1413</v>
       </c>
     </row>
-    <row r="15" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>710</v>
       </c>
@@ -12458,14 +12628,15 @@
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
-      <c r="G15" t="s">
+      <c r="G15"/>
+      <c r="H15" t="s">
         <v>1272</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="16" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1091</v>
       </c>
@@ -12474,14 +12645,15 @@
       <c r="D16"/>
       <c r="E16"/>
       <c r="F16"/>
-      <c r="G16" s="56" t="s">
+      <c r="G16"/>
+      <c r="H16" s="56" t="s">
         <v>1284</v>
       </c>
-      <c r="I16" s="28" t="s">
+      <c r="J16" s="28" t="s">
         <v>1416</v>
       </c>
     </row>
-    <row r="17" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1092</v>
       </c>
@@ -12490,14 +12662,15 @@
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17"/>
-      <c r="G17" s="28" t="s">
+      <c r="G17"/>
+      <c r="H17" s="28" t="s">
         <v>1285</v>
       </c>
-      <c r="I17" s="55" t="s">
+      <c r="J17" s="55" t="s">
         <v>1415</v>
       </c>
     </row>
-    <row r="18" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1093</v>
       </c>
@@ -12506,11 +12679,12 @@
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
-      <c r="G18" s="56" t="s">
+      <c r="G18"/>
+      <c r="H18" s="56" t="s">
         <v>1286</v>
       </c>
     </row>
-    <row r="19" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1094</v>
       </c>
@@ -12519,11 +12693,12 @@
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19"/>
-      <c r="G19" s="28" t="s">
+      <c r="G19"/>
+      <c r="H19" s="28" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="20" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>670</v>
       </c>
@@ -12532,11 +12707,12 @@
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20"/>
-      <c r="G20" t="s">
+      <c r="G20"/>
+      <c r="H20" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="21" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>671</v>
       </c>
@@ -12545,40 +12721,44 @@
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
-      <c r="G21" t="s">
+      <c r="G21"/>
+      <c r="H21" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="22" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>164</v>
       </c>
       <c r="B22" t="s">
-        <v>1588</v>
+        <v>1767</v>
       </c>
       <c r="C22" t="s">
-        <v>1548</v>
+        <v>1586</v>
       </c>
       <c r="D22" t="s">
-        <v>1514</v>
+        <v>1546</v>
       </c>
       <c r="E22" t="s">
-        <v>1470</v>
+        <v>1513</v>
       </c>
       <c r="F22" t="s">
+        <v>1469</v>
+      </c>
+      <c r="G22" t="s">
         <v>1424</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>1289</v>
       </c>
-      <c r="FP22" t="s">
+      <c r="FQ22" t="s">
         <v>1411</v>
       </c>
-      <c r="FQ22" t="s">
+      <c r="FR22" t="s">
         <v>1410</v>
       </c>
     </row>
-    <row r="23" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>903</v>
       </c>
@@ -12600,34 +12780,40 @@
       <c r="G23" t="s">
         <v>254</v>
       </c>
-      <c r="FP23" t="s">
+      <c r="H23" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="24" spans="1:173" x14ac:dyDescent="0.25">
+      <c r="FQ23" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="24" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>159</v>
       </c>
       <c r="B24" t="s">
-        <v>1768</v>
-      </c>
-      <c r="C24">
+        <v>1804</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D24">
         <v>100825719</v>
       </c>
-      <c r="D24" t="s">
-        <v>1533</v>
-      </c>
       <c r="E24" t="s">
-        <v>1496</v>
+        <v>1532</v>
       </c>
       <c r="F24" t="s">
+        <v>1495</v>
+      </c>
+      <c r="G24" t="s">
         <v>1430</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="25" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>853</v>
       </c>
@@ -12644,36 +12830,42 @@
         <v>1059</v>
       </c>
       <c r="F25" t="s">
-        <v>1030</v>
+        <v>1059</v>
       </c>
       <c r="G25" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="26" spans="1:173" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="26" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>768</v>
       </c>
       <c r="B26" t="s">
-        <v>1768</v>
+        <v>1804</v>
       </c>
       <c r="C26" t="s">
-        <v>1568</v>
+        <v>1751</v>
       </c>
       <c r="D26" t="s">
-        <v>1533</v>
+        <v>1566</v>
       </c>
       <c r="E26" t="s">
-        <v>1496</v>
+        <v>1532</v>
       </c>
       <c r="F26" t="s">
+        <v>1495</v>
+      </c>
+      <c r="G26" t="s">
         <v>1430</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="27" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>769</v>
       </c>
@@ -12695,71 +12887,83 @@
       <c r="G27" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="28" spans="1:173" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>854</v>
       </c>
       <c r="B28" t="s">
-        <v>1497</v>
+        <v>1805</v>
       </c>
       <c r="C28" t="s">
-        <v>1569</v>
+        <v>1496</v>
       </c>
       <c r="D28" t="s">
-        <v>1545</v>
+        <v>1567</v>
       </c>
       <c r="E28" t="s">
-        <v>1497</v>
+        <v>1544</v>
       </c>
       <c r="F28" t="s">
+        <v>1496</v>
+      </c>
+      <c r="G28" t="s">
         <v>1431</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="29" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>855</v>
       </c>
       <c r="B29" t="s">
-        <v>1498</v>
+        <v>1806</v>
       </c>
       <c r="C29" t="s">
-        <v>1570</v>
+        <v>1497</v>
       </c>
       <c r="D29" t="s">
-        <v>1498</v>
+        <v>1568</v>
       </c>
       <c r="E29" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="F29" t="s">
+        <v>1497</v>
+      </c>
+      <c r="G29" t="s">
         <v>1432</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>1303</v>
       </c>
     </row>
-    <row r="30" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>891</v>
       </c>
       <c r="B30" t="s">
-        <v>1760</v>
+        <v>1799</v>
       </c>
       <c r="C30" t="s">
-        <v>1574</v>
-      </c>
-      <c r="D30"/>
+        <v>1743</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1572</v>
+      </c>
       <c r="E30"/>
       <c r="F30"/>
-      <c r="G30" t="s">
+      <c r="G30"/>
+      <c r="H30" t="s">
         <v>1328</v>
       </c>
     </row>
-    <row r="31" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>662</v>
       </c>
@@ -12772,15 +12976,18 @@
       <c r="D31" t="s">
         <v>786</v>
       </c>
-      <c r="E31" s="55" t="s">
+      <c r="E31" t="s">
         <v>786</v>
       </c>
-      <c r="F31"/>
-      <c r="G31" t="s">
+      <c r="F31" s="55" t="s">
+        <v>786</v>
+      </c>
+      <c r="G31"/>
+      <c r="H31" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="32" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>663</v>
       </c>
@@ -12796,128 +13003,149 @@
       <c r="E32" t="s">
         <v>1011</v>
       </c>
-      <c r="F32"/>
-      <c r="G32" t="s">
+      <c r="F32" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G32"/>
+      <c r="H32" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="33" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>664</v>
       </c>
       <c r="B33" t="s">
-        <v>1600</v>
+        <v>1782</v>
       </c>
       <c r="C33" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F33" s="55" t="s">
+        <v>1478</v>
+      </c>
+      <c r="G33"/>
+      <c r="H33" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="34" spans="1:174" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D34" s="55" t="s">
+        <v>1566</v>
+      </c>
+      <c r="E34"/>
+      <c r="F34" s="55"/>
+      <c r="G34"/>
+      <c r="H34"/>
+    </row>
+    <row r="35" spans="1:174" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B35" t="s">
         <v>1576</v>
       </c>
-      <c r="D33" t="s">
-        <v>1520</v>
-      </c>
-      <c r="E33" s="55" t="s">
-        <v>1479</v>
-      </c>
-      <c r="F33"/>
-      <c r="G33" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="34" spans="1:173" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1599</v>
-      </c>
-      <c r="C34" s="55" t="s">
-        <v>1568</v>
-      </c>
-      <c r="D34"/>
-      <c r="E34" s="55"/>
-      <c r="F34"/>
-      <c r="G34"/>
-    </row>
-    <row r="35" spans="1:173" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>1577</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C35" s="55" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D35"/>
-      <c r="E35" s="55"/>
-      <c r="F35"/>
+      <c r="C35" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D35" s="55" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E35"/>
+      <c r="F35" s="55"/>
       <c r="G35"/>
-    </row>
-    <row r="36" spans="1:173" x14ac:dyDescent="0.25">
+      <c r="H35"/>
+    </row>
+    <row r="36" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>162</v>
       </c>
       <c r="B36" t="s">
-        <v>1601</v>
+        <v>1783</v>
       </c>
       <c r="C36" t="s">
-        <v>1554</v>
+        <v>1590</v>
       </c>
       <c r="D36" t="s">
-        <v>1521</v>
+        <v>1552</v>
       </c>
       <c r="E36" t="s">
-        <v>1481</v>
-      </c>
-      <c r="F36"/>
-      <c r="G36" t="s">
+        <v>1520</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1480</v>
+      </c>
+      <c r="G36"/>
+      <c r="H36" t="s">
         <v>1330</v>
       </c>
     </row>
-    <row r="37" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>170</v>
       </c>
       <c r="B37" t="s">
-        <v>1746</v>
+        <v>1786</v>
       </c>
       <c r="C37" t="s">
-        <v>1551</v>
+        <v>1735</v>
       </c>
       <c r="D37" t="s">
-        <v>1517</v>
+        <v>1549</v>
       </c>
       <c r="E37" t="s">
-        <v>1476</v>
+        <v>1516</v>
       </c>
       <c r="F37" t="s">
+        <v>1475</v>
+      </c>
+      <c r="G37" t="s">
         <v>1433</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="38" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>235</v>
       </c>
       <c r="B38" t="s">
-        <v>1757</v>
+        <v>1742</v>
       </c>
       <c r="C38" t="s">
-        <v>1555</v>
+        <v>1742</v>
       </c>
       <c r="D38" t="s">
-        <v>1505</v>
+        <v>1553</v>
       </c>
       <c r="E38" t="s">
-        <v>1505</v>
-      </c>
-      <c r="F38"/>
-      <c r="G38" t="s">
+        <v>1504</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G38"/>
+      <c r="H38" t="s">
         <v>1333</v>
       </c>
     </row>
-    <row r="39" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1062</v>
       </c>
@@ -12939,8 +13167,11 @@
       <c r="G39" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="40" spans="1:173" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="40" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1063</v>
       </c>
@@ -12959,11 +13190,14 @@
       <c r="F40" t="s">
         <v>1262</v>
       </c>
-      <c r="G40" s="28" t="s">
+      <c r="G40" t="s">
+        <v>1262</v>
+      </c>
+      <c r="H40" s="28" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="41" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1064</v>
       </c>
@@ -12982,106 +13216,121 @@
       <c r="F41" t="s">
         <v>968</v>
       </c>
-      <c r="G41" s="28" t="s">
+      <c r="G41" t="s">
+        <v>968</v>
+      </c>
+      <c r="H41" s="28" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="42" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>660</v>
       </c>
       <c r="B42" t="s">
-        <v>1747</v>
+        <v>1787</v>
       </c>
       <c r="C42" t="s">
-        <v>1552</v>
+        <v>1736</v>
       </c>
       <c r="D42" t="s">
-        <v>1518</v>
+        <v>1550</v>
       </c>
       <c r="E42" t="s">
-        <v>1477</v>
+        <v>1517</v>
       </c>
       <c r="F42" t="s">
+        <v>1476</v>
+      </c>
+      <c r="G42" t="s">
         <v>1434</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>1335</v>
       </c>
     </row>
-    <row r="43" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>661</v>
       </c>
       <c r="B43" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="C43" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="D43" t="s">
-        <v>1516</v>
+        <v>1547</v>
       </c>
       <c r="E43" t="s">
-        <v>1472</v>
+        <v>1515</v>
       </c>
       <c r="F43" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G43" t="s">
         <v>1429</v>
       </c>
-      <c r="G43" s="28" t="s">
+      <c r="H43" s="28" t="s">
         <v>1373</v>
       </c>
     </row>
-    <row r="44" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>905</v>
       </c>
       <c r="B44" t="s">
-        <v>1748</v>
+        <v>1788</v>
       </c>
       <c r="C44" t="s">
-        <v>1553</v>
+        <v>1737</v>
       </c>
       <c r="D44" t="s">
-        <v>1519</v>
+        <v>1551</v>
       </c>
       <c r="E44" t="s">
-        <v>1478</v>
+        <v>1518</v>
       </c>
       <c r="F44" t="s">
+        <v>1477</v>
+      </c>
+      <c r="G44" t="s">
         <v>1436</v>
       </c>
-      <c r="G44" s="56" t="s">
+      <c r="H44" s="56" t="s">
         <v>1407</v>
       </c>
-      <c r="FQ44" t="s">
+      <c r="FR44" t="s">
         <v>1407</v>
       </c>
     </row>
-    <row r="45" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>906</v>
       </c>
       <c r="B45" t="s">
-        <v>1747</v>
+        <v>1787</v>
       </c>
       <c r="C45" t="s">
-        <v>1552</v>
+        <v>1736</v>
       </c>
       <c r="D45" t="s">
-        <v>1518</v>
+        <v>1550</v>
       </c>
       <c r="E45" t="s">
-        <v>1477</v>
+        <v>1517</v>
       </c>
       <c r="F45" t="s">
+        <v>1476</v>
+      </c>
+      <c r="G45" t="s">
         <v>1434</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="46" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1339</v>
       </c>
@@ -13090,11 +13339,12 @@
       <c r="D46"/>
       <c r="E46"/>
       <c r="F46"/>
-      <c r="G46" t="s">
+      <c r="G46"/>
+      <c r="H46" t="s">
         <v>1341</v>
       </c>
     </row>
-    <row r="47" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1340</v>
       </c>
@@ -13103,11 +13353,12 @@
       <c r="D47"/>
       <c r="E47"/>
       <c r="F47"/>
-      <c r="G47" t="s">
+      <c r="G47"/>
+      <c r="H47" t="s">
         <v>1336</v>
       </c>
     </row>
-    <row r="48" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1141</v>
       </c>
@@ -13116,11 +13367,12 @@
       <c r="D48"/>
       <c r="E48"/>
       <c r="F48"/>
-      <c r="G48" t="s">
+      <c r="G48"/>
+      <c r="H48" t="s">
         <v>1342</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1343</v>
       </c>
@@ -13129,11 +13381,12 @@
       <c r="D49"/>
       <c r="E49"/>
       <c r="F49"/>
-      <c r="G49" t="s">
+      <c r="G49"/>
+      <c r="H49" t="s">
         <v>1342</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>1142</v>
       </c>
@@ -13142,11 +13395,12 @@
       <c r="D50"/>
       <c r="E50"/>
       <c r="F50"/>
-      <c r="G50" t="s">
+      <c r="G50"/>
+      <c r="H50" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1143</v>
       </c>
@@ -13155,11 +13409,12 @@
       <c r="D51"/>
       <c r="E51"/>
       <c r="F51"/>
-      <c r="G51" t="s">
+      <c r="G51"/>
+      <c r="H51" t="s">
         <v>1337</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>1345</v>
       </c>
@@ -13168,11 +13423,12 @@
       <c r="D52"/>
       <c r="E52"/>
       <c r="F52"/>
-      <c r="G52" t="s">
+      <c r="G52"/>
+      <c r="H52" t="s">
         <v>1346</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>1347</v>
       </c>
@@ -13181,11 +13437,12 @@
       <c r="D53"/>
       <c r="E53"/>
       <c r="F53"/>
-      <c r="G53" t="s">
+      <c r="G53"/>
+      <c r="H53" t="s">
         <v>1346</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>1144</v>
       </c>
@@ -13194,11 +13451,12 @@
       <c r="D54"/>
       <c r="E54"/>
       <c r="F54"/>
-      <c r="G54" t="s">
+      <c r="G54"/>
+      <c r="H54" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1145</v>
       </c>
@@ -13207,24 +13465,28 @@
       <c r="D55"/>
       <c r="E55"/>
       <c r="F55"/>
-      <c r="G55" t="s">
+      <c r="G55"/>
+      <c r="H55" t="s">
         <v>1338</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>922</v>
       </c>
-      <c r="B56"/>
+      <c r="B56" t="s">
+        <v>1807</v>
+      </c>
       <c r="C56"/>
       <c r="D56"/>
       <c r="E56"/>
       <c r="F56"/>
-      <c r="G56" t="s">
+      <c r="G56"/>
+      <c r="H56" t="s">
         <v>1394</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>923</v>
       </c>
@@ -13233,11 +13495,12 @@
       <c r="D57"/>
       <c r="E57"/>
       <c r="F57"/>
-      <c r="G57" t="s">
+      <c r="G57"/>
+      <c r="H57" t="s">
         <v>1395</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>935</v>
       </c>
@@ -13246,11 +13509,12 @@
       <c r="D58"/>
       <c r="E58"/>
       <c r="F58"/>
-      <c r="G58" t="s">
+      <c r="G58"/>
+      <c r="H58" t="s">
         <v>1349</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>918</v>
       </c>
@@ -13259,100 +13523,110 @@
       <c r="D59"/>
       <c r="E59"/>
       <c r="F59"/>
-      <c r="G59" t="s">
+      <c r="G59"/>
+      <c r="H59" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="28" t="s">
         <v>787</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>1349</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>936</v>
       </c>
       <c r="B61" t="s">
-        <v>1751</v>
+        <v>1812</v>
       </c>
       <c r="C61" t="s">
-        <v>1564</v>
+        <v>1740</v>
       </c>
       <c r="D61" t="s">
-        <v>1527</v>
+        <v>1562</v>
       </c>
       <c r="E61" t="s">
-        <v>1483</v>
-      </c>
-      <c r="F61"/>
-      <c r="G61" t="s">
+        <v>1526</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1482</v>
+      </c>
+      <c r="G61"/>
+      <c r="H61" t="s">
         <v>1358</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>1352</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>937</v>
       </c>
       <c r="B62" t="s">
-        <v>1749</v>
+        <v>1808</v>
       </c>
       <c r="C62" t="s">
-        <v>1562</v>
+        <v>1738</v>
       </c>
       <c r="D62" t="s">
-        <v>1522</v>
+        <v>1560</v>
       </c>
       <c r="E62" t="s">
-        <v>1482</v>
-      </c>
-      <c r="F62"/>
-      <c r="G62" t="s">
-        <v>1350</v>
-      </c>
-      <c r="I62" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1481</v>
+      </c>
+      <c r="G62"/>
+      <c r="H62" t="s">
         <v>1350</v>
       </c>
       <c r="J62" t="s">
         <v>1350</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K62" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>938</v>
       </c>
       <c r="B63" t="s">
-        <v>1599</v>
+        <v>1804</v>
       </c>
       <c r="C63" t="s">
-        <v>1559</v>
+        <v>1588</v>
       </c>
       <c r="D63" t="s">
-        <v>1515</v>
+        <v>1557</v>
       </c>
       <c r="E63" t="s">
-        <v>1473</v>
-      </c>
-      <c r="F63"/>
-      <c r="G63" t="s">
-        <v>1291</v>
-      </c>
-      <c r="I63" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F63" t="s">
+        <v>1472</v>
+      </c>
+      <c r="G63"/>
+      <c r="H63" t="s">
         <v>1291</v>
       </c>
       <c r="J63" t="s">
         <v>1291</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K63" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>1109</v>
       </c>
@@ -13361,11 +13635,12 @@
       <c r="D64"/>
       <c r="E64"/>
       <c r="F64"/>
-      <c r="G64" t="s">
+      <c r="G64"/>
+      <c r="H64" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1110</v>
       </c>
@@ -13374,11 +13649,12 @@
       <c r="D65"/>
       <c r="E65"/>
       <c r="F65"/>
-      <c r="G65" t="s">
+      <c r="G65"/>
+      <c r="H65" t="s">
         <v>1353</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1111</v>
       </c>
@@ -13387,11 +13663,12 @@
       <c r="D66"/>
       <c r="E66"/>
       <c r="F66"/>
-      <c r="G66" t="s">
+      <c r="G66"/>
+      <c r="H66" t="s">
         <v>1355</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1112</v>
       </c>
@@ -13400,11 +13677,12 @@
       <c r="D67"/>
       <c r="E67"/>
       <c r="F67"/>
-      <c r="G67" t="s">
+      <c r="G67"/>
+      <c r="H67" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1113</v>
       </c>
@@ -13413,11 +13691,12 @@
       <c r="D68"/>
       <c r="E68"/>
       <c r="F68"/>
-      <c r="G68" t="s">
+      <c r="G68"/>
+      <c r="H68" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1101</v>
       </c>
@@ -13426,11 +13705,12 @@
       <c r="D69"/>
       <c r="E69"/>
       <c r="F69"/>
-      <c r="G69" t="s">
+      <c r="G69"/>
+      <c r="H69" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>1114</v>
       </c>
@@ -13439,11 +13719,12 @@
       <c r="D70"/>
       <c r="E70"/>
       <c r="F70"/>
-      <c r="G70" t="s">
+      <c r="G70"/>
+      <c r="H70" t="s">
         <v>1353</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>1115</v>
       </c>
@@ -13452,32 +13733,36 @@
       <c r="D71"/>
       <c r="E71"/>
       <c r="F71"/>
-      <c r="G71" t="s">
+      <c r="G71"/>
+      <c r="H71" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>945</v>
       </c>
       <c r="B72" t="s">
-        <v>1775</v>
+        <v>1816</v>
       </c>
       <c r="C72" t="s">
-        <v>1573</v>
+        <v>1758</v>
       </c>
       <c r="D72" t="s">
-        <v>1541</v>
+        <v>1571</v>
       </c>
       <c r="E72" t="s">
-        <v>1500</v>
-      </c>
-      <c r="F72"/>
-      <c r="G72" t="s">
+        <v>1540</v>
+      </c>
+      <c r="F72" t="s">
+        <v>1499</v>
+      </c>
+      <c r="G72"/>
+      <c r="H72" t="s">
         <v>1357</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>759</v>
       </c>
@@ -13486,11 +13771,12 @@
       <c r="D73"/>
       <c r="E73"/>
       <c r="F73"/>
-      <c r="G73" s="56" t="s">
+      <c r="G73"/>
+      <c r="H73" s="56" t="s">
         <v>1359</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>919</v>
       </c>
@@ -13499,11 +13785,12 @@
       <c r="D74"/>
       <c r="E74"/>
       <c r="F74"/>
-      <c r="G74" t="s">
+      <c r="G74"/>
+      <c r="H74" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>920</v>
       </c>
@@ -13512,11 +13799,12 @@
       <c r="D75"/>
       <c r="E75"/>
       <c r="F75"/>
-      <c r="G75" s="56" t="s">
+      <c r="G75"/>
+      <c r="H75" s="56" t="s">
         <v>1359</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>921</v>
       </c>
@@ -13525,11 +13813,12 @@
       <c r="D76"/>
       <c r="E76"/>
       <c r="F76"/>
-      <c r="G76" s="56" t="s">
+      <c r="G76"/>
+      <c r="H76" s="56" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>924</v>
       </c>
@@ -13538,11 +13827,12 @@
       <c r="D77"/>
       <c r="E77"/>
       <c r="F77"/>
-      <c r="G77" s="56" t="s">
+      <c r="G77"/>
+      <c r="H77" s="56" t="s">
         <v>1359</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>1128</v>
       </c>
@@ -13551,11 +13841,12 @@
       <c r="D78"/>
       <c r="E78"/>
       <c r="F78"/>
-      <c r="G78" s="56" t="s">
+      <c r="G78"/>
+      <c r="H78" s="56" t="s">
         <v>1360</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>1129</v>
       </c>
@@ -13564,11 +13855,12 @@
       <c r="D79"/>
       <c r="E79"/>
       <c r="F79"/>
-      <c r="G79" s="56" t="s">
+      <c r="G79"/>
+      <c r="H79" s="56" t="s">
         <v>1360</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1125</v>
       </c>
@@ -13577,11 +13869,12 @@
       <c r="D80"/>
       <c r="E80"/>
       <c r="F80"/>
-      <c r="G80" t="s">
+      <c r="G80"/>
+      <c r="H80" t="s">
         <v>1360</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>1126</v>
       </c>
@@ -13590,11 +13883,12 @@
       <c r="D81"/>
       <c r="E81"/>
       <c r="F81"/>
-      <c r="G81" t="s">
+      <c r="G81"/>
+      <c r="H81" t="s">
         <v>1359</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1182</v>
       </c>
@@ -13603,11 +13897,12 @@
       <c r="D82"/>
       <c r="E82"/>
       <c r="F82"/>
-      <c r="G82" s="28" t="s">
+      <c r="G82"/>
+      <c r="H82" s="28" t="s">
         <v>1361</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1183</v>
       </c>
@@ -13616,11 +13911,12 @@
       <c r="D83"/>
       <c r="E83"/>
       <c r="F83"/>
-      <c r="G83" s="28" t="s">
+      <c r="G83"/>
+      <c r="H83" s="28" t="s">
         <v>1361</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>926</v>
       </c>
@@ -13629,11 +13925,12 @@
       <c r="D84"/>
       <c r="E84"/>
       <c r="F84"/>
-      <c r="G84" s="28" t="s">
+      <c r="G84"/>
+      <c r="H84" s="28" t="s">
         <v>1362</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>927</v>
       </c>
@@ -13642,11 +13939,12 @@
       <c r="D85"/>
       <c r="E85"/>
       <c r="F85"/>
-      <c r="G85" t="s">
+      <c r="G85"/>
+      <c r="H85" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>928</v>
       </c>
@@ -13655,11 +13953,12 @@
       <c r="D86"/>
       <c r="E86"/>
       <c r="F86"/>
-      <c r="G86" s="28" t="s">
+      <c r="G86"/>
+      <c r="H86" s="28" t="s">
         <v>1362</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>929</v>
       </c>
@@ -13668,11 +13967,12 @@
       <c r="D87"/>
       <c r="E87"/>
       <c r="F87"/>
-      <c r="G87" s="56" t="s">
+      <c r="G87"/>
+      <c r="H87" s="56" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>930</v>
       </c>
@@ -13681,11 +13981,12 @@
       <c r="D88"/>
       <c r="E88"/>
       <c r="F88"/>
-      <c r="G88" s="28" t="s">
+      <c r="G88"/>
+      <c r="H88" s="28" t="s">
         <v>1362</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1184</v>
       </c>
@@ -13694,11 +13995,12 @@
       <c r="D89"/>
       <c r="E89"/>
       <c r="F89"/>
-      <c r="G89" s="28" t="s">
+      <c r="G89"/>
+      <c r="H89" s="28" t="s">
         <v>1363</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1185</v>
       </c>
@@ -13707,11 +14009,12 @@
       <c r="D90"/>
       <c r="E90"/>
       <c r="F90"/>
-      <c r="G90" s="28" t="s">
+      <c r="G90"/>
+      <c r="H90" s="28" t="s">
         <v>1363</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>1130</v>
       </c>
@@ -13720,11 +14023,12 @@
       <c r="D91"/>
       <c r="E91"/>
       <c r="F91"/>
-      <c r="G91" t="s">
+      <c r="G91"/>
+      <c r="H91" t="s">
         <v>1361</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>1131</v>
       </c>
@@ -13733,11 +14037,12 @@
       <c r="D92"/>
       <c r="E92"/>
       <c r="F92"/>
-      <c r="G92" t="s">
+      <c r="G92"/>
+      <c r="H92" t="s">
         <v>1359</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1132</v>
       </c>
@@ -13746,11 +14051,12 @@
       <c r="D93"/>
       <c r="E93"/>
       <c r="F93"/>
-      <c r="G93" t="s">
+      <c r="G93"/>
+      <c r="H93" t="s">
         <v>1363</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>1133</v>
       </c>
@@ -13759,11 +14065,12 @@
       <c r="D94"/>
       <c r="E94"/>
       <c r="F94"/>
-      <c r="G94" t="s">
+      <c r="G94"/>
+      <c r="H94" t="s">
         <v>1362</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1154</v>
       </c>
@@ -13773,8 +14080,9 @@
       <c r="E95"/>
       <c r="F95"/>
       <c r="G95"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H95"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>1155</v>
       </c>
@@ -13783,11 +14091,12 @@
       <c r="D96"/>
       <c r="E96"/>
       <c r="F96"/>
-      <c r="G96" t="s">
+      <c r="G96"/>
+      <c r="H96" t="s">
         <v>1359</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>1367</v>
       </c>
@@ -13796,11 +14105,12 @@
       <c r="D97"/>
       <c r="E97"/>
       <c r="F97"/>
-      <c r="G97" s="55" t="s">
+      <c r="G97"/>
+      <c r="H97" s="55" t="s">
         <v>1397</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>1369</v>
       </c>
@@ -13809,11 +14119,12 @@
       <c r="D98"/>
       <c r="E98"/>
       <c r="F98"/>
-      <c r="G98" t="s">
+      <c r="G98"/>
+      <c r="H98" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>1370</v>
       </c>
@@ -13822,11 +14133,12 @@
       <c r="D99"/>
       <c r="E99"/>
       <c r="F99"/>
-      <c r="G99" t="s">
+      <c r="G99"/>
+      <c r="H99" t="s">
         <v>1368</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>1371</v>
       </c>
@@ -13835,11 +14147,12 @@
       <c r="D100"/>
       <c r="E100"/>
       <c r="F100"/>
-      <c r="G100" t="s">
+      <c r="G100"/>
+      <c r="H100" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>1372</v>
       </c>
@@ -13848,11 +14161,12 @@
       <c r="D101"/>
       <c r="E101"/>
       <c r="F101"/>
-      <c r="G101" t="s">
+      <c r="G101"/>
+      <c r="H101" t="s">
         <v>1368</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1186</v>
       </c>
@@ -13861,11 +14175,12 @@
       <c r="D102"/>
       <c r="E102"/>
       <c r="F102"/>
-      <c r="G102" t="s">
+      <c r="G102"/>
+      <c r="H102" t="s">
         <v>1379</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>1187</v>
       </c>
@@ -13874,11 +14189,12 @@
       <c r="D103"/>
       <c r="E103"/>
       <c r="F103"/>
-      <c r="G103" t="s">
+      <c r="G103"/>
+      <c r="H103" t="s">
         <v>1373</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1188</v>
       </c>
@@ -13887,11 +14203,12 @@
       <c r="D104"/>
       <c r="E104"/>
       <c r="F104"/>
-      <c r="G104" t="s">
+      <c r="G104"/>
+      <c r="H104" t="s">
         <v>1373</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1376</v>
       </c>
@@ -13900,11 +14217,12 @@
       <c r="D105"/>
       <c r="E105"/>
       <c r="F105"/>
-      <c r="G105" t="s">
+      <c r="G105"/>
+      <c r="H105" t="s">
         <v>1377</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>1378</v>
       </c>
@@ -13913,11 +14231,12 @@
       <c r="D106"/>
       <c r="E106"/>
       <c r="F106"/>
-      <c r="G106" t="s">
+      <c r="G106"/>
+      <c r="H106" t="s">
         <v>1377</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>1189</v>
       </c>
@@ -13926,11 +14245,12 @@
       <c r="D107"/>
       <c r="E107"/>
       <c r="F107"/>
-      <c r="G107" t="s">
+      <c r="G107"/>
+      <c r="H107" t="s">
         <v>1379</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>1190</v>
       </c>
@@ -13939,11 +14259,12 @@
       <c r="D108"/>
       <c r="E108"/>
       <c r="F108"/>
-      <c r="G108" t="s">
+      <c r="G108"/>
+      <c r="H108" t="s">
         <v>1381</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>1191</v>
       </c>
@@ -13952,11 +14273,12 @@
       <c r="D109"/>
       <c r="E109"/>
       <c r="F109"/>
-      <c r="G109" t="s">
+      <c r="G109"/>
+      <c r="H109" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>1382</v>
       </c>
@@ -13965,11 +14287,12 @@
       <c r="D110"/>
       <c r="E110"/>
       <c r="F110"/>
-      <c r="G110" t="s">
+      <c r="G110"/>
+      <c r="H110" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1384</v>
       </c>
@@ -13978,11 +14301,12 @@
       <c r="D111"/>
       <c r="E111"/>
       <c r="F111"/>
-      <c r="G111" t="s">
+      <c r="G111"/>
+      <c r="H111" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>934</v>
       </c>
@@ -13991,11 +14315,12 @@
       <c r="D112"/>
       <c r="E112"/>
       <c r="F112"/>
-      <c r="G112" t="s">
+      <c r="G112"/>
+      <c r="H112" t="s">
         <v>1396</v>
       </c>
     </row>
-    <row r="113" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>925</v>
       </c>
@@ -14004,11 +14329,12 @@
       <c r="D113"/>
       <c r="E113"/>
       <c r="F113"/>
-      <c r="G113" t="s">
+      <c r="G113"/>
+      <c r="H113" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="114" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>1197</v>
       </c>
@@ -14017,11 +14343,12 @@
       <c r="D114"/>
       <c r="E114"/>
       <c r="F114"/>
-      <c r="G114" t="s">
+      <c r="G114"/>
+      <c r="H114" t="s">
         <v>1398</v>
       </c>
     </row>
-    <row r="115" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>1198</v>
       </c>
@@ -14030,124 +14357,140 @@
       <c r="D115"/>
       <c r="E115"/>
       <c r="F115"/>
-      <c r="G115" t="s">
+      <c r="G115"/>
+      <c r="H115" t="s">
         <v>1397</v>
       </c>
     </row>
-    <row r="116" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>939</v>
       </c>
       <c r="B116" t="s">
-        <v>1773</v>
+        <v>1814</v>
       </c>
       <c r="C116" t="s">
-        <v>1566</v>
+        <v>1756</v>
       </c>
       <c r="D116" t="s">
-        <v>1538</v>
+        <v>1564</v>
       </c>
       <c r="E116" t="s">
-        <v>1495</v>
-      </c>
-      <c r="F116"/>
-      <c r="G116" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F116" t="s">
+        <v>1494</v>
+      </c>
+      <c r="G116"/>
+      <c r="H116" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="117" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>940</v>
       </c>
       <c r="B117" t="s">
-        <v>1769</v>
+        <v>1809</v>
       </c>
       <c r="C117" t="s">
-        <v>1561</v>
+        <v>1752</v>
       </c>
       <c r="D117" t="s">
-        <v>1534</v>
+        <v>1559</v>
       </c>
       <c r="E117" t="s">
-        <v>1494</v>
-      </c>
-      <c r="F117"/>
-      <c r="G117" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F117" t="s">
+        <v>1493</v>
+      </c>
+      <c r="G117"/>
+      <c r="H117" t="s">
         <v>1403</v>
       </c>
     </row>
-    <row r="118" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>941</v>
       </c>
       <c r="B118" t="s">
-        <v>1770</v>
+        <v>1803</v>
       </c>
       <c r="C118" t="s">
-        <v>1547</v>
+        <v>1753</v>
       </c>
       <c r="D118" t="s">
-        <v>1532</v>
+        <v>1545</v>
       </c>
       <c r="E118" t="s">
-        <v>1494</v>
-      </c>
-      <c r="F118"/>
-      <c r="G118" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F118" t="s">
+        <v>1493</v>
+      </c>
+      <c r="G118"/>
+      <c r="H118" t="s">
         <v>1359</v>
       </c>
     </row>
-    <row r="119" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>946</v>
       </c>
       <c r="B119" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
       <c r="C119" t="s">
-        <v>1571</v>
+        <v>1754</v>
       </c>
       <c r="D119" t="s">
-        <v>1535</v>
+        <v>1569</v>
       </c>
       <c r="E119" t="s">
-        <v>1499</v>
-      </c>
-      <c r="F119"/>
-      <c r="G119" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F119" t="s">
+        <v>1498</v>
+      </c>
+      <c r="G119"/>
+      <c r="H119" t="s">
         <v>1405</v>
       </c>
     </row>
-    <row r="120" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>947</v>
       </c>
       <c r="B120" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="C120" t="s">
-        <v>1568</v>
+        <v>1751</v>
       </c>
       <c r="D120" t="s">
-        <v>1533</v>
+        <v>1566</v>
       </c>
       <c r="E120" t="s">
-        <v>1496</v>
-      </c>
-      <c r="F120"/>
-      <c r="G120" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F120" t="s">
+        <v>1495</v>
+      </c>
+      <c r="G120"/>
+      <c r="H120" t="s">
         <v>1397</v>
       </c>
     </row>
-    <row r="121" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A121" s="28" t="s">
         <v>1123</v>
       </c>
-      <c r="G121" s="56" t="s">
+      <c r="H121" s="56" t="s">
         <v>1400</v>
       </c>
     </row>
-    <row r="122" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>749</v>
       </c>
@@ -14156,34 +14499,38 @@
       <c r="D122"/>
       <c r="E122"/>
       <c r="F122"/>
-      <c r="G122" t="s">
+      <c r="G122"/>
+      <c r="H122" t="s">
         <v>1401</v>
       </c>
     </row>
-    <row r="123" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>1245</v>
       </c>
       <c r="B123" t="s">
-        <v>1484</v>
+        <v>1801</v>
       </c>
       <c r="C123" t="s">
-        <v>1560</v>
+        <v>1483</v>
       </c>
       <c r="D123" t="s">
-        <v>1484</v>
+        <v>1558</v>
       </c>
       <c r="E123" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="F123" t="s">
+        <v>1483</v>
+      </c>
+      <c r="G123" t="s">
         <v>1438</v>
       </c>
-      <c r="FQ123" t="s">
+      <c r="FR123" t="s">
         <v>1408</v>
       </c>
     </row>
-    <row r="124" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>1249</v>
       </c>
@@ -14202,50 +14549,59 @@
       <c r="F124" t="s">
         <v>957</v>
       </c>
-      <c r="FQ124" t="s">
+      <c r="G124" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="125" spans="1:173" x14ac:dyDescent="0.25">
+      <c r="FR124" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="125" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>1248</v>
       </c>
       <c r="B125" t="s">
-        <v>1486</v>
+        <v>1802</v>
       </c>
       <c r="C125" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="D125" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="E125" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="F125" t="s">
+        <v>1485</v>
+      </c>
+      <c r="G125" t="s">
         <v>1442</v>
       </c>
-      <c r="FQ125" t="s">
+      <c r="FR125" t="s">
         <v>1409</v>
       </c>
     </row>
-    <row r="126" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>1419</v>
       </c>
       <c r="B126" t="s">
-        <v>1589</v>
-      </c>
-      <c r="C126"/>
+        <v>1768</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1587</v>
+      </c>
       <c r="D126"/>
-      <c r="E126" t="s">
-        <v>1471</v>
-      </c>
+      <c r="E126"/>
       <c r="F126" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G126" t="s">
         <v>1418</v>
       </c>
     </row>
-    <row r="127" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>1095</v>
       </c>
@@ -14253,8 +14609,9 @@
       <c r="C127"/>
       <c r="D127"/>
       <c r="E127"/>
-    </row>
-    <row r="128" spans="1:173" x14ac:dyDescent="0.25">
+      <c r="F127"/>
+    </row>
+    <row r="128" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>1096</v>
       </c>
@@ -14262,179 +14619,221 @@
       <c r="C128"/>
       <c r="D128"/>
       <c r="E128"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F128"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>1247</v>
       </c>
       <c r="B129" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="C129" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="D129" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="E129" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="F129" t="s">
+        <v>1484</v>
+      </c>
+      <c r="G129" t="s">
         <v>1441</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>1439</v>
       </c>
       <c r="B130"/>
       <c r="C130"/>
       <c r="D130"/>
-      <c r="F130" t="s">
+      <c r="E130"/>
+      <c r="G130" t="s">
         <v>1440</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="28" t="s">
         <v>161</v>
       </c>
       <c r="B131" t="s">
-        <v>1766</v>
+        <v>1796</v>
       </c>
       <c r="C131" t="s">
-        <v>1558</v>
+        <v>1749</v>
       </c>
       <c r="D131" t="s">
-        <v>1507</v>
+        <v>1556</v>
       </c>
       <c r="E131" t="s">
-        <v>1493</v>
-      </c>
-      <c r="F131" s="28" t="s">
+        <v>1506</v>
+      </c>
+      <c r="F131" t="s">
+        <v>1492</v>
+      </c>
+      <c r="G131" s="28" t="s">
         <v>1253</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>762</v>
       </c>
       <c r="B132" t="s">
-        <v>1752</v>
+        <v>1789</v>
       </c>
       <c r="C132" t="s">
-        <v>1567</v>
+        <v>1741</v>
       </c>
       <c r="D132" t="s">
-        <v>1530</v>
+        <v>1565</v>
       </c>
       <c r="E132" t="s">
-        <v>1492</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1529</v>
+      </c>
+      <c r="F132" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1739</v>
+      </c>
+      <c r="D133" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E133" t="s">
         <v>1523</v>
       </c>
-      <c r="B133" t="s">
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E134" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D135" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D136" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E136" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D137" t="s">
+        <v>1577</v>
+      </c>
+      <c r="E137" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B138"/>
+      <c r="C138" t="s">
         <v>1750</v>
       </c>
-      <c r="C133" t="s">
-        <v>1563</v>
-      </c>
-      <c r="D133" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>1525</v>
-      </c>
-      <c r="B134" t="s">
-        <v>1526</v>
-      </c>
-      <c r="C134" t="s">
-        <v>1526</v>
-      </c>
-      <c r="D134" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>1536</v>
-      </c>
-      <c r="B135" t="s">
-        <v>1772</v>
-      </c>
-      <c r="C135" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D135" t="s">
-        <v>1537</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>1539</v>
-      </c>
-      <c r="B136" t="s">
-        <v>1774</v>
-      </c>
-      <c r="C136" t="s">
-        <v>1572</v>
-      </c>
-      <c r="D136" t="s">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>1543</v>
-      </c>
-      <c r="B137" t="s">
-        <v>1761</v>
-      </c>
-      <c r="C137" t="s">
+      <c r="D138" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B139"/>
+      <c r="C139"/>
+      <c r="D139" t="s">
         <v>1579</v>
       </c>
-      <c r="D137" t="s">
-        <v>1544</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>1556</v>
-      </c>
-      <c r="B138" t="s">
-        <v>1767</v>
-      </c>
-      <c r="C138" t="s">
-        <v>1557</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>1580</v>
-      </c>
-      <c r="B139"/>
-      <c r="C139" t="s">
-        <v>1581</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>1762</v>
+        <v>1745</v>
       </c>
       <c r="B140" t="s">
-        <v>1763</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1794</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>1764</v>
+        <v>1747</v>
       </c>
       <c r="B141" t="s">
-        <v>1765</v>
+        <v>1795</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1785</v>
       </c>
     </row>
   </sheetData>
@@ -14658,13 +15057,13 @@
         <v>860</v>
       </c>
       <c r="H2" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="I2" t="s">
         <v>863</v>
       </c>
       <c r="J2" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="K2" t="s">
         <v>1036</v>
@@ -14673,10 +15072,10 @@
         <v>1305</v>
       </c>
       <c r="M2" t="s">
-        <v>1590</v>
+        <v>1773</v>
       </c>
       <c r="N2" t="s">
-        <v>1591</v>
+        <v>1774</v>
       </c>
       <c r="O2" t="s">
         <v>858</v>
@@ -14685,19 +15084,19 @@
         <v>860</v>
       </c>
       <c r="Q2" t="s">
-        <v>1592</v>
+        <v>1775</v>
       </c>
       <c r="R2" t="s">
         <v>863</v>
       </c>
       <c r="S2" t="s">
-        <v>1593</v>
+        <v>1776</v>
       </c>
       <c r="T2" t="s">
         <v>172</v>
       </c>
       <c r="U2" t="s">
-        <v>1598</v>
+        <v>1781</v>
       </c>
       <c r="V2" t="s">
         <v>1036</v>
@@ -14706,10 +15105,10 @@
         <v>1309</v>
       </c>
       <c r="X2" t="s">
-        <v>1594</v>
+        <v>1777</v>
       </c>
       <c r="Y2" t="s">
-        <v>1595</v>
+        <v>1778</v>
       </c>
       <c r="Z2" t="s">
         <v>858</v>
@@ -14718,13 +15117,13 @@
         <v>860</v>
       </c>
       <c r="AB2" t="s">
-        <v>1596</v>
+        <v>1779</v>
       </c>
       <c r="AC2" t="s">
         <v>863</v>
       </c>
       <c r="AD2" t="s">
-        <v>1597</v>
+        <v>1780</v>
       </c>
       <c r="AE2" t="s">
         <v>860</v>
@@ -15053,10 +15452,10 @@
         <v>1305</v>
       </c>
       <c r="M4" t="s">
-        <v>1590</v>
+        <v>1773</v>
       </c>
       <c r="N4" t="s">
-        <v>1591</v>
+        <v>1774</v>
       </c>
       <c r="O4" t="s">
         <v>860</v>
@@ -15072,10 +15471,10 @@
         <v>1309</v>
       </c>
       <c r="T4" t="s">
-        <v>1594</v>
+        <v>1777</v>
       </c>
       <c r="U4" t="s">
-        <v>1595</v>
+        <v>1778</v>
       </c>
       <c r="V4" t="s">
         <v>860</v>
@@ -15091,10 +15490,10 @@
         <v>865</v>
       </c>
       <c r="AA4" t="s">
-        <v>1758</v>
+        <v>1797</v>
       </c>
       <c r="AB4" t="s">
-        <v>1759</v>
+        <v>1798</v>
       </c>
       <c r="AC4" t="s">
         <v>860</v>
@@ -15125,7 +15524,7 @@
         <v>860</v>
       </c>
       <c r="BA4" t="s">
-        <v>1598</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.25">
@@ -15471,7 +15870,7 @@
         <v>10089905</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="E4" t="s">
         <v>1035</v>
@@ -15631,7 +16030,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15676,7 +16075,7 @@
         <v>1329</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>1600</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -16026,15 +16425,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1602</v>
+        <v>1591</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>1603</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1604</v>
+        <v>1593</v>
       </c>
       <c r="B2">
         <v>1.39</v>
@@ -16042,15 +16441,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1605</v>
+        <v>1594</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>1606</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1607</v>
+        <v>1596</v>
       </c>
       <c r="B4">
         <v>323325.90999999997</v>
@@ -16138,7 +16537,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1604</v>
+        <v>1593</v>
       </c>
       <c r="B15">
         <v>1.39</v>
@@ -16146,7 +16545,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1605</v>
+        <v>1594</v>
       </c>
       <c r="B16">
         <v>323363078.55000001</v>
@@ -16154,7 +16553,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1607</v>
+        <v>1596</v>
       </c>
       <c r="B17">
         <v>323325.90999999997</v>
@@ -16245,7 +16644,7 @@
         <v>278</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>1608</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -16253,7 +16652,7 @@
         <v>285</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>1609</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -16261,7 +16660,7 @@
         <v>309</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>1610</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -16269,7 +16668,7 @@
         <v>293</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>1611</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -16277,7 +16676,7 @@
         <v>291</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>1612</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -16285,7 +16684,7 @@
         <v>319</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>1613</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -16293,7 +16692,7 @@
         <v>289</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>1614</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -16301,7 +16700,7 @@
         <v>322</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>1615</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -16309,7 +16708,7 @@
         <v>302</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>1616</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -16317,7 +16716,7 @@
         <v>317</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>1617</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -16325,7 +16724,7 @@
         <v>306</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>1618</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -16333,7 +16732,7 @@
         <v>313</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>1619</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -16341,7 +16740,7 @@
         <v>287</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>1616</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -16349,15 +16748,15 @@
         <v>311</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>1620</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1621</v>
+        <v>1610</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>1622</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -16365,7 +16764,7 @@
         <v>298</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>1611</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -16373,7 +16772,7 @@
         <v>330</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>1623</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -16381,7 +16780,7 @@
         <v>347</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>1624</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -16389,7 +16788,7 @@
         <v>470</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>1625</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -16397,7 +16796,7 @@
         <v>339</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>1626</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -16405,7 +16804,7 @@
         <v>83</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>1627</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -16413,7 +16812,7 @@
         <v>343</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>1628</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -16421,7 +16820,7 @@
         <v>352</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>1629</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -16429,7 +16828,7 @@
         <v>357</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>1616</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -16437,7 +16836,7 @@
         <v>324</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>1630</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -16445,7 +16844,7 @@
         <v>362</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>1631</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -16453,7 +16852,7 @@
         <v>366</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>1632</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -16461,7 +16860,7 @@
         <v>364</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>1633</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -16469,7 +16868,7 @@
         <v>369</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>1634</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -16477,23 +16876,23 @@
         <v>265</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>1635</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1636</v>
+        <v>1625</v>
       </c>
       <c r="B58" s="28" t="s">
-        <v>1637</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1638</v>
+        <v>1627</v>
       </c>
       <c r="B59" s="28" t="s">
-        <v>1639</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -16501,7 +16900,7 @@
         <v>372</v>
       </c>
       <c r="B60" s="28" t="s">
-        <v>1640</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -16509,7 +16908,7 @@
         <v>376</v>
       </c>
       <c r="B61" s="28" t="s">
-        <v>1641</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -16517,7 +16916,7 @@
         <v>381</v>
       </c>
       <c r="B62" s="28" t="s">
-        <v>1642</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -16525,7 +16924,7 @@
         <v>386</v>
       </c>
       <c r="B63" s="28" t="s">
-        <v>1643</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -16533,7 +16932,7 @@
         <v>396</v>
       </c>
       <c r="B64" s="28" t="s">
-        <v>1644</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -16541,7 +16940,7 @@
         <v>399</v>
       </c>
       <c r="B65" s="28" t="s">
-        <v>1645</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -16549,7 +16948,7 @@
         <v>394</v>
       </c>
       <c r="B66" s="28" t="s">
-        <v>1646</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -16557,7 +16956,7 @@
         <v>412</v>
       </c>
       <c r="B67" s="28" t="s">
-        <v>1647</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -16565,7 +16964,7 @@
         <v>408</v>
       </c>
       <c r="B68" s="28" t="s">
-        <v>1648</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -16573,7 +16972,7 @@
         <v>415</v>
       </c>
       <c r="B69" s="28" t="s">
-        <v>1649</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -16581,7 +16980,7 @@
         <v>421</v>
       </c>
       <c r="B70" s="28" t="s">
-        <v>1650</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -16589,7 +16988,7 @@
         <v>419</v>
       </c>
       <c r="B71" s="28" t="s">
-        <v>1651</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -16597,7 +16996,7 @@
         <v>355</v>
       </c>
       <c r="B72" s="28" t="s">
-        <v>1652</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -16605,7 +17004,7 @@
         <v>417</v>
       </c>
       <c r="B73" s="28" t="s">
-        <v>1653</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -16613,7 +17012,7 @@
         <v>423</v>
       </c>
       <c r="B74" s="28" t="s">
-        <v>1654</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -16621,7 +17020,7 @@
         <v>427</v>
       </c>
       <c r="B75" s="28" t="s">
-        <v>1655</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -16629,7 +17028,7 @@
         <v>438</v>
       </c>
       <c r="B76" s="28" t="s">
-        <v>1656</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -16637,7 +17036,7 @@
         <v>252</v>
       </c>
       <c r="B77" s="28" t="s">
-        <v>1657</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -16645,7 +17044,7 @@
         <v>433</v>
       </c>
       <c r="B78" s="28" t="s">
-        <v>1658</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -16653,7 +17052,7 @@
         <v>425</v>
       </c>
       <c r="B79" s="28" t="s">
-        <v>1659</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -16661,7 +17060,7 @@
         <v>441</v>
       </c>
       <c r="B80" s="28" t="s">
-        <v>1660</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -16669,7 +17068,7 @@
         <v>447</v>
       </c>
       <c r="B81" s="28" t="s">
-        <v>1661</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -16677,7 +17076,7 @@
         <v>443</v>
       </c>
       <c r="B82" s="28" t="s">
-        <v>1662</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -16685,7 +17084,7 @@
         <v>451</v>
       </c>
       <c r="B83" s="28" t="s">
-        <v>1663</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -16693,7 +17092,7 @@
         <v>457</v>
       </c>
       <c r="B84" s="28" t="s">
-        <v>1664</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -16701,7 +17100,7 @@
         <v>326</v>
       </c>
       <c r="B85" s="28" t="s">
-        <v>1665</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -16709,7 +17108,7 @@
         <v>345</v>
       </c>
       <c r="B86" s="28" t="s">
-        <v>1666</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -16717,7 +17116,7 @@
         <v>595</v>
       </c>
       <c r="B87" s="28" t="s">
-        <v>1667</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -16725,7 +17124,7 @@
         <v>455</v>
       </c>
       <c r="B88" s="28" t="s">
-        <v>1668</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -16733,7 +17132,7 @@
         <v>333</v>
       </c>
       <c r="B89" s="28" t="s">
-        <v>1669</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -16741,7 +17140,7 @@
         <v>449</v>
       </c>
       <c r="B90" s="28" t="s">
-        <v>1670</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -16749,7 +17148,7 @@
         <v>459</v>
       </c>
       <c r="B91" s="28" t="s">
-        <v>1671</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -16757,7 +17156,7 @@
         <v>462</v>
       </c>
       <c r="B92" s="28" t="s">
-        <v>1672</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -16765,7 +17164,7 @@
         <v>599</v>
       </c>
       <c r="B93" s="28" t="s">
-        <v>1673</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -16773,23 +17172,23 @@
         <v>466</v>
       </c>
       <c r="B94" s="28" t="s">
-        <v>1674</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1675</v>
+        <v>1664</v>
       </c>
       <c r="B95" s="28" t="s">
-        <v>1676</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>1677</v>
+        <v>1666</v>
       </c>
       <c r="B96" s="28" t="s">
-        <v>1678</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -16797,7 +17196,7 @@
         <v>468</v>
       </c>
       <c r="B97" s="28" t="s">
-        <v>1623</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -16805,7 +17204,7 @@
         <v>503</v>
       </c>
       <c r="B98" s="28" t="s">
-        <v>1679</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -16813,7 +17212,7 @@
         <v>496</v>
       </c>
       <c r="B99" s="28" t="s">
-        <v>1680</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -16821,7 +17220,7 @@
         <v>476</v>
       </c>
       <c r="B100" s="28" t="s">
-        <v>1681</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -16829,7 +17228,7 @@
         <v>527</v>
       </c>
       <c r="B101" s="28" t="s">
-        <v>1682</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -16837,7 +17236,7 @@
         <v>507</v>
       </c>
       <c r="B102" s="28" t="s">
-        <v>1683</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -16845,7 +17244,7 @@
         <v>499</v>
       </c>
       <c r="B103" s="28" t="s">
-        <v>1684</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -16853,15 +17252,15 @@
         <v>474</v>
       </c>
       <c r="B104" s="28" t="s">
-        <v>1685</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>1686</v>
+        <v>1675</v>
       </c>
       <c r="B105" s="28" t="s">
-        <v>1687</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -16869,7 +17268,7 @@
         <v>490</v>
       </c>
       <c r="B106" s="28" t="s">
-        <v>1688</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -16877,7 +17276,7 @@
         <v>482</v>
       </c>
       <c r="B107" s="28" t="s">
-        <v>1689</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -16885,7 +17284,7 @@
         <v>478</v>
       </c>
       <c r="B108" s="28" t="s">
-        <v>1690</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -16893,7 +17292,7 @@
         <v>493</v>
       </c>
       <c r="B109" s="28" t="s">
-        <v>1691</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -16901,15 +17300,15 @@
         <v>480</v>
       </c>
       <c r="B110" s="28" t="s">
-        <v>1692</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>1693</v>
+        <v>1682</v>
       </c>
       <c r="B111" s="28" t="s">
-        <v>1694</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -16917,7 +17316,7 @@
         <v>505</v>
       </c>
       <c r="B112" s="28" t="s">
-        <v>1695</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -16925,7 +17324,7 @@
         <v>520</v>
       </c>
       <c r="B113" s="28" t="s">
-        <v>1696</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -16933,7 +17332,7 @@
         <v>517</v>
       </c>
       <c r="B114" s="28" t="s">
-        <v>1697</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -16941,7 +17340,7 @@
         <v>529</v>
       </c>
       <c r="B115" s="28" t="s">
-        <v>1698</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -16949,7 +17348,7 @@
         <v>512</v>
       </c>
       <c r="B116" s="28" t="s">
-        <v>1699</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -16957,7 +17356,7 @@
         <v>337</v>
       </c>
       <c r="B117" s="28" t="s">
-        <v>1700</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -16965,7 +17364,7 @@
         <v>531</v>
       </c>
       <c r="B118" s="28" t="s">
-        <v>1701</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -16973,7 +17372,7 @@
         <v>542</v>
       </c>
       <c r="B119" s="28" t="s">
-        <v>1702</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -16981,7 +17380,7 @@
         <v>538</v>
       </c>
       <c r="B120" s="28" t="s">
-        <v>1703</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -16989,7 +17388,7 @@
         <v>544</v>
       </c>
       <c r="B121" s="28" t="s">
-        <v>1704</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -16997,7 +17396,7 @@
         <v>533</v>
       </c>
       <c r="B122" s="28" t="s">
-        <v>1705</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -17005,7 +17404,7 @@
         <v>547</v>
       </c>
       <c r="B123" s="28" t="s">
-        <v>1706</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -17013,7 +17412,7 @@
         <v>540</v>
       </c>
       <c r="B124" s="28" t="s">
-        <v>1707</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -17021,15 +17420,15 @@
         <v>551</v>
       </c>
       <c r="B125" s="28" t="s">
-        <v>1708</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>1709</v>
+        <v>1698</v>
       </c>
       <c r="B126" s="28" t="s">
-        <v>1710</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -17037,7 +17436,7 @@
         <v>554</v>
       </c>
       <c r="B127" s="28" t="s">
-        <v>1711</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -17045,7 +17444,7 @@
         <v>576</v>
       </c>
       <c r="B128" s="28" t="s">
-        <v>1712</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -17053,7 +17452,7 @@
         <v>556</v>
       </c>
       <c r="B129" s="28" t="s">
-        <v>1713</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -17061,7 +17460,7 @@
         <v>558</v>
       </c>
       <c r="B130" s="28" t="s">
-        <v>1714</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -17069,7 +17468,7 @@
         <v>573</v>
       </c>
       <c r="B131" s="28" t="s">
-        <v>1715</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -17077,7 +17476,7 @@
         <v>588</v>
       </c>
       <c r="B132" s="28" t="s">
-        <v>1716</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -17085,7 +17484,7 @@
         <v>578</v>
       </c>
       <c r="B133" s="28" t="s">
-        <v>1717</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -17093,7 +17492,7 @@
         <v>606</v>
       </c>
       <c r="B134" s="28" t="s">
-        <v>1679</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -17101,7 +17500,7 @@
         <v>582</v>
       </c>
       <c r="B135" s="28" t="s">
-        <v>1617</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -17109,7 +17508,7 @@
         <v>580</v>
       </c>
       <c r="B136" s="28" t="s">
-        <v>1718</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -17117,7 +17516,7 @@
         <v>590</v>
       </c>
       <c r="B137" s="28" t="s">
-        <v>1719</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -17125,15 +17524,15 @@
         <v>603</v>
       </c>
       <c r="B138" s="28" t="s">
-        <v>1720</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>1721</v>
+        <v>1710</v>
       </c>
       <c r="B139" s="28" t="s">
-        <v>1722</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -17141,7 +17540,7 @@
         <v>379</v>
       </c>
       <c r="B140" s="28" t="s">
-        <v>1723</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -17149,7 +17548,7 @@
         <v>617</v>
       </c>
       <c r="B141" s="28" t="s">
-        <v>1724</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -17157,7 +17556,7 @@
         <v>613</v>
       </c>
       <c r="B142" s="28" t="s">
-        <v>1725</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -17165,7 +17564,7 @@
         <v>631</v>
       </c>
       <c r="B143" s="28" t="s">
-        <v>1726</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -17173,7 +17572,7 @@
         <v>627</v>
       </c>
       <c r="B144" s="28" t="s">
-        <v>1727</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -17181,7 +17580,7 @@
         <v>622</v>
       </c>
       <c r="B145" s="28" t="s">
-        <v>1728</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -17189,7 +17588,7 @@
         <v>629</v>
       </c>
       <c r="B146" s="28" t="s">
-        <v>1729</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -17197,7 +17596,7 @@
         <v>624</v>
       </c>
       <c r="B147" s="28" t="s">
-        <v>1730</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -17205,7 +17604,7 @@
         <v>611</v>
       </c>
       <c r="B148" s="28" t="s">
-        <v>1731</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -17213,7 +17612,7 @@
         <v>615</v>
       </c>
       <c r="B149" s="28" t="s">
-        <v>1732</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -17221,7 +17620,7 @@
         <v>637</v>
       </c>
       <c r="B150" s="28" t="s">
-        <v>1733</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -17229,7 +17628,7 @@
         <v>635</v>
       </c>
       <c r="B151" s="28" t="s">
-        <v>1734</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -17237,7 +17636,7 @@
         <v>641</v>
       </c>
       <c r="B152" s="28" t="s">
-        <v>1735</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -17245,7 +17644,7 @@
         <v>644</v>
       </c>
       <c r="B153" s="28" t="s">
-        <v>1736</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -17253,7 +17652,7 @@
         <v>651</v>
       </c>
       <c r="B154" s="28" t="s">
-        <v>1737</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -17261,7 +17660,7 @@
         <v>646</v>
       </c>
       <c r="B155" s="28" t="s">
-        <v>1738</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -17269,7 +17668,7 @@
         <v>568</v>
       </c>
       <c r="B156" s="28" t="s">
-        <v>1739</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -17277,7 +17676,7 @@
         <v>271</v>
       </c>
       <c r="B157" s="28" t="s">
-        <v>1740</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -17285,7 +17684,7 @@
         <v>300</v>
       </c>
       <c r="B158" s="28" t="s">
-        <v>1741</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -17293,7 +17692,7 @@
         <v>391</v>
       </c>
       <c r="B159" s="28" t="s">
-        <v>1742</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -17301,7 +17700,7 @@
         <v>655</v>
       </c>
       <c r="B160" s="28" t="s">
-        <v>1743</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -17309,15 +17708,15 @@
         <v>592</v>
       </c>
       <c r="B161" s="28" t="s">
-        <v>1723</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>1744</v>
+        <v>1733</v>
       </c>
       <c r="B162" s="28" t="s">
-        <v>1745</v>
+        <v>1734</v>
       </c>
     </row>
   </sheetData>
@@ -21885,10 +22284,10 @@
         <v>894</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
@@ -21997,7 +22396,7 @@
         <v>836</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>1026</v>
@@ -22016,7 +22415,7 @@
         <v>837</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>1027</v>
@@ -22334,10 +22733,10 @@
         <v>1003</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
@@ -22454,7 +22853,7 @@
         <v>836</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>1026</v>
@@ -22474,7 +22873,7 @@
         <v>837</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>1027</v>
@@ -22674,10 +23073,10 @@
         <v>1003</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
@@ -22694,10 +23093,10 @@
         <v>1004</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
@@ -22837,10 +23236,10 @@
         <v>894</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -22851,10 +23250,10 @@
         <v>899</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -25175,13 +25574,13 @@
         <v>240</v>
       </c>
       <c r="B6" s="95" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="C6" s="95" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="D6" s="95" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -25192,7 +25591,7 @@
         <v>10000</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="D7">
         <v>10000</v>
@@ -25291,13 +25690,13 @@
         <v>236</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -25713,16 +26112,16 @@
         <v>1008</v>
       </c>
       <c r="C4" s="95" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="D4" s="95" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="E4" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="F4" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
     </row>
   </sheetData>
@@ -26006,7 +26405,7 @@
         <v>1435</v>
       </c>
       <c r="D5" s="103" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -26634,7 +27033,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26664,7 +27063,7 @@
         <v>159</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>1599</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -26705,7 +27104,7 @@
         <v>805</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>1749</v>
+        <v>1808</v>
       </c>
     </row>
   </sheetData>
@@ -26722,7 +27121,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26751,7 +27150,7 @@
         <v>159</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>1770</v>
+        <v>1803</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>1359</v>
@@ -26795,7 +27194,7 @@
         <v>805</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>1769</v>
+        <v>1809</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>1403</v>
@@ -26984,7 +27383,7 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -27017,8 +27416,8 @@
       <c r="C2" t="s">
         <v>1397</v>
       </c>
-      <c r="D2" s="56" t="s">
-        <v>1768</v>
+      <c r="D2" s="28" t="s">
+        <v>1769</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -27062,8 +27461,8 @@
       <c r="C6" t="s">
         <v>1398</v>
       </c>
-      <c r="D6" s="56" t="s">
-        <v>1771</v>
+      <c r="D6" s="28" t="s">
+        <v>1810</v>
       </c>
       <c r="F6"/>
     </row>
@@ -28331,7 +28730,7 @@
         <v>1435</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>

--- a/WppRegpack/TestResource/Regression/DS_SPN_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_SPN_REGRESSION.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" firstSheet="120" activeTab="123"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" firstSheet="132" activeTab="133"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -145,10 +145,13 @@
     <sheet name="ReallocateJobEntries" sheetId="126" r:id="rId131"/>
     <sheet name="JobClosure" sheetId="127" r:id="rId132"/>
     <sheet name="PurchaseOrderMPL" sheetId="137" r:id="rId133"/>
+    <sheet name="TrailBalanceDetailReport" sheetId="139" r:id="rId134"/>
+    <sheet name="ProfitAndLossReport" sheetId="140" r:id="rId135"/>
+    <sheet name="BalanceSheetReport" sheetId="141" r:id="rId136"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -156,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4712" uniqueCount="1817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4734" uniqueCount="1822">
   <si>
     <t>Description</t>
   </si>
@@ -5613,13 +5616,27 @@
   </si>
   <si>
     <t>100839253</t>
+  </si>
+  <si>
+    <t>PeriodFrom</t>
+  </si>
+  <si>
+    <t>2020-06</t>
+  </si>
+  <si>
+    <t>2021-01</t>
+  </si>
+  <si>
+    <t>PeriodTo</t>
+  </si>
+  <si>
+    <t>2021-07</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6381,9 +6398,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="40.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="42.85546875" collapsed="true"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="42.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6458,11 +6475,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="92" width="22.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="92" width="34.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="92" width="13.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="92" width="10.7109375" collapsed="true"/>
-    <col min="5" max="16384" style="92" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="22.7109375" style="92" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.140625" style="92" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.5703125" style="92" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.7109375" style="92" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="8.7109375" style="92" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -6588,8 +6605,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -6662,8 +6679,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -6727,8 +6744,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -6772,8 +6789,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -6816,9 +6833,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="92" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="92" width="35.0" collapsed="true"/>
-    <col min="3" max="16384" style="92" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="18" style="92" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" style="92" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="92" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -6859,8 +6876,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -6895,8 +6912,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -6940,17 +6957,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -7070,17 +7087,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -7303,9 +7320,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="3" max="16384" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -7344,7 +7361,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" style="28" width="9.140625" collapsed="true"/>
+    <col min="1" max="16384" width="9.140625" style="28" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -7635,17 +7652,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -7728,20 +7745,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="14" max="14" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="9.140625" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -7861,15 +7878,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="19" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7950,8 +7967,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="28" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="28" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -7986,11 +8003,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -8046,13 +8063,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="19" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8133,9 +8150,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="28" width="11.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -8177,49 +8194,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="33.42578125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="56" max="56" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="19" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="33.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="15" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:61" x14ac:dyDescent="0.25">
@@ -8474,49 +8491,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="33.42578125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="56" max="56" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="19" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="33.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="15" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:61" x14ac:dyDescent="0.25">
@@ -8771,8 +8788,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="92" customFormat="1" x14ac:dyDescent="0.25">
@@ -8836,16 +8853,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="30.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="2" max="2" width="21" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -8921,11 +8938,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -8984,9 +9001,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -9065,9 +9082,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="28" width="11.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -9109,14 +9126,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="28" width="9.140625" collapsed="true"/>
-    <col min="50" max="16384" style="28" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="28" collapsed="1"/>
+    <col min="50" max="16384" width="9.140625" style="28" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:58" x14ac:dyDescent="0.25">
@@ -9524,8 +9541,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9584,8 +9601,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9637,9 +9654,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="16384" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9691,9 +9708,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="92" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="92" width="16.28515625" collapsed="true"/>
-    <col min="3" max="16384" style="92" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" style="92" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.28515625" style="92" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="8.7109375" style="92" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9755,9 +9772,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="92" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="92" width="16.28515625" collapsed="true"/>
-    <col min="3" max="16384" style="92" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" style="92" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.28515625" style="92" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="8.7109375" style="92" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9810,9 +9827,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="3" max="16384" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9851,9 +9868,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="92" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="92" width="16.28515625" collapsed="true"/>
-    <col min="3" max="16384" style="92" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" style="92" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.28515625" style="92" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="8.7109375" style="92" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9906,8 +9923,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9966,7 +9983,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" style="28" width="9.140625" collapsed="true"/>
+    <col min="1" max="16384" width="9.140625" style="28" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -10009,12 +10026,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="6" max="7" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -10151,6 +10168,186 @@
       </c>
       <c r="V2" t="s">
         <v>860</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet134.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1707</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>668</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1707</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet135.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1707</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>668</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1707</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet136.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1707</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>668</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1707</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>1821</v>
       </c>
     </row>
   </sheetData>
@@ -10172,9 +10369,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="3" max="5" customWidth="true" width="50.5703125" collapsed="true"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="50.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -10654,9 +10851,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="43.85546875" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="53.140625" collapsed="true"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="43.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="53.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -11103,8 +11300,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="42.5703125" collapsed="true"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -11272,10 +11469,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="20.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="28" width="31.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
+    <col min="1" max="1" width="20.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.85546875" style="28" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -11547,10 +11744,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="45" width="30.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="45" width="33.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="28" width="26.85546875" collapsed="true"/>
-    <col min="4" max="16384" style="28" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="30.140625" style="45" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" style="45" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.85546875" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="28" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -11759,39 +11956,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
@@ -12100,11 +12297,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" customWidth="true" style="28" width="31.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="28" width="32.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="28" width="42.5703125" collapsed="true"/>
-    <col min="11" max="172" customWidth="true" style="28" width="32.0" collapsed="true"/>
-    <col min="173" max="16384" style="28" width="9.140625" collapsed="true"/>
+    <col min="1" max="8" width="31.140625" style="28" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="32" style="28" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="42.5703125" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="172" width="32" style="28" customWidth="1" collapsed="1"/>
+    <col min="173" max="16384" width="9.140625" style="28" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:174" x14ac:dyDescent="0.25">
@@ -14855,9 +15052,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" style="28" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="28" width="8.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="28" width="9.140625" collapsed="true"/>
+    <col min="1" max="2" width="11.7109375" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.5703125" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="28" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -14911,8 +15108,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="28" width="9.0" collapsed="true"/>
-    <col min="2" max="16384" style="28" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9" style="28" customWidth="1" collapsed="1"/>
+    <col min="2" max="16384" width="9.140625" style="28" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
@@ -15239,7 +15436,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" style="28" width="9.140625" collapsed="true"/>
+    <col min="1" max="16384" width="9.140625" style="28" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.25">
@@ -15692,28 +15889,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -15901,8 +16098,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -15944,8 +16141,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="1" max="2" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="29.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -15996,8 +16193,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="32.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -16035,9 +16232,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" style="28" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="19" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -16306,8 +16503,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -16369,8 +16566,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -16420,7 +16617,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="28" width="12.0" collapsed="true"/>
+    <col min="2" max="2" width="12" style="28" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -17738,9 +17935,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -17963,9 +18160,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -18188,9 +18385,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="28" width="31.85546875" collapsed="true"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.85546875" style="28" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -18413,9 +18610,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -18638,40 +18835,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
@@ -18936,40 +19133,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
@@ -19270,40 +19467,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
@@ -19544,40 +19741,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
@@ -19878,9 +20075,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -19933,9 +20130,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -19988,7 +20185,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -22042,9 +22239,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -22097,9 +22294,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -22155,15 +22352,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="31.0" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" style="28" width="60.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="28" width="51.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="28" width="51.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="28" width="58.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="28" width="57.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="28" width="63.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="28" width="45.28515625" collapsed="true"/>
-    <col min="10" max="16384" style="28" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="31" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="60.140625" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="51" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="51.85546875" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="58.140625" style="28" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="57.7109375" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="63.7109375" style="28" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="45.28515625" style="28" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="28" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22600,10 +22797,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" style="28" width="60.140625" collapsed="true"/>
-    <col min="4" max="9" bestFit="true" customWidth="true" width="87.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="69.42578125" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="60.140625" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="9" width="87.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="69.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23140,10 +23337,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="24.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="28" width="23.140625" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" style="28" width="21.85546875" collapsed="true"/>
-    <col min="5" max="16384" style="28" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="24.140625" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.140625" style="28" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="21.85546875" style="28" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9.140625" style="28" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23289,8 +23486,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="31.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="28" width="60.140625" collapsed="true"/>
+    <col min="1" max="1" width="31" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="60.140625" style="28" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23355,9 +23552,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="26.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23423,9 +23620,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -23553,46 +23750,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.25">
@@ -23816,40 +24013,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -24033,9 +24230,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
-    <col min="4" max="9" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="9" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24243,8 +24440,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -24286,8 +24483,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -24323,41 +24520,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="28" width="22.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.85546875" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.25">
@@ -24535,8 +24732,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -24580,41 +24777,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="28" width="22.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.85546875" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.25">
@@ -24792,8 +24989,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -24837,41 +25034,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="28" width="22.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.85546875" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.25">
@@ -25049,8 +25246,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -25094,41 +25291,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="28" width="22.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.85546875" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.25">
@@ -25306,8 +25503,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -25351,8 +25548,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="36.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25494,9 +25691,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" width="24.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="24.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -25630,9 +25827,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="21.140625" collapsed="true"/>
-    <col min="2" max="4" bestFit="true" customWidth="true" style="28" width="12.42578125" collapsed="true"/>
-    <col min="5" max="16384" style="28" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="21.140625" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="4" width="12.42578125" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9.140625" style="28" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -25732,8 +25929,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -25833,8 +26030,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25931,8 +26128,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -26018,12 +26215,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="7" max="15" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="1" max="2" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="15" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -26143,7 +26340,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -26185,7 +26382,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -26224,8 +26421,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -26279,9 +26476,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -26347,10 +26544,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="92" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="92" width="22.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="92" width="13.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="92" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" style="92" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.28515625" style="92" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.5703125" style="92" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="8.7109375" style="92" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -26468,9 +26665,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="33.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -26549,9 +26746,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="14.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="28" width="15.28515625" collapsed="true"/>
-    <col min="3" max="16384" style="28" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.28515625" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.28515625" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="28" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -26696,12 +26893,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="7" max="8" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -26772,7 +26969,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -26816,8 +27013,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -26867,12 +27064,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="7" max="8" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -26943,7 +27140,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -26987,8 +27184,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -27038,10 +27235,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="20.42578125" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" style="28" width="24.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="28" width="14.42578125" collapsed="true"/>
-    <col min="5" max="16384" style="28" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="20.42578125" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="24.42578125" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.42578125" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9.140625" style="28" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -27126,9 +27323,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="20.42578125" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" style="28" width="24.42578125" collapsed="true"/>
-    <col min="4" max="16384" style="28" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="20.42578125" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="24.42578125" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="28" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -27221,11 +27418,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="92" width="23.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="92" width="32.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="92" width="12.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="92" width="10.7109375" collapsed="true"/>
-    <col min="5" max="16384" style="92" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="23" style="92" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.5703125" style="92" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.85546875" style="92" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.7109375" style="92" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="8.7109375" style="92" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -27337,8 +27534,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -27389,10 +27586,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="20.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="28" width="24.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="28" width="22.42578125" collapsed="true"/>
-    <col min="4" max="16384" style="28" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="20.42578125" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.42578125" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.42578125" style="28" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="28" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -27501,17 +27698,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -27618,9 +27815,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="3" max="16384" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -27770,9 +27967,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="3" max="16384" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -27916,9 +28113,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="43.85546875" collapsed="true"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="43.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -28120,9 +28317,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="43.85546875" collapsed="true"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="43.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -28338,10 +28535,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="43.85546875" collapsed="true"/>
-    <col min="6" max="16384" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="43.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -28557,8 +28754,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28616,8 +28813,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28683,10 +28880,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="92" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="92" width="16.28515625" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" style="92" width="10.7109375" collapsed="true"/>
-    <col min="5" max="16384" style="92" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" style="92" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.28515625" style="92" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="10.7109375" style="92" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="8.7109375" style="92" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -28826,8 +29023,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28897,8 +29094,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -28970,8 +29167,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -29055,8 +29252,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -29138,8 +29335,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -29183,8 +29380,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -29239,8 +29436,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -29295,8 +29492,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -29351,8 +29548,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -29407,8 +29604,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/WppRegpack/TestResource/Regression/DS_SPN_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_SPN_REGRESSION.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB97339-9894-44B5-B10D-2582BAAD1F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CB4FB2-A5D9-49D6-8334-683A89E827E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5720,9 +5720,6 @@
     <t>AutoGlobalProduct 28January2022 13:48:42</t>
   </si>
   <si>
-    <t>1010607</t>
-  </si>
-  <si>
     <t>B101-VMLY&amp;Rx Barcelona</t>
   </si>
   <si>
@@ -5975,6 +5972,9 @@
   </si>
   <si>
     <t>C:\GlobalTestSuiteAutomation\WppRegPack\MPLReports\Critical_Regression\Spain\1031\P_PaymentOrder-3.pdf</t>
+  </si>
+  <si>
+    <t>1010608</t>
   </si>
 </sst>
 </file>
@@ -6912,7 +6912,7 @@
         <v>1527</v>
       </c>
       <c r="E6" s="103" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -6938,16 +6938,16 @@
         <v>242</v>
       </c>
       <c r="B9" s="103" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="C9" s="103" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D9" s="103" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="E9" s="103" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -7694,7 +7694,7 @@
         <v>942</v>
       </c>
       <c r="H5" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="I5" s="55" t="s">
         <v>811</v>
@@ -7710,7 +7710,7 @@
         <v>249</v>
       </c>
       <c r="O5" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="P5" s="55" t="s">
         <v>943</v>
@@ -8100,28 +8100,28 @@
         <v>1841</v>
       </c>
       <c r="B5" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C5" t="s">
         <v>1898</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1899</v>
       </c>
       <c r="D5" t="s">
         <v>795</v>
       </c>
       <c r="E5" t="s">
+        <v>1899</v>
+      </c>
+      <c r="F5" t="s">
         <v>1900</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>1899</v>
+      </c>
+      <c r="H5" t="s">
         <v>1901</v>
       </c>
-      <c r="G5" t="s">
-        <v>1900</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1902</v>
-      </c>
       <c r="I5" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="J5" t="s">
         <v>942</v>
@@ -8151,16 +8151,16 @@
         <v>1226</v>
       </c>
       <c r="S5" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="T5" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="U5" t="s">
         <v>249</v>
       </c>
       <c r="V5" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="W5" t="s">
         <v>1231</v>
@@ -10140,10 +10140,10 @@
         <v>1305</v>
       </c>
       <c r="M5" t="s">
+        <v>1868</v>
+      </c>
+      <c r="N5" t="s">
         <v>1869</v>
-      </c>
-      <c r="N5" t="s">
-        <v>1870</v>
       </c>
       <c r="O5" t="s">
         <v>858</v>
@@ -10152,25 +10152,25 @@
         <v>860</v>
       </c>
       <c r="Q5" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="R5" t="s">
         <v>863</v>
       </c>
       <c r="S5" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="T5" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="U5" t="s">
         <v>1309</v>
       </c>
       <c r="V5" t="s">
+        <v>1872</v>
+      </c>
+      <c r="W5" t="s">
         <v>1873</v>
-      </c>
-      <c r="W5" t="s">
-        <v>1874</v>
       </c>
       <c r="X5" t="s">
         <v>858</v>
@@ -10179,25 +10179,25 @@
         <v>860</v>
       </c>
       <c r="Z5" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="AA5" t="s">
         <v>863</v>
       </c>
       <c r="AB5" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="AC5" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="AD5" t="s">
         <v>865</v>
       </c>
       <c r="AE5" t="s">
+        <v>1876</v>
+      </c>
+      <c r="AF5" t="s">
         <v>1877</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>1878</v>
       </c>
       <c r="AG5" t="s">
         <v>858</v>
@@ -10206,19 +10206,19 @@
         <v>860</v>
       </c>
       <c r="AI5" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="AJ5" t="s">
         <v>863</v>
       </c>
       <c r="AK5" t="s">
+        <v>1879</v>
+      </c>
+      <c r="AU5" t="s">
         <v>1880</v>
       </c>
-      <c r="AU5" t="s">
+      <c r="AV5" t="s">
         <v>1881</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>1882</v>
       </c>
       <c r="AW5" t="s">
         <v>933</v>
@@ -10425,13 +10425,13 @@
         <v>1325</v>
       </c>
       <c r="BJ1" t="s">
+        <v>1918</v>
+      </c>
+      <c r="BK1" t="s">
         <v>1919</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>1920</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>1921</v>
       </c>
       <c r="BM1" t="s">
         <v>931</v>
@@ -10454,10 +10454,10 @@
         <v>1305</v>
       </c>
       <c r="D2" t="s">
+        <v>1868</v>
+      </c>
+      <c r="E2" t="s">
         <v>1869</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1870</v>
       </c>
       <c r="F2" t="s">
         <v>858</v>
@@ -10466,25 +10466,25 @@
         <v>860</v>
       </c>
       <c r="H2" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="I2" t="s">
         <v>863</v>
       </c>
       <c r="J2" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="K2" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="L2" t="s">
         <v>1309</v>
       </c>
       <c r="M2" t="s">
+        <v>1872</v>
+      </c>
+      <c r="N2" t="s">
         <v>1873</v>
-      </c>
-      <c r="N2" t="s">
-        <v>1874</v>
       </c>
       <c r="O2" t="s">
         <v>858</v>
@@ -10493,25 +10493,25 @@
         <v>860</v>
       </c>
       <c r="Q2" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="R2" t="s">
         <v>863</v>
       </c>
       <c r="S2" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="T2" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="U2" t="s">
         <v>865</v>
       </c>
       <c r="V2" t="s">
+        <v>1876</v>
+      </c>
+      <c r="W2" t="s">
         <v>1877</v>
-      </c>
-      <c r="W2" t="s">
-        <v>1878</v>
       </c>
       <c r="X2" t="s">
         <v>858</v>
@@ -10520,19 +10520,19 @@
         <v>860</v>
       </c>
       <c r="Z2" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="AA2" t="s">
         <v>863</v>
       </c>
       <c r="AB2" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="BM2" t="s">
+        <v>1921</v>
+      </c>
+      <c r="BN2" t="s">
         <v>1922</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>1923</v>
       </c>
       <c r="BO2" t="s">
         <v>933</v>
@@ -11188,7 +11188,7 @@
         <v>1841</v>
       </c>
       <c r="B3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="C3" t="s">
         <v>1036</v>
@@ -12937,7 +12937,7 @@
         <v>1029</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -12954,7 +12954,7 @@
         <v>1059</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -12971,7 +12971,7 @@
         <v>1060</v>
       </c>
       <c r="E14" s="105" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -13035,7 +13035,7 @@
         <v>10089910</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
   </sheetData>
@@ -13620,10 +13620,10 @@
         <v>500</v>
       </c>
       <c r="K5" t="s">
+        <v>1854</v>
+      </c>
+      <c r="L5" t="s">
         <v>1855</v>
-      </c>
-      <c r="L5" t="s">
-        <v>1856</v>
       </c>
       <c r="M5">
         <v>15</v>
@@ -13632,10 +13632,10 @@
         <v>1500</v>
       </c>
       <c r="O5" t="s">
+        <v>1856</v>
+      </c>
+      <c r="P5" t="s">
         <v>1857</v>
-      </c>
-      <c r="P5" t="s">
-        <v>1858</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -13657,8 +13657,8 @@
   </sheetPr>
   <dimension ref="A1:FS149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14328,8 +14328,8 @@
       <c r="A22" t="s">
         <v>164</v>
       </c>
-      <c r="B22" t="s">
-        <v>1850</v>
+      <c r="B22" s="55" t="s">
+        <v>1934</v>
       </c>
       <c r="C22" t="s">
         <v>1767</v>
@@ -14423,7 +14423,7 @@
         <v>853</v>
       </c>
       <c r="B25" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="C25" t="s">
         <v>1059</v>
@@ -14452,7 +14452,7 @@
         <v>768</v>
       </c>
       <c r="B26" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="C26" t="s">
         <v>1804</v>
@@ -14564,7 +14564,7 @@
         <v>891</v>
       </c>
       <c r="B30" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="C30" t="s">
         <v>1799</v>
@@ -14587,7 +14587,7 @@
         <v>662</v>
       </c>
       <c r="B31" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="C31" t="s">
         <v>786</v>
@@ -14668,7 +14668,7 @@
         <v>1573</v>
       </c>
       <c r="B34" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="C34" t="s">
         <v>1769</v>
@@ -14710,7 +14710,7 @@
         <v>162</v>
       </c>
       <c r="B36" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="C36" t="s">
         <v>1783</v>
@@ -14737,7 +14737,7 @@
         <v>170</v>
       </c>
       <c r="B37" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="C37" t="s">
         <v>1786</v>
@@ -14766,7 +14766,7 @@
         <v>235</v>
       </c>
       <c r="B38" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="C38" t="s">
         <v>1742</v>
@@ -14880,7 +14880,7 @@
         <v>660</v>
       </c>
       <c r="B42" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="C42" t="s">
         <v>1787</v>
@@ -14909,7 +14909,7 @@
         <v>661</v>
       </c>
       <c r="B43" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="C43" t="s">
         <v>1547</v>
@@ -14938,7 +14938,7 @@
         <v>905</v>
       </c>
       <c r="B44" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="C44" t="s">
         <v>1788</v>
@@ -14970,7 +14970,7 @@
         <v>906</v>
       </c>
       <c r="B45" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="C45" t="s">
         <v>1787</v>
@@ -15149,7 +15149,7 @@
         <v>922</v>
       </c>
       <c r="B56" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="C56" t="s">
         <v>1807</v>
@@ -15168,7 +15168,7 @@
         <v>923</v>
       </c>
       <c r="B57" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="C57"/>
       <c r="D57"/>
@@ -15185,7 +15185,7 @@
         <v>935</v>
       </c>
       <c r="B58" s="111" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="C58"/>
       <c r="D58"/>
@@ -15202,7 +15202,7 @@
         <v>918</v>
       </c>
       <c r="B59" s="55" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="C59"/>
       <c r="D59"/>
@@ -15219,7 +15219,7 @@
         <v>787</v>
       </c>
       <c r="B60" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="I60" t="s">
         <v>1349</v>
@@ -15230,7 +15230,7 @@
         <v>936</v>
       </c>
       <c r="B61" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="C61" t="s">
         <v>1812</v>
@@ -15263,7 +15263,7 @@
         <v>937</v>
       </c>
       <c r="B62" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="C62" t="s">
         <v>1808</v>
@@ -15296,7 +15296,7 @@
         <v>938</v>
       </c>
       <c r="B63" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="C63" t="s">
         <v>1804</v>
@@ -15449,7 +15449,7 @@
         <v>945</v>
       </c>
       <c r="B72" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="C72" t="s">
         <v>1816</v>
@@ -15834,7 +15834,7 @@
         <v>1367</v>
       </c>
       <c r="B97" s="55" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="C97"/>
       <c r="D97"/>
@@ -15851,7 +15851,7 @@
         <v>1369</v>
       </c>
       <c r="B98" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="C98"/>
       <c r="D98"/>
@@ -15868,7 +15868,7 @@
         <v>1370</v>
       </c>
       <c r="B99" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="C99"/>
       <c r="D99"/>
@@ -15902,7 +15902,7 @@
         <v>1372</v>
       </c>
       <c r="B101" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="C101"/>
       <c r="D101"/>
@@ -16099,7 +16099,7 @@
         <v>1197</v>
       </c>
       <c r="B114" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="C114"/>
       <c r="D114"/>
@@ -16116,7 +16116,7 @@
         <v>1198</v>
       </c>
       <c r="B115" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="C115"/>
       <c r="D115"/>
@@ -16133,7 +16133,7 @@
         <v>939</v>
       </c>
       <c r="B116" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C116" t="s">
         <v>1814</v>
@@ -16160,7 +16160,7 @@
         <v>940</v>
       </c>
       <c r="B117" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="C117" t="s">
         <v>1809</v>
@@ -16187,7 +16187,7 @@
         <v>941</v>
       </c>
       <c r="B118" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="C118" t="s">
         <v>1803</v>
@@ -16214,7 +16214,7 @@
         <v>946</v>
       </c>
       <c r="B119" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="C119" t="s">
         <v>1810</v>
@@ -16241,7 +16241,7 @@
         <v>947</v>
       </c>
       <c r="B120" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="C120" t="s">
         <v>1769</v>
@@ -16291,7 +16291,7 @@
         <v>1245</v>
       </c>
       <c r="B123" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="C123" t="s">
         <v>1801</v>
@@ -16349,7 +16349,7 @@
         <v>1248</v>
       </c>
       <c r="B125" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="C125" t="s">
         <v>1802</v>
@@ -16459,7 +16459,7 @@
         <v>161</v>
       </c>
       <c r="B131" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="C131" t="s">
         <v>1796</v>
@@ -16485,7 +16485,7 @@
         <v>762</v>
       </c>
       <c r="B132" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="C132" t="s">
         <v>1789</v>
@@ -16508,7 +16508,7 @@
         <v>1522</v>
       </c>
       <c r="B133" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="C133" t="s">
         <v>1811</v>
@@ -16528,7 +16528,7 @@
         <v>1524</v>
       </c>
       <c r="B134" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="C134" t="s">
         <v>1525</v>
@@ -16548,7 +16548,7 @@
         <v>1535</v>
       </c>
       <c r="B135" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="C135" t="s">
         <v>1813</v>
@@ -16568,7 +16568,7 @@
         <v>1538</v>
       </c>
       <c r="B136" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="C136" t="s">
         <v>1815</v>
@@ -16588,7 +16588,7 @@
         <v>1542</v>
       </c>
       <c r="B137" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="C137" t="s">
         <v>1800</v>
@@ -16608,7 +16608,7 @@
         <v>1554</v>
       </c>
       <c r="B138" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="C138"/>
       <c r="D138" t="s">
@@ -16634,7 +16634,7 @@
         <v>1745</v>
       </c>
       <c r="B140" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="C140" t="s">
         <v>1794</v>
@@ -16648,7 +16648,7 @@
         <v>1747</v>
       </c>
       <c r="B141" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="C141" t="s">
         <v>1795</v>
@@ -16662,7 +16662,7 @@
         <v>1784</v>
       </c>
       <c r="B142" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="C142" t="s">
         <v>1785</v>
@@ -16670,7 +16670,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="B143" t="s">
         <v>1408</v>
@@ -16678,50 +16678,50 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B144" t="s">
         <v>1887</v>
-      </c>
-      <c r="B144" t="s">
-        <v>1888</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B145" t="s">
         <v>1906</v>
-      </c>
-      <c r="B145" t="s">
-        <v>1907</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B146" t="s">
         <v>1924</v>
-      </c>
-      <c r="B146" t="s">
-        <v>1925</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="B147" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="56" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="B148" s="56" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="56" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="B149" s="28" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
   </sheetData>
@@ -17602,10 +17602,10 @@
         <v>1305</v>
       </c>
       <c r="M6" t="s">
+        <v>1868</v>
+      </c>
+      <c r="N6" t="s">
         <v>1869</v>
-      </c>
-      <c r="N6" t="s">
-        <v>1870</v>
       </c>
       <c r="O6" t="s">
         <v>860</v>
@@ -17615,16 +17615,16 @@
       </c>
       <c r="Q6"/>
       <c r="R6" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="S6" t="s">
         <v>1309</v>
       </c>
       <c r="T6" t="s">
+        <v>1872</v>
+      </c>
+      <c r="U6" t="s">
         <v>1873</v>
-      </c>
-      <c r="U6" t="s">
-        <v>1874</v>
       </c>
       <c r="V6" t="s">
         <v>860</v>
@@ -17634,16 +17634,16 @@
       </c>
       <c r="X6"/>
       <c r="Y6" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="Z6" t="s">
         <v>865</v>
       </c>
       <c r="AA6" t="s">
+        <v>1876</v>
+      </c>
+      <c r="AB6" t="s">
         <v>1877</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>1878</v>
       </c>
       <c r="AC6" t="s">
         <v>860</v>
@@ -17674,7 +17674,7 @@
         <v>860</v>
       </c>
       <c r="BA6" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
   </sheetData>
@@ -20672,7 +20672,7 @@
         <v>1029</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -20686,7 +20686,7 @@
         <v>1030</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -20700,7 +20700,7 @@
         <v>1031</v>
       </c>
       <c r="D14" s="105" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -20765,7 +20765,7 @@
         <v>1461</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
   </sheetData>
@@ -22040,10 +22040,10 @@
         <v>500</v>
       </c>
       <c r="L4" t="s">
+        <v>1854</v>
+      </c>
+      <c r="M4" t="s">
         <v>1855</v>
-      </c>
-      <c r="M4" t="s">
-        <v>1856</v>
       </c>
       <c r="N4">
         <v>15</v>
@@ -22052,10 +22052,10 @@
         <v>1500</v>
       </c>
       <c r="P4" t="s">
+        <v>1856</v>
+      </c>
+      <c r="Q4" t="s">
         <v>1857</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>1858</v>
       </c>
       <c r="R4">
         <v>10</v>
@@ -24416,7 +24416,7 @@
         <v>1097</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
@@ -24558,7 +24558,7 @@
         <v>1098</v>
       </c>
       <c r="E9" s="84" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
@@ -24902,7 +24902,7 @@
         <v>1097</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
@@ -25056,7 +25056,7 @@
         <v>1098</v>
       </c>
       <c r="E9" s="84" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
@@ -25489,7 +25489,7 @@
         <v>1254</v>
       </c>
       <c r="E2" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -28570,7 +28570,7 @@
         <v>1486</v>
       </c>
       <c r="E5" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="F5" t="s">
         <v>1548</v>
@@ -31214,7 +31214,7 @@
         <v>1528</v>
       </c>
       <c r="E3" s="103" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="F3"/>
       <c r="G3"/>
